--- a/Footy Tipping 2017_friends.xlsx
+++ b/Footy Tipping 2017_friends.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="45">
   <si>
     <t>Round 1</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>+/- vs Average</t>
+  </si>
+  <si>
+    <t>Green: 1st place | Red: last place</t>
+  </si>
+  <si>
+    <t>Green: above average | Red: below average</t>
   </si>
 </sst>
 </file>
@@ -1871,11 +1877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140041600"/>
-        <c:axId val="140465664"/>
+        <c:axId val="147049472"/>
+        <c:axId val="147137664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140041600"/>
+        <c:axId val="147049472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1904,7 +1910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140465664"/>
+        <c:crossAx val="147137664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1912,7 +1918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140465664"/>
+        <c:axId val="147137664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140041600"/>
+        <c:crossAx val="147049472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3983,11 +3989,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140526336"/>
-        <c:axId val="140527872"/>
+        <c:axId val="197887872"/>
+        <c:axId val="197889408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140526336"/>
+        <c:axId val="197887872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4027,7 +4033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140527872"/>
+        <c:crossAx val="197889408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4035,7 +4041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140527872"/>
+        <c:axId val="197889408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4072,7 +4078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140526336"/>
+        <c:crossAx val="197887872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4163,7 +4169,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$B$1</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4184,7 +4190,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$2:$A$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -4261,7 +4267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$B$2:$B$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -4344,7 +4350,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$C$1</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4358,7 +4364,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$2:$A$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -4435,7 +4441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$C$2:$C$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$C$3:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -4518,7 +4524,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$D$1</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4539,7 +4545,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$2:$A$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -4616,7 +4622,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$D$2:$D$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$D$3:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -4699,7 +4705,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$E$1</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4713,7 +4719,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$2:$A$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -4790,7 +4796,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$E$2:$E$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$E$3:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -4873,7 +4879,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$F$1</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4887,7 +4893,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$2:$A$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -4964,7 +4970,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$F$2:$F$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$F$3:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -5047,7 +5053,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$G$1</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5068,7 +5074,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$2:$A$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -5145,7 +5151,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$G$2:$G$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$G$3:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -5228,7 +5234,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$H$1</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5249,7 +5255,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$2:$A$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -5326,7 +5332,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$H$2:$H$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$H$3:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -5409,7 +5415,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$I$1</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5430,7 +5436,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$2:$A$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -5507,7 +5513,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$I$2:$I$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$I$3:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -5590,7 +5596,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$J$1</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5611,7 +5617,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$2:$A$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -5688,7 +5694,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$J$2:$J$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$J$3:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -5771,7 +5777,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$K$1</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5794,7 +5800,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$2:$A$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -5871,7 +5877,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$K$2:$K$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$K$3:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -5954,7 +5960,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$L$1</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5975,7 +5981,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$2:$A$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -6052,7 +6058,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$L$2:$L$24</c:f>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$L$3:$L$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -6140,11 +6146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195029632"/>
-        <c:axId val="195113344"/>
+        <c:axId val="202182656"/>
+        <c:axId val="202184192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195029632"/>
+        <c:axId val="202182656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6184,7 +6190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195113344"/>
+        <c:crossAx val="202184192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6192,7 +6198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195113344"/>
+        <c:axId val="202184192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6229,7 +6235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195029632"/>
+        <c:crossAx val="202182656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9291,13 +9297,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9308,1368 +9314,1388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <f>'Round Scores'!B3</f>
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <f>'Round Scores'!C3</f>
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <f>'Round Scores'!D3</f>
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <f>'Round Scores'!E3</f>
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <f>'Round Scores'!F3</f>
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <f>'Round Scores'!G3</f>
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <f>'Round Scores'!H3</f>
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <f>'Round Scores'!I3</f>
-        <v>5</v>
-      </c>
-      <c r="J2" s="1">
-        <f>'Round Scores'!J3</f>
-        <v>4</v>
-      </c>
-      <c r="K2" s="1">
-        <f>'Round Scores'!K3</f>
-        <v>4</v>
-      </c>
-      <c r="L2" s="11">
-        <f>'Round Scores'!L3</f>
-        <v>3</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ref="M2:M23" si="0">AVERAGE(B2:L2)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM('Round Scores'!B$3:B4)</f>
-        <v>11</v>
+        <f>'Round Scores'!B3</f>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <f>SUM('Round Scores'!C$3:C4)</f>
-        <v>14</v>
+        <f>'Round Scores'!C3</f>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f>SUM('Round Scores'!D$3:D4)</f>
-        <v>12</v>
+        <f>'Round Scores'!D3</f>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <f>SUM('Round Scores'!E$3:E4)</f>
-        <v>14</v>
+        <f>'Round Scores'!E3</f>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <f>SUM('Round Scores'!F$3:F4)</f>
-        <v>13</v>
+        <f>'Round Scores'!F3</f>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
-        <f>SUM('Round Scores'!G$3:G4)</f>
-        <v>8</v>
+        <f>'Round Scores'!G3</f>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <f>SUM('Round Scores'!H$3:H4)</f>
-        <v>11</v>
+        <f>'Round Scores'!H3</f>
+        <v>4</v>
       </c>
       <c r="I3" s="1">
-        <f>SUM('Round Scores'!I$3:I4)</f>
-        <v>12</v>
+        <f>'Round Scores'!I3</f>
+        <v>5</v>
       </c>
       <c r="J3" s="1">
-        <f>SUM('Round Scores'!J$3:J4)</f>
-        <v>12</v>
+        <f>'Round Scores'!J3</f>
+        <v>4</v>
       </c>
       <c r="K3" s="1">
-        <f>SUM('Round Scores'!K$3:K4)</f>
-        <v>12</v>
+        <f>'Round Scores'!K3</f>
+        <v>4</v>
       </c>
       <c r="L3" s="11">
-        <f>SUM('Round Scores'!L$3:L4)</f>
-        <v>10</v>
+        <f>'Round Scores'!L3</f>
+        <v>3</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" si="0"/>
-        <v>11.727272727272727</v>
+        <f t="shared" ref="M3:M24" si="0">AVERAGE(B3:L3)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f>SUM('Round Scores'!B$3:B5)</f>
-        <v>15</v>
+        <f>SUM('Round Scores'!B$3:B4)</f>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <f>SUM('Round Scores'!C$3:C5)</f>
-        <v>20</v>
+        <f>SUM('Round Scores'!C$3:C4)</f>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
-        <f>SUM('Round Scores'!D$3:D5)</f>
-        <v>17</v>
+        <f>SUM('Round Scores'!D$3:D4)</f>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
-        <f>SUM('Round Scores'!E$3:E5)</f>
-        <v>18</v>
+        <f>SUM('Round Scores'!E$3:E4)</f>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
-        <f>SUM('Round Scores'!F$3:F5)</f>
-        <v>17</v>
+        <f>SUM('Round Scores'!F$3:F4)</f>
+        <v>13</v>
       </c>
       <c r="G4" s="1">
-        <f>SUM('Round Scores'!G$3:G5)</f>
+        <f>SUM('Round Scores'!G$3:G4)</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SUM('Round Scores'!H$3:H4)</f>
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <f>SUM('Round Scores'!I$3:I4)</f>
         <v>12</v>
       </c>
-      <c r="H4" s="1">
-        <f>SUM('Round Scores'!H$3:H5)</f>
-        <v>16</v>
-      </c>
-      <c r="I4" s="1">
-        <f>SUM('Round Scores'!I$3:I5)</f>
-        <v>16</v>
-      </c>
       <c r="J4" s="1">
-        <f>SUM('Round Scores'!J$3:J5)</f>
-        <v>16</v>
+        <f>SUM('Round Scores'!J$3:J4)</f>
+        <v>12</v>
       </c>
       <c r="K4" s="1">
-        <f>SUM('Round Scores'!K$3:K5)</f>
-        <v>16</v>
+        <f>SUM('Round Scores'!K$3:K4)</f>
+        <v>12</v>
       </c>
       <c r="L4" s="11">
-        <f>SUM('Round Scores'!L$3:L5)</f>
-        <v>16</v>
+        <f>SUM('Round Scores'!L$3:L4)</f>
+        <v>10</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" si="0"/>
-        <v>16.272727272727273</v>
+        <v>11.727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <f>SUM('Round Scores'!B$3:B6)</f>
-        <v>22</v>
+        <f>SUM('Round Scores'!B$3:B5)</f>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <f>SUM('Round Scores'!C$3:C6)</f>
-        <v>27</v>
+        <f>SUM('Round Scores'!C$3:C5)</f>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
-        <f>SUM('Round Scores'!D$3:D6)</f>
-        <v>23</v>
+        <f>SUM('Round Scores'!D$3:D5)</f>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
-        <f>SUM('Round Scores'!E$3:E6)</f>
-        <v>25</v>
+        <f>SUM('Round Scores'!E$3:E5)</f>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
-        <f>SUM('Round Scores'!F$3:F6)</f>
-        <v>23</v>
+        <f>SUM('Round Scores'!F$3:F5)</f>
+        <v>17</v>
       </c>
       <c r="G5" s="1">
-        <f>SUM('Round Scores'!G$3:G6)</f>
-        <v>18</v>
+        <f>SUM('Round Scores'!G$3:G5)</f>
+        <v>12</v>
       </c>
       <c r="H5" s="1">
-        <f>SUM('Round Scores'!H$3:H6)</f>
-        <v>23</v>
+        <f>SUM('Round Scores'!H$3:H5)</f>
+        <v>16</v>
       </c>
       <c r="I5" s="1">
-        <f>SUM('Round Scores'!I$3:I6)</f>
-        <v>21</v>
+        <f>SUM('Round Scores'!I$3:I5)</f>
+        <v>16</v>
       </c>
       <c r="J5" s="1">
-        <f>SUM('Round Scores'!J$3:J6)</f>
-        <v>23</v>
+        <f>SUM('Round Scores'!J$3:J5)</f>
+        <v>16</v>
       </c>
       <c r="K5" s="1">
-        <f>SUM('Round Scores'!K$3:K6)</f>
-        <v>23</v>
+        <f>SUM('Round Scores'!K$3:K5)</f>
+        <v>16</v>
       </c>
       <c r="L5" s="11">
-        <f>SUM('Round Scores'!L$3:L6)</f>
-        <v>22</v>
+        <f>SUM('Round Scores'!L$3:L5)</f>
+        <v>16</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" si="0"/>
-        <v>22.727272727272727</v>
+        <v>16.272727272727273</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <f>SUM('Round Scores'!B$3:B7)</f>
-        <v>29</v>
+        <f>SUM('Round Scores'!B$3:B6)</f>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
-        <f>SUM('Round Scores'!C$3:C7)</f>
-        <v>35</v>
+        <f>SUM('Round Scores'!C$3:C6)</f>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
-        <f>SUM('Round Scores'!D$3:D7)</f>
-        <v>31</v>
+        <f>SUM('Round Scores'!D$3:D6)</f>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
-        <f>SUM('Round Scores'!E$3:E7)</f>
-        <v>32</v>
+        <f>SUM('Round Scores'!E$3:E6)</f>
+        <v>25</v>
       </c>
       <c r="F6" s="1">
-        <f>SUM('Round Scores'!F$3:F7)</f>
-        <v>31</v>
+        <f>SUM('Round Scores'!F$3:F6)</f>
+        <v>23</v>
       </c>
       <c r="G6" s="1">
-        <f>SUM('Round Scores'!G$3:G7)</f>
-        <v>26</v>
+        <f>SUM('Round Scores'!G$3:G6)</f>
+        <v>18</v>
       </c>
       <c r="H6" s="1">
-        <f>SUM('Round Scores'!H$3:H7)</f>
-        <v>29</v>
+        <f>SUM('Round Scores'!H$3:H6)</f>
+        <v>23</v>
       </c>
       <c r="I6" s="1">
-        <f>SUM('Round Scores'!I$3:I7)</f>
-        <v>27</v>
+        <f>SUM('Round Scores'!I$3:I6)</f>
+        <v>21</v>
       </c>
       <c r="J6" s="1">
-        <f>SUM('Round Scores'!J$3:J7)</f>
-        <v>29</v>
+        <f>SUM('Round Scores'!J$3:J6)</f>
+        <v>23</v>
       </c>
       <c r="K6" s="1">
-        <f>SUM('Round Scores'!K$3:K7)</f>
-        <v>29</v>
+        <f>SUM('Round Scores'!K$3:K6)</f>
+        <v>23</v>
       </c>
       <c r="L6" s="11">
-        <f>SUM('Round Scores'!L$3:L7)</f>
-        <v>27</v>
+        <f>SUM('Round Scores'!L$3:L6)</f>
+        <v>22</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" si="0"/>
-        <v>29.545454545454547</v>
+        <v>22.727272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <f>SUM('Round Scores'!B$3:B8)</f>
+        <f>SUM('Round Scores'!B$3:B7)</f>
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUM('Round Scores'!C$3:C7)</f>
         <v>35</v>
       </c>
-      <c r="C7" s="1">
-        <f>SUM('Round Scores'!C$3:C8)</f>
-        <v>41</v>
-      </c>
       <c r="D7" s="1">
-        <f>SUM('Round Scores'!D$3:D8)</f>
-        <v>36</v>
+        <f>SUM('Round Scores'!D$3:D7)</f>
+        <v>31</v>
       </c>
       <c r="E7" s="1">
-        <f>SUM('Round Scores'!E$3:E8)</f>
-        <v>38</v>
+        <f>SUM('Round Scores'!E$3:E7)</f>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
-        <f>SUM('Round Scores'!F$3:F8)</f>
-        <v>36</v>
+        <f>SUM('Round Scores'!F$3:F7)</f>
+        <v>31</v>
       </c>
       <c r="G7" s="1">
-        <f>SUM('Round Scores'!G$3:G8)</f>
-        <v>30</v>
+        <f>SUM('Round Scores'!G$3:G7)</f>
+        <v>26</v>
       </c>
       <c r="H7" s="1">
-        <f>SUM('Round Scores'!H$3:H8)</f>
-        <v>37</v>
+        <f>SUM('Round Scores'!H$3:H7)</f>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
-        <f>SUM('Round Scores'!I$3:I8)</f>
-        <v>33</v>
+        <f>SUM('Round Scores'!I$3:I7)</f>
+        <v>27</v>
       </c>
       <c r="J7" s="1">
-        <f>SUM('Round Scores'!J$3:J8)</f>
-        <v>34</v>
+        <f>SUM('Round Scores'!J$3:J7)</f>
+        <v>29</v>
       </c>
       <c r="K7" s="1">
-        <f>SUM('Round Scores'!K$3:K8)</f>
-        <v>33</v>
+        <f>SUM('Round Scores'!K$3:K7)</f>
+        <v>29</v>
       </c>
       <c r="L7" s="11">
-        <f>SUM('Round Scores'!L$3:L8)</f>
-        <v>32</v>
+        <f>SUM('Round Scores'!L$3:L7)</f>
+        <v>27</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>29.545454545454547</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <f>SUM('Round Scores'!B$3:B9)</f>
-        <v>39</v>
+        <f>SUM('Round Scores'!B$3:B8)</f>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
-        <f>SUM('Round Scores'!C$3:C9)</f>
-        <v>44</v>
+        <f>SUM('Round Scores'!C$3:C8)</f>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
-        <f>SUM('Round Scores'!D$3:D9)</f>
-        <v>39</v>
+        <f>SUM('Round Scores'!D$3:D8)</f>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
-        <f>SUM('Round Scores'!E$3:E9)</f>
-        <v>41</v>
+        <f>SUM('Round Scores'!E$3:E8)</f>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
-        <f>SUM('Round Scores'!F$3:F9)</f>
-        <v>39</v>
+        <f>SUM('Round Scores'!F$3:F8)</f>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
-        <f>SUM('Round Scores'!G$3:G9)</f>
+        <f>SUM('Round Scores'!G$3:G8)</f>
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SUM('Round Scores'!H$3:H8)</f>
+        <v>37</v>
+      </c>
+      <c r="I8" s="1">
+        <f>SUM('Round Scores'!I$3:I8)</f>
+        <v>33</v>
+      </c>
+      <c r="J8" s="1">
+        <f>SUM('Round Scores'!J$3:J8)</f>
         <v>34</v>
       </c>
-      <c r="H8" s="1">
-        <f>SUM('Round Scores'!H$3:H9)</f>
-        <v>41</v>
-      </c>
-      <c r="I8" s="1">
-        <f>SUM('Round Scores'!I$3:I9)</f>
-        <v>37</v>
-      </c>
-      <c r="J8" s="1">
-        <f>SUM('Round Scores'!J$3:J9)</f>
-        <v>38</v>
-      </c>
       <c r="K8" s="1">
-        <f>SUM('Round Scores'!K$3:K9)</f>
-        <v>37</v>
+        <f>SUM('Round Scores'!K$3:K8)</f>
+        <v>33</v>
       </c>
       <c r="L8" s="11">
-        <f>SUM('Round Scores'!L$3:L9)</f>
-        <v>35</v>
+        <f>SUM('Round Scores'!L$3:L8)</f>
+        <v>32</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="0"/>
-        <v>38.545454545454547</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <f>SUM('Round Scores'!B$3:B10)</f>
+        <f>SUM('Round Scores'!B$3:B9)</f>
+        <v>39</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUM('Round Scores'!C$3:C9)</f>
         <v>44</v>
       </c>
-      <c r="C9" s="1">
-        <f>SUM('Round Scores'!C$3:C10)</f>
-        <v>49</v>
-      </c>
       <c r="D9" s="1">
-        <f>SUM('Round Scores'!D$3:D10)</f>
-        <v>44</v>
+        <f>SUM('Round Scores'!D$3:D9)</f>
+        <v>39</v>
       </c>
       <c r="E9" s="1">
-        <f>SUM('Round Scores'!E$3:E10)</f>
-        <v>47</v>
+        <f>SUM('Round Scores'!E$3:E9)</f>
+        <v>41</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM('Round Scores'!F$3:F10)</f>
-        <v>44</v>
+        <f>SUM('Round Scores'!F$3:F9)</f>
+        <v>39</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM('Round Scores'!G$3:G10)</f>
-        <v>40</v>
+        <f>SUM('Round Scores'!G$3:G9)</f>
+        <v>34</v>
       </c>
       <c r="H9" s="1">
-        <f>SUM('Round Scores'!H$3:H10)</f>
-        <v>45</v>
+        <f>SUM('Round Scores'!H$3:H9)</f>
+        <v>41</v>
       </c>
       <c r="I9" s="1">
-        <f>SUM('Round Scores'!I$3:I10)</f>
-        <v>43</v>
+        <f>SUM('Round Scores'!I$3:I9)</f>
+        <v>37</v>
       </c>
       <c r="J9" s="1">
-        <f>SUM('Round Scores'!J$3:J10)</f>
-        <v>43</v>
+        <f>SUM('Round Scores'!J$3:J9)</f>
+        <v>38</v>
       </c>
       <c r="K9" s="1">
-        <f>SUM('Round Scores'!K$3:K10)</f>
-        <v>43</v>
+        <f>SUM('Round Scores'!K$3:K9)</f>
+        <v>37</v>
       </c>
       <c r="L9" s="11">
-        <f>SUM('Round Scores'!L$3:L10)</f>
-        <v>40</v>
+        <f>SUM('Round Scores'!L$3:L9)</f>
+        <v>35</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="0"/>
-        <v>43.81818181818182</v>
+        <v>38.545454545454547</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <f>SUM('Round Scores'!B$3:B11)</f>
-        <v>48</v>
+        <f>SUM('Round Scores'!B$3:B10)</f>
+        <v>44</v>
       </c>
       <c r="C10" s="1">
-        <f>SUM('Round Scores'!C$3:C11)</f>
-        <v>53</v>
+        <f>SUM('Round Scores'!C$3:C10)</f>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
-        <f>SUM('Round Scores'!D$3:D11)</f>
-        <v>50</v>
+        <f>SUM('Round Scores'!D$3:D10)</f>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
-        <f>SUM('Round Scores'!E$3:E11)</f>
-        <v>51</v>
+        <f>SUM('Round Scores'!E$3:E10)</f>
+        <v>47</v>
       </c>
       <c r="F10" s="1">
-        <f>SUM('Round Scores'!F$3:F11)</f>
-        <v>49</v>
+        <f>SUM('Round Scores'!F$3:F10)</f>
+        <v>44</v>
       </c>
       <c r="G10" s="1">
-        <f>SUM('Round Scores'!G$3:G11)</f>
+        <f>SUM('Round Scores'!G$3:G10)</f>
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SUM('Round Scores'!H$3:H10)</f>
+        <v>45</v>
+      </c>
+      <c r="I10" s="1">
+        <f>SUM('Round Scores'!I$3:I10)</f>
         <v>43</v>
       </c>
-      <c r="H10" s="1">
-        <f>SUM('Round Scores'!H$3:H11)</f>
-        <v>49</v>
-      </c>
-      <c r="I10" s="1">
-        <f>SUM('Round Scores'!I$3:I11)</f>
-        <v>47</v>
-      </c>
       <c r="J10" s="1">
-        <f>SUM('Round Scores'!J$3:J11)</f>
-        <v>46</v>
+        <f>SUM('Round Scores'!J$3:J10)</f>
+        <v>43</v>
       </c>
       <c r="K10" s="1">
-        <f>SUM('Round Scores'!K$3:K11)</f>
-        <v>45</v>
+        <f>SUM('Round Scores'!K$3:K10)</f>
+        <v>43</v>
       </c>
       <c r="L10" s="11">
-        <f>SUM('Round Scores'!L$3:L11)</f>
-        <v>44</v>
+        <f>SUM('Round Scores'!L$3:L10)</f>
+        <v>40</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" si="0"/>
-        <v>47.727272727272727</v>
+        <v>43.81818181818182</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <f>SUM('Round Scores'!B$3:B12)</f>
-        <v>54</v>
+        <f>SUM('Round Scores'!B$3:B11)</f>
+        <v>48</v>
       </c>
       <c r="C11" s="1">
-        <f>SUM('Round Scores'!C$3:C12)</f>
-        <v>60</v>
+        <f>SUM('Round Scores'!C$3:C11)</f>
+        <v>53</v>
       </c>
       <c r="D11" s="1">
-        <f>SUM('Round Scores'!D$3:D12)</f>
-        <v>57</v>
+        <f>SUM('Round Scores'!D$3:D11)</f>
+        <v>50</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM('Round Scores'!E$3:E12)</f>
-        <v>57</v>
+        <f>SUM('Round Scores'!E$3:E11)</f>
+        <v>51</v>
       </c>
       <c r="F11" s="1">
-        <f>SUM('Round Scores'!F$3:F12)</f>
-        <v>54</v>
+        <f>SUM('Round Scores'!F$3:F11)</f>
+        <v>49</v>
       </c>
       <c r="G11" s="1">
-        <f>SUM('Round Scores'!G$3:G12)</f>
-        <v>51</v>
+        <f>SUM('Round Scores'!G$3:G11)</f>
+        <v>43</v>
       </c>
       <c r="H11" s="1">
-        <f>SUM('Round Scores'!H$3:H12)</f>
-        <v>55</v>
+        <f>SUM('Round Scores'!H$3:H11)</f>
+        <v>49</v>
       </c>
       <c r="I11" s="1">
-        <f>SUM('Round Scores'!I$3:I12)</f>
-        <v>53</v>
+        <f>SUM('Round Scores'!I$3:I11)</f>
+        <v>47</v>
       </c>
       <c r="J11" s="1">
-        <f>SUM('Round Scores'!J$3:J12)</f>
-        <v>53</v>
+        <f>SUM('Round Scores'!J$3:J11)</f>
+        <v>46</v>
       </c>
       <c r="K11" s="1">
-        <f>SUM('Round Scores'!K$3:K12)</f>
-        <v>49</v>
+        <f>SUM('Round Scores'!K$3:K11)</f>
+        <v>45</v>
       </c>
       <c r="L11" s="11">
-        <f>SUM('Round Scores'!L$3:L12)</f>
-        <v>52</v>
+        <f>SUM('Round Scores'!L$3:L11)</f>
+        <v>44</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="0"/>
-        <v>54.090909090909093</v>
+        <v>47.727272727272727</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <f>SUM('Round Scores'!B$3:B13)</f>
-        <v>59</v>
+        <f>SUM('Round Scores'!B$3:B12)</f>
+        <v>54</v>
       </c>
       <c r="C12" s="1">
-        <f>SUM('Round Scores'!C$3:C13)</f>
-        <v>64</v>
+        <f>SUM('Round Scores'!C$3:C12)</f>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
-        <f>SUM('Round Scores'!D$3:D13)</f>
-        <v>61</v>
+        <f>SUM('Round Scores'!D$3:D12)</f>
+        <v>57</v>
       </c>
       <c r="E12" s="1">
-        <f>SUM('Round Scores'!E$3:E13)</f>
-        <v>59</v>
+        <f>SUM('Round Scores'!E$3:E12)</f>
+        <v>57</v>
       </c>
       <c r="F12" s="1">
-        <f>SUM('Round Scores'!F$3:F13)</f>
-        <v>58</v>
+        <f>SUM('Round Scores'!F$3:F12)</f>
+        <v>54</v>
       </c>
       <c r="G12" s="1">
-        <f>SUM('Round Scores'!G$3:G13)</f>
+        <f>SUM('Round Scores'!G$3:G12)</f>
+        <v>51</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SUM('Round Scores'!H$3:H12)</f>
+        <v>55</v>
+      </c>
+      <c r="I12" s="1">
+        <f>SUM('Round Scores'!I$3:I12)</f>
         <v>53</v>
       </c>
-      <c r="H12" s="1">
-        <f>SUM('Round Scores'!H$3:H13)</f>
-        <v>59</v>
-      </c>
-      <c r="I12" s="1">
-        <f>SUM('Round Scores'!I$3:I13)</f>
-        <v>57</v>
-      </c>
       <c r="J12" s="1">
-        <f>SUM('Round Scores'!J$3:J13)</f>
-        <v>57</v>
+        <f>SUM('Round Scores'!J$3:J12)</f>
+        <v>53</v>
       </c>
       <c r="K12" s="1">
-        <f>SUM('Round Scores'!K$3:K13)</f>
+        <f>SUM('Round Scores'!K$3:K12)</f>
+        <v>49</v>
+      </c>
+      <c r="L12" s="11">
+        <f>SUM('Round Scores'!L$3:L12)</f>
         <v>52</v>
-      </c>
-      <c r="L12" s="11">
-        <f>SUM('Round Scores'!L$3:L13)</f>
-        <v>57</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="0"/>
-        <v>57.81818181818182</v>
+        <v>54.090909090909093</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <f>SUM('Round Scores'!B$3:B14)</f>
-        <v>62</v>
+        <f>SUM('Round Scores'!B$3:B13)</f>
+        <v>59</v>
       </c>
       <c r="C13" s="1">
-        <f>SUM('Round Scores'!C$3:C14)</f>
-        <v>65</v>
+        <f>SUM('Round Scores'!C$3:C13)</f>
+        <v>64</v>
       </c>
       <c r="D13" s="1">
-        <f>SUM('Round Scores'!D$3:D14)</f>
-        <v>64</v>
+        <f>SUM('Round Scores'!D$3:D13)</f>
+        <v>61</v>
       </c>
       <c r="E13" s="1">
-        <f>SUM('Round Scores'!E$3:E14)</f>
-        <v>62</v>
+        <f>SUM('Round Scores'!E$3:E13)</f>
+        <v>59</v>
       </c>
       <c r="F13" s="1">
-        <f>SUM('Round Scores'!F$3:F14)</f>
-        <v>60</v>
+        <f>SUM('Round Scores'!F$3:F13)</f>
+        <v>58</v>
       </c>
       <c r="G13" s="1">
-        <f>SUM('Round Scores'!G$3:G14)</f>
-        <v>56</v>
+        <f>SUM('Round Scores'!G$3:G13)</f>
+        <v>53</v>
       </c>
       <c r="H13" s="1">
-        <f>SUM('Round Scores'!H$3:H14)</f>
-        <v>63</v>
+        <f>SUM('Round Scores'!H$3:H13)</f>
+        <v>59</v>
       </c>
       <c r="I13" s="1">
-        <f>SUM('Round Scores'!I$3:I14)</f>
-        <v>60</v>
+        <f>SUM('Round Scores'!I$3:I13)</f>
+        <v>57</v>
       </c>
       <c r="J13" s="1">
-        <f>SUM('Round Scores'!J$3:J14)</f>
-        <v>59</v>
+        <f>SUM('Round Scores'!J$3:J13)</f>
+        <v>57</v>
       </c>
       <c r="K13" s="1">
-        <f>SUM('Round Scores'!K$3:K14)</f>
+        <f>SUM('Round Scores'!K$3:K13)</f>
+        <v>52</v>
+      </c>
+      <c r="L13" s="11">
+        <f>SUM('Round Scores'!L$3:L13)</f>
         <v>57</v>
-      </c>
-      <c r="L13" s="11">
-        <f>SUM('Round Scores'!L$3:L14)</f>
-        <v>58</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="0"/>
-        <v>60.545454545454547</v>
+        <v>57.81818181818182</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <f>SUM('Round Scores'!B$3:B15)</f>
+        <f>SUM('Round Scores'!B$3:B14)</f>
+        <v>62</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SUM('Round Scores'!C$3:C14)</f>
+        <v>65</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SUM('Round Scores'!D$3:D14)</f>
         <v>64</v>
       </c>
-      <c r="C14" s="1">
-        <f>SUM('Round Scores'!C$3:C15)</f>
-        <v>68</v>
-      </c>
-      <c r="D14" s="1">
-        <f>SUM('Round Scores'!D$3:D15)</f>
-        <v>66</v>
-      </c>
       <c r="E14" s="1">
-        <f>SUM('Round Scores'!E$3:E15)</f>
-        <v>65</v>
+        <f>SUM('Round Scores'!E$3:E14)</f>
+        <v>62</v>
       </c>
       <c r="F14" s="1">
-        <f>SUM('Round Scores'!F$3:F15)</f>
-        <v>62</v>
+        <f>SUM('Round Scores'!F$3:F14)</f>
+        <v>60</v>
       </c>
       <c r="G14" s="1">
-        <f>SUM('Round Scores'!G$3:G15)</f>
+        <f>SUM('Round Scores'!G$3:G14)</f>
+        <v>56</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SUM('Round Scores'!H$3:H14)</f>
+        <v>63</v>
+      </c>
+      <c r="I14" s="1">
+        <f>SUM('Round Scores'!I$3:I14)</f>
+        <v>60</v>
+      </c>
+      <c r="J14" s="1">
+        <f>SUM('Round Scores'!J$3:J14)</f>
         <v>59</v>
       </c>
-      <c r="H14" s="1">
-        <f>SUM('Round Scores'!H$3:H15)</f>
-        <v>66</v>
-      </c>
-      <c r="I14" s="1">
-        <f>SUM('Round Scores'!I$3:I15)</f>
-        <v>62</v>
-      </c>
-      <c r="J14" s="1">
-        <f>SUM('Round Scores'!J$3:J15)</f>
-        <v>62</v>
-      </c>
       <c r="K14" s="1">
-        <f>SUM('Round Scores'!K$3:K15)</f>
-        <v>60</v>
+        <f>SUM('Round Scores'!K$3:K14)</f>
+        <v>57</v>
       </c>
       <c r="L14" s="11">
-        <f>SUM('Round Scores'!L$3:L15)</f>
-        <v>60</v>
+        <f>SUM('Round Scores'!L$3:L14)</f>
+        <v>58</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="0"/>
-        <v>63.090909090909093</v>
+        <v>60.545454545454547</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <f>SUM('Round Scores'!B$3:B16)</f>
-        <v>70</v>
+        <f>SUM('Round Scores'!B$3:B15)</f>
+        <v>64</v>
       </c>
       <c r="C15" s="1">
-        <f>SUM('Round Scores'!C$3:C16)</f>
-        <v>75</v>
+        <f>SUM('Round Scores'!C$3:C15)</f>
+        <v>68</v>
       </c>
       <c r="D15" s="1">
-        <f>SUM('Round Scores'!D$3:D16)</f>
-        <v>72</v>
+        <f>SUM('Round Scores'!D$3:D15)</f>
+        <v>66</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM('Round Scores'!E$3:E16)</f>
-        <v>70</v>
+        <f>SUM('Round Scores'!E$3:E15)</f>
+        <v>65</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM('Round Scores'!F$3:F16)</f>
-        <v>69</v>
+        <f>SUM('Round Scores'!F$3:F15)</f>
+        <v>62</v>
       </c>
       <c r="G15" s="1">
-        <f>SUM('Round Scores'!G$3:G16)</f>
-        <v>67</v>
+        <f>SUM('Round Scores'!G$3:G15)</f>
+        <v>59</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM('Round Scores'!H$3:H16)</f>
-        <v>72</v>
+        <f>SUM('Round Scores'!H$3:H15)</f>
+        <v>66</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM('Round Scores'!I$3:I16)</f>
-        <v>68</v>
+        <f>SUM('Round Scores'!I$3:I15)</f>
+        <v>62</v>
       </c>
       <c r="J15" s="1">
-        <f>SUM('Round Scores'!J$3:J16)</f>
-        <v>68</v>
+        <f>SUM('Round Scores'!J$3:J15)</f>
+        <v>62</v>
       </c>
       <c r="K15" s="1">
-        <f>SUM('Round Scores'!K$3:K16)</f>
-        <v>67</v>
+        <f>SUM('Round Scores'!K$3:K15)</f>
+        <v>60</v>
       </c>
       <c r="L15" s="11">
-        <f>SUM('Round Scores'!L$3:L16)</f>
-        <v>66</v>
+        <f>SUM('Round Scores'!L$3:L15)</f>
+        <v>60</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="0"/>
-        <v>69.454545454545453</v>
+        <v>63.090909090909093</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <f>SUM('Round Scores'!B$3:B17)</f>
-        <v>73</v>
+        <f>SUM('Round Scores'!B$3:B16)</f>
+        <v>70</v>
       </c>
       <c r="C16" s="1">
-        <f>SUM('Round Scores'!C$3:C17)</f>
-        <v>79</v>
+        <f>SUM('Round Scores'!C$3:C16)</f>
+        <v>75</v>
       </c>
       <c r="D16" s="1">
-        <f>SUM('Round Scores'!D$3:D17)</f>
-        <v>75</v>
+        <f>SUM('Round Scores'!D$3:D16)</f>
+        <v>72</v>
       </c>
       <c r="E16" s="1">
-        <f>SUM('Round Scores'!E$3:E17)</f>
-        <v>74</v>
+        <f>SUM('Round Scores'!E$3:E16)</f>
+        <v>70</v>
       </c>
       <c r="F16" s="1">
-        <f>SUM('Round Scores'!F$3:F17)</f>
+        <f>SUM('Round Scores'!F$3:F16)</f>
+        <v>69</v>
+      </c>
+      <c r="G16" s="1">
+        <f>SUM('Round Scores'!G$3:G16)</f>
+        <v>67</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SUM('Round Scores'!H$3:H16)</f>
         <v>72</v>
       </c>
-      <c r="G16" s="1">
-        <f>SUM('Round Scores'!G$3:G17)</f>
-        <v>73</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SUM('Round Scores'!H$3:H17)</f>
-        <v>75</v>
-      </c>
       <c r="I16" s="1">
-        <f>SUM('Round Scores'!I$3:I17)</f>
-        <v>71</v>
+        <f>SUM('Round Scores'!I$3:I16)</f>
+        <v>68</v>
       </c>
       <c r="J16" s="1">
-        <f>SUM('Round Scores'!J$3:J17)</f>
-        <v>72</v>
+        <f>SUM('Round Scores'!J$3:J16)</f>
+        <v>68</v>
       </c>
       <c r="K16" s="1">
-        <f>SUM('Round Scores'!K$3:K17)</f>
-        <v>71</v>
+        <f>SUM('Round Scores'!K$3:K16)</f>
+        <v>67</v>
       </c>
       <c r="L16" s="11">
-        <f>SUM('Round Scores'!L$3:L17)</f>
-        <v>69</v>
+        <f>SUM('Round Scores'!L$3:L16)</f>
+        <v>66</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="0"/>
-        <v>73.090909090909093</v>
+        <v>69.454545454545453</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <f>SUM('Round Scores'!B$3:B18)</f>
+        <f>SUM('Round Scores'!B$3:B17)</f>
+        <v>73</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUM('Round Scores'!C$3:C17)</f>
         <v>79</v>
       </c>
-      <c r="C17" s="1">
-        <f>SUM('Round Scores'!C$3:C18)</f>
-        <v>85</v>
-      </c>
       <c r="D17" s="1">
-        <f>SUM('Round Scores'!D$3:D18)</f>
-        <v>80</v>
+        <f>SUM('Round Scores'!D$3:D17)</f>
+        <v>75</v>
       </c>
       <c r="E17" s="1">
-        <f>SUM('Round Scores'!E$3:E18)</f>
-        <v>81</v>
+        <f>SUM('Round Scores'!E$3:E17)</f>
+        <v>74</v>
       </c>
       <c r="F17" s="1">
-        <f>SUM('Round Scores'!F$3:F18)</f>
-        <v>78</v>
+        <f>SUM('Round Scores'!F$3:F17)</f>
+        <v>72</v>
       </c>
       <c r="G17" s="1">
-        <f>SUM('Round Scores'!G$3:G18)</f>
-        <v>79</v>
+        <f>SUM('Round Scores'!G$3:G17)</f>
+        <v>73</v>
       </c>
       <c r="H17" s="1">
-        <f>SUM('Round Scores'!H$3:H18)</f>
-        <v>81</v>
+        <f>SUM('Round Scores'!H$3:H17)</f>
+        <v>75</v>
       </c>
       <c r="I17" s="1">
-        <f>SUM('Round Scores'!I$3:I18)</f>
-        <v>77</v>
+        <f>SUM('Round Scores'!I$3:I17)</f>
+        <v>71</v>
       </c>
       <c r="J17" s="1">
-        <f>SUM('Round Scores'!J$3:J18)</f>
-        <v>79</v>
+        <f>SUM('Round Scores'!J$3:J17)</f>
+        <v>72</v>
       </c>
       <c r="K17" s="1">
-        <f>SUM('Round Scores'!K$3:K18)</f>
-        <v>78</v>
+        <f>SUM('Round Scores'!K$3:K17)</f>
+        <v>71</v>
       </c>
       <c r="L17" s="11">
-        <f>SUM('Round Scores'!L$3:L18)</f>
-        <v>76</v>
+        <f>SUM('Round Scores'!L$3:L17)</f>
+        <v>69</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="0"/>
-        <v>79.36363636363636</v>
+        <v>73.090909090909093</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
-        <f>SUM('Round Scores'!B$3:B19)</f>
-        <v>84</v>
+        <f>SUM('Round Scores'!B$3:B18)</f>
+        <v>79</v>
       </c>
       <c r="C18" s="1">
-        <f>SUM('Round Scores'!C$3:C19)</f>
-        <v>90</v>
+        <f>SUM('Round Scores'!C$3:C18)</f>
+        <v>85</v>
       </c>
       <c r="D18" s="1">
-        <f>SUM('Round Scores'!D$3:D19)</f>
-        <v>85</v>
+        <f>SUM('Round Scores'!D$3:D18)</f>
+        <v>80</v>
       </c>
       <c r="E18" s="1">
-        <f>SUM('Round Scores'!E$3:E19)</f>
-        <v>88</v>
+        <f>SUM('Round Scores'!E$3:E18)</f>
+        <v>81</v>
       </c>
       <c r="F18" s="1">
-        <f>SUM('Round Scores'!F$3:F19)</f>
-        <v>85</v>
+        <f>SUM('Round Scores'!F$3:F18)</f>
+        <v>78</v>
       </c>
       <c r="G18" s="1">
-        <f>SUM('Round Scores'!G$3:G19)</f>
-        <v>84</v>
+        <f>SUM('Round Scores'!G$3:G18)</f>
+        <v>79</v>
       </c>
       <c r="H18" s="1">
-        <f>SUM('Round Scores'!H$3:H19)</f>
-        <v>86</v>
+        <f>SUM('Round Scores'!H$3:H18)</f>
+        <v>81</v>
       </c>
       <c r="I18" s="1">
-        <f>SUM('Round Scores'!I$3:I19)</f>
-        <v>80</v>
+        <f>SUM('Round Scores'!I$3:I18)</f>
+        <v>77</v>
       </c>
       <c r="J18" s="1">
-        <f>SUM('Round Scores'!J$3:J19)</f>
-        <v>84</v>
+        <f>SUM('Round Scores'!J$3:J18)</f>
+        <v>79</v>
       </c>
       <c r="K18" s="1">
-        <f>SUM('Round Scores'!K$3:K19)</f>
-        <v>84</v>
+        <f>SUM('Round Scores'!K$3:K18)</f>
+        <v>78</v>
       </c>
       <c r="L18" s="11">
-        <f>SUM('Round Scores'!L$3:L19)</f>
-        <v>85</v>
+        <f>SUM('Round Scores'!L$3:L18)</f>
+        <v>76</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>79.36363636363636</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
-        <f>SUM('Round Scores'!B$3:B20)</f>
-        <v>92</v>
+        <f>SUM('Round Scores'!B$3:B19)</f>
+        <v>84</v>
       </c>
       <c r="C19" s="1">
-        <f>SUM('Round Scores'!C$3:C20)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!C$3:C19)</f>
+        <v>90</v>
       </c>
       <c r="D19" s="1">
-        <f>SUM('Round Scores'!D$3:D20)</f>
-        <v>89</v>
+        <f>SUM('Round Scores'!D$3:D19)</f>
+        <v>85</v>
       </c>
       <c r="E19" s="1">
-        <f>SUM('Round Scores'!E$3:E20)</f>
-        <v>94</v>
+        <f>SUM('Round Scores'!E$3:E19)</f>
+        <v>88</v>
       </c>
       <c r="F19" s="1">
-        <f>SUM('Round Scores'!F$3:F20)</f>
-        <v>90</v>
+        <f>SUM('Round Scores'!F$3:F19)</f>
+        <v>85</v>
       </c>
       <c r="G19" s="1">
-        <f>SUM('Round Scores'!G$3:G20)</f>
-        <v>89</v>
+        <f>SUM('Round Scores'!G$3:G19)</f>
+        <v>84</v>
       </c>
       <c r="H19" s="1">
-        <f>SUM('Round Scores'!H$3:H20)</f>
-        <v>89</v>
+        <f>SUM('Round Scores'!H$3:H19)</f>
+        <v>86</v>
       </c>
       <c r="I19" s="1">
-        <f>SUM('Round Scores'!I$3:I20)</f>
-        <v>87</v>
+        <f>SUM('Round Scores'!I$3:I19)</f>
+        <v>80</v>
       </c>
       <c r="J19" s="1">
-        <f>SUM('Round Scores'!J$3:J20)</f>
-        <v>89</v>
+        <f>SUM('Round Scores'!J$3:J19)</f>
+        <v>84</v>
       </c>
       <c r="K19" s="1">
-        <f>SUM('Round Scores'!K$3:K20)</f>
-        <v>89</v>
+        <f>SUM('Round Scores'!K$3:K19)</f>
+        <v>84</v>
       </c>
       <c r="L19" s="11">
-        <f>SUM('Round Scores'!L$3:L20)</f>
-        <v>90</v>
+        <f>SUM('Round Scores'!L$3:L19)</f>
+        <v>85</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="0"/>
-        <v>90.36363636363636</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
-        <f>SUM('Round Scores'!B$3:B21)</f>
-        <v>98</v>
+        <f>SUM('Round Scores'!B$3:B20)</f>
+        <v>92</v>
       </c>
       <c r="C20" s="1">
-        <f>SUM('Round Scores'!C$3:C21)</f>
-        <v>102</v>
+        <f>SUM('Round Scores'!C$3:C20)</f>
+        <v>96</v>
       </c>
       <c r="D20" s="1">
-        <f>SUM('Round Scores'!D$3:D21)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!D$3:D20)</f>
+        <v>89</v>
       </c>
       <c r="E20" s="1">
-        <f>SUM('Round Scores'!E$3:E21)</f>
-        <v>100</v>
+        <f>SUM('Round Scores'!E$3:E20)</f>
+        <v>94</v>
       </c>
       <c r="F20" s="1">
-        <f>SUM('Round Scores'!F$3:F21)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!F$3:F20)</f>
+        <v>90</v>
       </c>
       <c r="G20" s="1">
-        <f>SUM('Round Scores'!G$3:G21)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!G$3:G20)</f>
+        <v>89</v>
       </c>
       <c r="H20" s="1">
-        <f>SUM('Round Scores'!H$3:H21)</f>
-        <v>95</v>
+        <f>SUM('Round Scores'!H$3:H20)</f>
+        <v>89</v>
       </c>
       <c r="I20" s="1">
-        <f>SUM('Round Scores'!I$3:I21)</f>
-        <v>93</v>
+        <f>SUM('Round Scores'!I$3:I20)</f>
+        <v>87</v>
       </c>
       <c r="J20" s="1">
-        <f>SUM('Round Scores'!J$3:J21)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!J$3:J20)</f>
+        <v>89</v>
       </c>
       <c r="K20" s="1">
-        <f>SUM('Round Scores'!K$3:K21)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!K$3:K20)</f>
+        <v>89</v>
       </c>
       <c r="L20" s="11">
-        <f>SUM('Round Scores'!L$3:L21)</f>
-        <v>97</v>
+        <f>SUM('Round Scores'!L$3:L20)</f>
+        <v>90</v>
       </c>
       <c r="M20" s="5">
         <f t="shared" si="0"/>
-        <v>96.818181818181813</v>
+        <v>90.36363636363636</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
-        <f>SUM('Round Scores'!B$3:B22)</f>
-        <v>106</v>
+        <f>SUM('Round Scores'!B$3:B21)</f>
+        <v>98</v>
       </c>
       <c r="C21" s="1">
-        <f>SUM('Round Scores'!C$3:C22)</f>
-        <v>108</v>
+        <f>SUM('Round Scores'!C$3:C21)</f>
+        <v>102</v>
       </c>
       <c r="D21" s="1">
-        <f>SUM('Round Scores'!D$3:D22)</f>
-        <v>104</v>
+        <f>SUM('Round Scores'!D$3:D21)</f>
+        <v>96</v>
       </c>
       <c r="E21" s="1">
-        <f>SUM('Round Scores'!E$3:E22)</f>
-        <v>107</v>
+        <f>SUM('Round Scores'!E$3:E21)</f>
+        <v>100</v>
       </c>
       <c r="F21" s="1">
-        <f>SUM('Round Scores'!F$3:F22)</f>
-        <v>104</v>
+        <f>SUM('Round Scores'!F$3:F21)</f>
+        <v>96</v>
       </c>
       <c r="G21" s="1">
-        <f>SUM('Round Scores'!G$3:G22)</f>
-        <v>104</v>
+        <f>SUM('Round Scores'!G$3:G21)</f>
+        <v>96</v>
       </c>
       <c r="H21" s="1">
-        <f>SUM('Round Scores'!H$3:H22)</f>
-        <v>101</v>
+        <f>SUM('Round Scores'!H$3:H21)</f>
+        <v>95</v>
       </c>
       <c r="I21" s="1">
-        <f>SUM('Round Scores'!I$3:I22)</f>
-        <v>100</v>
+        <f>SUM('Round Scores'!I$3:I21)</f>
+        <v>93</v>
       </c>
       <c r="J21" s="1">
-        <f>SUM('Round Scores'!J$3:J22)</f>
-        <v>104</v>
+        <f>SUM('Round Scores'!J$3:J21)</f>
+        <v>96</v>
       </c>
       <c r="K21" s="1">
-        <f>SUM('Round Scores'!K$3:K22)</f>
-        <v>101</v>
+        <f>SUM('Round Scores'!K$3:K21)</f>
+        <v>96</v>
       </c>
       <c r="L21" s="11">
-        <f>SUM('Round Scores'!L$3:L22)</f>
-        <v>100</v>
+        <f>SUM('Round Scores'!L$3:L21)</f>
+        <v>97</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="0"/>
-        <v>103.54545454545455</v>
+        <v>96.818181818181813</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <f>SUM('Round Scores'!B$3:B23)</f>
-        <v>115</v>
+        <f>SUM('Round Scores'!B$3:B22)</f>
+        <v>106</v>
       </c>
       <c r="C22" s="1">
-        <f>SUM('Round Scores'!C$3:C23)</f>
-        <v>115</v>
+        <f>SUM('Round Scores'!C$3:C22)</f>
+        <v>108</v>
       </c>
       <c r="D22" s="1">
-        <f>SUM('Round Scores'!D$3:D23)</f>
-        <v>112</v>
+        <f>SUM('Round Scores'!D$3:D22)</f>
+        <v>104</v>
       </c>
       <c r="E22" s="1">
-        <f>SUM('Round Scores'!E$3:E23)</f>
-        <v>113</v>
+        <f>SUM('Round Scores'!E$3:E22)</f>
+        <v>107</v>
       </c>
       <c r="F22" s="1">
-        <f>SUM('Round Scores'!F$3:F23)</f>
-        <v>113</v>
+        <f>SUM('Round Scores'!F$3:F22)</f>
+        <v>104</v>
       </c>
       <c r="G22" s="1">
-        <f>SUM('Round Scores'!G$3:G23)</f>
-        <v>112</v>
+        <f>SUM('Round Scores'!G$3:G22)</f>
+        <v>104</v>
       </c>
       <c r="H22" s="1">
-        <f>SUM('Round Scores'!H$3:H23)</f>
-        <v>109</v>
+        <f>SUM('Round Scores'!H$3:H22)</f>
+        <v>101</v>
       </c>
       <c r="I22" s="1">
-        <f>SUM('Round Scores'!I$3:I23)</f>
-        <v>108</v>
+        <f>SUM('Round Scores'!I$3:I22)</f>
+        <v>100</v>
       </c>
       <c r="J22" s="1">
-        <f>SUM('Round Scores'!J$3:J23)</f>
-        <v>111</v>
+        <f>SUM('Round Scores'!J$3:J22)</f>
+        <v>104</v>
       </c>
       <c r="K22" s="1">
-        <f>SUM('Round Scores'!K$3:K23)</f>
-        <v>107</v>
+        <f>SUM('Round Scores'!K$3:K22)</f>
+        <v>101</v>
       </c>
       <c r="L22" s="11">
-        <f>SUM('Round Scores'!L$3:L23)</f>
-        <v>106</v>
+        <f>SUM('Round Scores'!L$3:L22)</f>
+        <v>100</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>103.54545454545455</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
-        <f>SUM('Round Scores'!B$3:B24)</f>
-        <v>122</v>
+        <f>SUM('Round Scores'!B$3:B23)</f>
+        <v>115</v>
       </c>
       <c r="C23" s="1">
-        <f>SUM('Round Scores'!C$3:C24)</f>
-        <v>121</v>
+        <f>SUM('Round Scores'!C$3:C23)</f>
+        <v>115</v>
       </c>
       <c r="D23" s="1">
-        <f>SUM('Round Scores'!D$3:D24)</f>
-        <v>119</v>
+        <f>SUM('Round Scores'!D$3:D23)</f>
+        <v>112</v>
       </c>
       <c r="E23" s="1">
-        <f>SUM('Round Scores'!E$3:E24)</f>
-        <v>120</v>
+        <f>SUM('Round Scores'!E$3:E23)</f>
+        <v>113</v>
       </c>
       <c r="F23" s="1">
-        <f>SUM('Round Scores'!F$3:F24)</f>
-        <v>119</v>
+        <f>SUM('Round Scores'!F$3:F23)</f>
+        <v>113</v>
       </c>
       <c r="G23" s="1">
-        <f>SUM('Round Scores'!G$3:G24)</f>
-        <v>118</v>
+        <f>SUM('Round Scores'!G$3:G23)</f>
+        <v>112</v>
       </c>
       <c r="H23" s="1">
-        <f>SUM('Round Scores'!H$3:H24)</f>
-        <v>116</v>
+        <f>SUM('Round Scores'!H$3:H23)</f>
+        <v>109</v>
       </c>
       <c r="I23" s="1">
-        <f>SUM('Round Scores'!I$3:I24)</f>
-        <v>115</v>
+        <f>SUM('Round Scores'!I$3:I23)</f>
+        <v>108</v>
       </c>
       <c r="J23" s="1">
-        <f>SUM('Round Scores'!J$3:J24)</f>
-        <v>117</v>
+        <f>SUM('Round Scores'!J$3:J23)</f>
+        <v>111</v>
       </c>
       <c r="K23" s="1">
-        <f>SUM('Round Scores'!K$3:K24)</f>
-        <v>115</v>
+        <f>SUM('Round Scores'!K$3:K23)</f>
+        <v>107</v>
       </c>
       <c r="L23" s="11">
-        <f>SUM('Round Scores'!L$3:L24)</f>
-        <v>111</v>
+        <f>SUM('Round Scores'!L$3:L23)</f>
+        <v>106</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="0"/>
-        <v>117.54545454545455</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <f>SUM('Round Scores'!B$3:B24)</f>
+        <v>122</v>
+      </c>
+      <c r="C24" s="1">
+        <f>SUM('Round Scores'!C$3:C24)</f>
+        <v>121</v>
+      </c>
+      <c r="D24" s="1">
+        <f>SUM('Round Scores'!D$3:D24)</f>
+        <v>119</v>
+      </c>
+      <c r="E24" s="1">
+        <f>SUM('Round Scores'!E$3:E24)</f>
+        <v>120</v>
+      </c>
+      <c r="F24" s="1">
+        <f>SUM('Round Scores'!F$3:F24)</f>
+        <v>119</v>
+      </c>
+      <c r="G24" s="1">
+        <f>SUM('Round Scores'!G$3:G24)</f>
+        <v>118</v>
+      </c>
+      <c r="H24" s="1">
+        <f>SUM('Round Scores'!H$3:H24)</f>
+        <v>116</v>
+      </c>
+      <c r="I24" s="1">
+        <f>SUM('Round Scores'!I$3:I24)</f>
+        <v>115</v>
+      </c>
+      <c r="J24" s="1">
+        <f>SUM('Round Scores'!J$3:J24)</f>
+        <v>117</v>
+      </c>
+      <c r="K24" s="1">
+        <f>SUM('Round Scores'!K$3:K24)</f>
+        <v>115</v>
+      </c>
+      <c r="L24" s="11">
+        <f>SUM('Round Scores'!L$3:L24)</f>
+        <v>111</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="0"/>
+        <v>117.54545454545455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <f>SUM('Round Scores'!B$3:B25)</f>
         <v>127</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <f>SUM('Round Scores'!C$3:C25)</f>
         <v>126</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <f>SUM('Round Scores'!D$3:D25)</f>
         <v>125</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <f>SUM('Round Scores'!E$3:E25)</f>
         <v>125</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <f>SUM('Round Scores'!F$3:F25)</f>
         <v>124</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <f>SUM('Round Scores'!G$3:G25)</f>
         <v>123</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="1">
         <f>SUM('Round Scores'!H$3:H25)</f>
         <v>121</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I25" s="1">
         <f>SUM('Round Scores'!I$3:I25)</f>
         <v>121</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J25" s="1">
         <f>SUM('Round Scores'!J$3:J25)</f>
         <v>120</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K25" s="1">
         <f>SUM('Round Scores'!K$3:K25)</f>
         <v>120</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L25" s="11">
         <f>SUM('Round Scores'!L$3:L25)</f>
         <v>117</v>
       </c>
-      <c r="M24" s="5">
-        <f>AVERAGE(I24:L24)</f>
+      <c r="M25" s="5">
+        <f>AVERAGE(I25:L25)</f>
         <v>119.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:L2">
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:L3">
     <cfRule type="top10" dxfId="91" priority="45" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="90" priority="46" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:L3">
+  <conditionalFormatting sqref="B4:L4">
     <cfRule type="top10" dxfId="89" priority="43" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="88" priority="44" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:L4">
+  <conditionalFormatting sqref="B5:L5">
     <cfRule type="top10" dxfId="87" priority="41" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="86" priority="42" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:L5">
+  <conditionalFormatting sqref="B6:L6">
     <cfRule type="top10" dxfId="85" priority="39" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="84" priority="40" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:L6">
+  <conditionalFormatting sqref="B7:L7">
     <cfRule type="top10" dxfId="83" priority="37" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="82" priority="38" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:L7">
+  <conditionalFormatting sqref="B8:L8">
     <cfRule type="top10" dxfId="81" priority="35" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="80" priority="36" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:L8">
+  <conditionalFormatting sqref="B9:L9">
     <cfRule type="top10" dxfId="79" priority="33" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="78" priority="34" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:L9">
+  <conditionalFormatting sqref="B10:L10">
     <cfRule type="top10" dxfId="77" priority="31" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="76" priority="32" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:L10">
+  <conditionalFormatting sqref="B11:L11">
     <cfRule type="top10" dxfId="75" priority="29" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="74" priority="30" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:L11">
+  <conditionalFormatting sqref="B12:L12">
     <cfRule type="top10" dxfId="73" priority="27" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="72" priority="28" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:L12">
+  <conditionalFormatting sqref="B13:L13">
     <cfRule type="top10" dxfId="71" priority="25" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="70" priority="26" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:L13">
+  <conditionalFormatting sqref="B14:L14">
     <cfRule type="top10" dxfId="69" priority="23" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="68" priority="24" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:L14">
+  <conditionalFormatting sqref="B15:L15">
     <cfRule type="top10" dxfId="67" priority="21" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="66" priority="22" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:L15">
+  <conditionalFormatting sqref="B16:L16">
     <cfRule type="top10" dxfId="65" priority="19" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="64" priority="20" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:L16">
+  <conditionalFormatting sqref="B17:L17">
     <cfRule type="top10" dxfId="63" priority="17" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="62" priority="18" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:L17">
+  <conditionalFormatting sqref="B18:L18">
     <cfRule type="top10" dxfId="61" priority="15" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="60" priority="16" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:L18">
+  <conditionalFormatting sqref="B19:L19">
     <cfRule type="top10" dxfId="59" priority="13" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="58" priority="14" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:L19">
+  <conditionalFormatting sqref="B20:L20">
     <cfRule type="top10" dxfId="57" priority="11" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="56" priority="12" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:L20">
+  <conditionalFormatting sqref="B21:L21">
     <cfRule type="top10" dxfId="55" priority="9" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="54" priority="10" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:L21">
+  <conditionalFormatting sqref="B22:L22">
     <cfRule type="top10" dxfId="53" priority="7" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="52" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:L22">
+  <conditionalFormatting sqref="B23:L23">
     <cfRule type="top10" dxfId="51" priority="5" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="50" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:L23">
+  <conditionalFormatting sqref="B24:L24">
     <cfRule type="top10" dxfId="49" priority="3" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="48" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:L24">
+  <conditionalFormatting sqref="B25:L25">
     <cfRule type="top10" dxfId="47" priority="1" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="46" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1:L1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:L1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:L1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10680,1352 +10706,1370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <f>'Round Scores'!B3</f>
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <f>'Round Scores'!C3</f>
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <f>'Round Scores'!D3</f>
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <f>'Round Scores'!E3</f>
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <f>'Round Scores'!F3</f>
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <f>'Round Scores'!G3</f>
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <f>'Round Scores'!H3</f>
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <f>'Round Scores'!I3</f>
-        <v>5</v>
-      </c>
-      <c r="J2" s="1">
-        <f>'Round Scores'!J3</f>
-        <v>4</v>
-      </c>
-      <c r="K2" s="1">
-        <f>'Round Scores'!K3</f>
-        <v>4</v>
-      </c>
-      <c r="L2" s="11">
-        <f>'Round Scores'!L3</f>
-        <v>3</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ref="M2:M23" si="0">AVERAGE(B2:L2)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM('Round Scores'!B$3:B4)</f>
-        <v>11</v>
+        <f>'Round Scores'!B3</f>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <f>SUM('Round Scores'!C$3:C4)</f>
-        <v>14</v>
+        <f>'Round Scores'!C3</f>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f>SUM('Round Scores'!D$3:D4)</f>
-        <v>12</v>
+        <f>'Round Scores'!D3</f>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <f>SUM('Round Scores'!E$3:E4)</f>
-        <v>14</v>
+        <f>'Round Scores'!E3</f>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <f>SUM('Round Scores'!F$3:F4)</f>
-        <v>13</v>
+        <f>'Round Scores'!F3</f>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
-        <f>SUM('Round Scores'!G$3:G4)</f>
-        <v>8</v>
+        <f>'Round Scores'!G3</f>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <f>SUM('Round Scores'!H$3:H4)</f>
-        <v>11</v>
+        <f>'Round Scores'!H3</f>
+        <v>4</v>
       </c>
       <c r="I3" s="1">
-        <f>SUM('Round Scores'!I$3:I4)</f>
-        <v>12</v>
+        <f>'Round Scores'!I3</f>
+        <v>5</v>
       </c>
       <c r="J3" s="1">
-        <f>SUM('Round Scores'!J$3:J4)</f>
-        <v>12</v>
+        <f>'Round Scores'!J3</f>
+        <v>4</v>
       </c>
       <c r="K3" s="1">
-        <f>SUM('Round Scores'!K$3:K4)</f>
-        <v>12</v>
+        <f>'Round Scores'!K3</f>
+        <v>4</v>
       </c>
       <c r="L3" s="11">
-        <f>SUM('Round Scores'!L$3:L4)</f>
-        <v>10</v>
+        <f>'Round Scores'!L3</f>
+        <v>3</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" si="0"/>
-        <v>11.727272727272727</v>
+        <f t="shared" ref="M3:M24" si="0">AVERAGE(B3:L3)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f>SUM('Round Scores'!B$3:B5)</f>
-        <v>15</v>
+        <f>SUM('Round Scores'!B$3:B4)</f>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <f>SUM('Round Scores'!C$3:C5)</f>
-        <v>20</v>
+        <f>SUM('Round Scores'!C$3:C4)</f>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
-        <f>SUM('Round Scores'!D$3:D5)</f>
-        <v>17</v>
+        <f>SUM('Round Scores'!D$3:D4)</f>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
-        <f>SUM('Round Scores'!E$3:E5)</f>
-        <v>18</v>
+        <f>SUM('Round Scores'!E$3:E4)</f>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
-        <f>SUM('Round Scores'!F$3:F5)</f>
-        <v>17</v>
+        <f>SUM('Round Scores'!F$3:F4)</f>
+        <v>13</v>
       </c>
       <c r="G4" s="1">
-        <f>SUM('Round Scores'!G$3:G5)</f>
+        <f>SUM('Round Scores'!G$3:G4)</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SUM('Round Scores'!H$3:H4)</f>
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <f>SUM('Round Scores'!I$3:I4)</f>
         <v>12</v>
       </c>
-      <c r="H4" s="1">
-        <f>SUM('Round Scores'!H$3:H5)</f>
-        <v>16</v>
-      </c>
-      <c r="I4" s="1">
-        <f>SUM('Round Scores'!I$3:I5)</f>
-        <v>16</v>
-      </c>
       <c r="J4" s="1">
-        <f>SUM('Round Scores'!J$3:J5)</f>
-        <v>16</v>
+        <f>SUM('Round Scores'!J$3:J4)</f>
+        <v>12</v>
       </c>
       <c r="K4" s="1">
-        <f>SUM('Round Scores'!K$3:K5)</f>
-        <v>16</v>
+        <f>SUM('Round Scores'!K$3:K4)</f>
+        <v>12</v>
       </c>
       <c r="L4" s="11">
-        <f>SUM('Round Scores'!L$3:L5)</f>
-        <v>16</v>
+        <f>SUM('Round Scores'!L$3:L4)</f>
+        <v>10</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" si="0"/>
-        <v>16.272727272727273</v>
+        <v>11.727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <f>SUM('Round Scores'!B$3:B6)</f>
-        <v>22</v>
+        <f>SUM('Round Scores'!B$3:B5)</f>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <f>SUM('Round Scores'!C$3:C6)</f>
-        <v>27</v>
+        <f>SUM('Round Scores'!C$3:C5)</f>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
-        <f>SUM('Round Scores'!D$3:D6)</f>
-        <v>23</v>
+        <f>SUM('Round Scores'!D$3:D5)</f>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
-        <f>SUM('Round Scores'!E$3:E6)</f>
-        <v>25</v>
+        <f>SUM('Round Scores'!E$3:E5)</f>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
-        <f>SUM('Round Scores'!F$3:F6)</f>
-        <v>23</v>
+        <f>SUM('Round Scores'!F$3:F5)</f>
+        <v>17</v>
       </c>
       <c r="G5" s="1">
-        <f>SUM('Round Scores'!G$3:G6)</f>
-        <v>18</v>
+        <f>SUM('Round Scores'!G$3:G5)</f>
+        <v>12</v>
       </c>
       <c r="H5" s="1">
-        <f>SUM('Round Scores'!H$3:H6)</f>
-        <v>23</v>
+        <f>SUM('Round Scores'!H$3:H5)</f>
+        <v>16</v>
       </c>
       <c r="I5" s="1">
-        <f>SUM('Round Scores'!I$3:I6)</f>
-        <v>21</v>
+        <f>SUM('Round Scores'!I$3:I5)</f>
+        <v>16</v>
       </c>
       <c r="J5" s="1">
-        <f>SUM('Round Scores'!J$3:J6)</f>
-        <v>23</v>
+        <f>SUM('Round Scores'!J$3:J5)</f>
+        <v>16</v>
       </c>
       <c r="K5" s="1">
-        <f>SUM('Round Scores'!K$3:K6)</f>
-        <v>23</v>
+        <f>SUM('Round Scores'!K$3:K5)</f>
+        <v>16</v>
       </c>
       <c r="L5" s="11">
-        <f>SUM('Round Scores'!L$3:L6)</f>
-        <v>22</v>
+        <f>SUM('Round Scores'!L$3:L5)</f>
+        <v>16</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" si="0"/>
-        <v>22.727272727272727</v>
+        <v>16.272727272727273</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <f>SUM('Round Scores'!B$3:B7)</f>
-        <v>29</v>
+        <f>SUM('Round Scores'!B$3:B6)</f>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
-        <f>SUM('Round Scores'!C$3:C7)</f>
-        <v>35</v>
+        <f>SUM('Round Scores'!C$3:C6)</f>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
-        <f>SUM('Round Scores'!D$3:D7)</f>
-        <v>31</v>
+        <f>SUM('Round Scores'!D$3:D6)</f>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
-        <f>SUM('Round Scores'!E$3:E7)</f>
-        <v>32</v>
+        <f>SUM('Round Scores'!E$3:E6)</f>
+        <v>25</v>
       </c>
       <c r="F6" s="1">
-        <f>SUM('Round Scores'!F$3:F7)</f>
-        <v>31</v>
+        <f>SUM('Round Scores'!F$3:F6)</f>
+        <v>23</v>
       </c>
       <c r="G6" s="1">
-        <f>SUM('Round Scores'!G$3:G7)</f>
-        <v>26</v>
+        <f>SUM('Round Scores'!G$3:G6)</f>
+        <v>18</v>
       </c>
       <c r="H6" s="1">
-        <f>SUM('Round Scores'!H$3:H7)</f>
-        <v>29</v>
+        <f>SUM('Round Scores'!H$3:H6)</f>
+        <v>23</v>
       </c>
       <c r="I6" s="1">
-        <f>SUM('Round Scores'!I$3:I7)</f>
-        <v>27</v>
+        <f>SUM('Round Scores'!I$3:I6)</f>
+        <v>21</v>
       </c>
       <c r="J6" s="1">
-        <f>SUM('Round Scores'!J$3:J7)</f>
-        <v>29</v>
+        <f>SUM('Round Scores'!J$3:J6)</f>
+        <v>23</v>
       </c>
       <c r="K6" s="1">
-        <f>SUM('Round Scores'!K$3:K7)</f>
-        <v>29</v>
+        <f>SUM('Round Scores'!K$3:K6)</f>
+        <v>23</v>
       </c>
       <c r="L6" s="11">
-        <f>SUM('Round Scores'!L$3:L7)</f>
-        <v>27</v>
+        <f>SUM('Round Scores'!L$3:L6)</f>
+        <v>22</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" si="0"/>
-        <v>29.545454545454547</v>
+        <v>22.727272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <f>SUM('Round Scores'!B$3:B8)</f>
+        <f>SUM('Round Scores'!B$3:B7)</f>
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUM('Round Scores'!C$3:C7)</f>
         <v>35</v>
       </c>
-      <c r="C7" s="1">
-        <f>SUM('Round Scores'!C$3:C8)</f>
-        <v>41</v>
-      </c>
       <c r="D7" s="1">
-        <f>SUM('Round Scores'!D$3:D8)</f>
-        <v>36</v>
+        <f>SUM('Round Scores'!D$3:D7)</f>
+        <v>31</v>
       </c>
       <c r="E7" s="1">
-        <f>SUM('Round Scores'!E$3:E8)</f>
-        <v>38</v>
+        <f>SUM('Round Scores'!E$3:E7)</f>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
-        <f>SUM('Round Scores'!F$3:F8)</f>
-        <v>36</v>
+        <f>SUM('Round Scores'!F$3:F7)</f>
+        <v>31</v>
       </c>
       <c r="G7" s="1">
-        <f>SUM('Round Scores'!G$3:G8)</f>
-        <v>30</v>
+        <f>SUM('Round Scores'!G$3:G7)</f>
+        <v>26</v>
       </c>
       <c r="H7" s="1">
-        <f>SUM('Round Scores'!H$3:H8)</f>
-        <v>37</v>
+        <f>SUM('Round Scores'!H$3:H7)</f>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
-        <f>SUM('Round Scores'!I$3:I8)</f>
-        <v>33</v>
+        <f>SUM('Round Scores'!I$3:I7)</f>
+        <v>27</v>
       </c>
       <c r="J7" s="1">
-        <f>SUM('Round Scores'!J$3:J8)</f>
-        <v>34</v>
+        <f>SUM('Round Scores'!J$3:J7)</f>
+        <v>29</v>
       </c>
       <c r="K7" s="1">
-        <f>SUM('Round Scores'!K$3:K8)</f>
-        <v>33</v>
+        <f>SUM('Round Scores'!K$3:K7)</f>
+        <v>29</v>
       </c>
       <c r="L7" s="11">
-        <f>SUM('Round Scores'!L$3:L8)</f>
-        <v>32</v>
+        <f>SUM('Round Scores'!L$3:L7)</f>
+        <v>27</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>29.545454545454547</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <f>SUM('Round Scores'!B$3:B9)</f>
-        <v>39</v>
+        <f>SUM('Round Scores'!B$3:B8)</f>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
-        <f>SUM('Round Scores'!C$3:C9)</f>
-        <v>44</v>
+        <f>SUM('Round Scores'!C$3:C8)</f>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
-        <f>SUM('Round Scores'!D$3:D9)</f>
-        <v>39</v>
+        <f>SUM('Round Scores'!D$3:D8)</f>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
-        <f>SUM('Round Scores'!E$3:E9)</f>
-        <v>41</v>
+        <f>SUM('Round Scores'!E$3:E8)</f>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
-        <f>SUM('Round Scores'!F$3:F9)</f>
-        <v>39</v>
+        <f>SUM('Round Scores'!F$3:F8)</f>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
-        <f>SUM('Round Scores'!G$3:G9)</f>
+        <f>SUM('Round Scores'!G$3:G8)</f>
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SUM('Round Scores'!H$3:H8)</f>
+        <v>37</v>
+      </c>
+      <c r="I8" s="1">
+        <f>SUM('Round Scores'!I$3:I8)</f>
+        <v>33</v>
+      </c>
+      <c r="J8" s="1">
+        <f>SUM('Round Scores'!J$3:J8)</f>
         <v>34</v>
       </c>
-      <c r="H8" s="1">
-        <f>SUM('Round Scores'!H$3:H9)</f>
-        <v>41</v>
-      </c>
-      <c r="I8" s="1">
-        <f>SUM('Round Scores'!I$3:I9)</f>
-        <v>37</v>
-      </c>
-      <c r="J8" s="1">
-        <f>SUM('Round Scores'!J$3:J9)</f>
-        <v>38</v>
-      </c>
       <c r="K8" s="1">
-        <f>SUM('Round Scores'!K$3:K9)</f>
-        <v>37</v>
+        <f>SUM('Round Scores'!K$3:K8)</f>
+        <v>33</v>
       </c>
       <c r="L8" s="11">
-        <f>SUM('Round Scores'!L$3:L9)</f>
-        <v>35</v>
+        <f>SUM('Round Scores'!L$3:L8)</f>
+        <v>32</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="0"/>
-        <v>38.545454545454547</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <f>SUM('Round Scores'!B$3:B10)</f>
+        <f>SUM('Round Scores'!B$3:B9)</f>
+        <v>39</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUM('Round Scores'!C$3:C9)</f>
         <v>44</v>
       </c>
-      <c r="C9" s="1">
-        <f>SUM('Round Scores'!C$3:C10)</f>
-        <v>49</v>
-      </c>
       <c r="D9" s="1">
-        <f>SUM('Round Scores'!D$3:D10)</f>
-        <v>44</v>
+        <f>SUM('Round Scores'!D$3:D9)</f>
+        <v>39</v>
       </c>
       <c r="E9" s="1">
-        <f>SUM('Round Scores'!E$3:E10)</f>
-        <v>47</v>
+        <f>SUM('Round Scores'!E$3:E9)</f>
+        <v>41</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM('Round Scores'!F$3:F10)</f>
-        <v>44</v>
+        <f>SUM('Round Scores'!F$3:F9)</f>
+        <v>39</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM('Round Scores'!G$3:G10)</f>
-        <v>40</v>
+        <f>SUM('Round Scores'!G$3:G9)</f>
+        <v>34</v>
       </c>
       <c r="H9" s="1">
-        <f>SUM('Round Scores'!H$3:H10)</f>
-        <v>45</v>
+        <f>SUM('Round Scores'!H$3:H9)</f>
+        <v>41</v>
       </c>
       <c r="I9" s="1">
-        <f>SUM('Round Scores'!I$3:I10)</f>
-        <v>43</v>
+        <f>SUM('Round Scores'!I$3:I9)</f>
+        <v>37</v>
       </c>
       <c r="J9" s="1">
-        <f>SUM('Round Scores'!J$3:J10)</f>
-        <v>43</v>
+        <f>SUM('Round Scores'!J$3:J9)</f>
+        <v>38</v>
       </c>
       <c r="K9" s="1">
-        <f>SUM('Round Scores'!K$3:K10)</f>
-        <v>43</v>
+        <f>SUM('Round Scores'!K$3:K9)</f>
+        <v>37</v>
       </c>
       <c r="L9" s="11">
-        <f>SUM('Round Scores'!L$3:L10)</f>
-        <v>40</v>
+        <f>SUM('Round Scores'!L$3:L9)</f>
+        <v>35</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="0"/>
-        <v>43.81818181818182</v>
+        <v>38.545454545454547</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <f>SUM('Round Scores'!B$3:B11)</f>
-        <v>48</v>
+        <f>SUM('Round Scores'!B$3:B10)</f>
+        <v>44</v>
       </c>
       <c r="C10" s="1">
-        <f>SUM('Round Scores'!C$3:C11)</f>
-        <v>53</v>
+        <f>SUM('Round Scores'!C$3:C10)</f>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
-        <f>SUM('Round Scores'!D$3:D11)</f>
-        <v>50</v>
+        <f>SUM('Round Scores'!D$3:D10)</f>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
-        <f>SUM('Round Scores'!E$3:E11)</f>
-        <v>51</v>
+        <f>SUM('Round Scores'!E$3:E10)</f>
+        <v>47</v>
       </c>
       <c r="F10" s="1">
-        <f>SUM('Round Scores'!F$3:F11)</f>
-        <v>49</v>
+        <f>SUM('Round Scores'!F$3:F10)</f>
+        <v>44</v>
       </c>
       <c r="G10" s="1">
-        <f>SUM('Round Scores'!G$3:G11)</f>
+        <f>SUM('Round Scores'!G$3:G10)</f>
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SUM('Round Scores'!H$3:H10)</f>
+        <v>45</v>
+      </c>
+      <c r="I10" s="1">
+        <f>SUM('Round Scores'!I$3:I10)</f>
         <v>43</v>
       </c>
-      <c r="H10" s="1">
-        <f>SUM('Round Scores'!H$3:H11)</f>
-        <v>49</v>
-      </c>
-      <c r="I10" s="1">
-        <f>SUM('Round Scores'!I$3:I11)</f>
-        <v>47</v>
-      </c>
       <c r="J10" s="1">
-        <f>SUM('Round Scores'!J$3:J11)</f>
-        <v>46</v>
+        <f>SUM('Round Scores'!J$3:J10)</f>
+        <v>43</v>
       </c>
       <c r="K10" s="1">
-        <f>SUM('Round Scores'!K$3:K11)</f>
-        <v>45</v>
+        <f>SUM('Round Scores'!K$3:K10)</f>
+        <v>43</v>
       </c>
       <c r="L10" s="11">
-        <f>SUM('Round Scores'!L$3:L11)</f>
-        <v>44</v>
+        <f>SUM('Round Scores'!L$3:L10)</f>
+        <v>40</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" si="0"/>
-        <v>47.727272727272727</v>
+        <v>43.81818181818182</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <f>SUM('Round Scores'!B$3:B12)</f>
-        <v>54</v>
+        <f>SUM('Round Scores'!B$3:B11)</f>
+        <v>48</v>
       </c>
       <c r="C11" s="1">
-        <f>SUM('Round Scores'!C$3:C12)</f>
-        <v>60</v>
+        <f>SUM('Round Scores'!C$3:C11)</f>
+        <v>53</v>
       </c>
       <c r="D11" s="1">
-        <f>SUM('Round Scores'!D$3:D12)</f>
-        <v>57</v>
+        <f>SUM('Round Scores'!D$3:D11)</f>
+        <v>50</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM('Round Scores'!E$3:E12)</f>
-        <v>57</v>
+        <f>SUM('Round Scores'!E$3:E11)</f>
+        <v>51</v>
       </c>
       <c r="F11" s="1">
-        <f>SUM('Round Scores'!F$3:F12)</f>
-        <v>54</v>
+        <f>SUM('Round Scores'!F$3:F11)</f>
+        <v>49</v>
       </c>
       <c r="G11" s="1">
-        <f>SUM('Round Scores'!G$3:G12)</f>
-        <v>51</v>
+        <f>SUM('Round Scores'!G$3:G11)</f>
+        <v>43</v>
       </c>
       <c r="H11" s="1">
-        <f>SUM('Round Scores'!H$3:H12)</f>
-        <v>55</v>
+        <f>SUM('Round Scores'!H$3:H11)</f>
+        <v>49</v>
       </c>
       <c r="I11" s="1">
-        <f>SUM('Round Scores'!I$3:I12)</f>
-        <v>53</v>
+        <f>SUM('Round Scores'!I$3:I11)</f>
+        <v>47</v>
       </c>
       <c r="J11" s="1">
-        <f>SUM('Round Scores'!J$3:J12)</f>
-        <v>53</v>
+        <f>SUM('Round Scores'!J$3:J11)</f>
+        <v>46</v>
       </c>
       <c r="K11" s="1">
-        <f>SUM('Round Scores'!K$3:K12)</f>
-        <v>49</v>
+        <f>SUM('Round Scores'!K$3:K11)</f>
+        <v>45</v>
       </c>
       <c r="L11" s="11">
-        <f>SUM('Round Scores'!L$3:L12)</f>
-        <v>52</v>
+        <f>SUM('Round Scores'!L$3:L11)</f>
+        <v>44</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="0"/>
-        <v>54.090909090909093</v>
+        <v>47.727272727272727</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <f>SUM('Round Scores'!B$3:B13)</f>
-        <v>59</v>
+        <f>SUM('Round Scores'!B$3:B12)</f>
+        <v>54</v>
       </c>
       <c r="C12" s="1">
-        <f>SUM('Round Scores'!C$3:C13)</f>
-        <v>64</v>
+        <f>SUM('Round Scores'!C$3:C12)</f>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
-        <f>SUM('Round Scores'!D$3:D13)</f>
-        <v>61</v>
+        <f>SUM('Round Scores'!D$3:D12)</f>
+        <v>57</v>
       </c>
       <c r="E12" s="1">
-        <f>SUM('Round Scores'!E$3:E13)</f>
-        <v>59</v>
+        <f>SUM('Round Scores'!E$3:E12)</f>
+        <v>57</v>
       </c>
       <c r="F12" s="1">
-        <f>SUM('Round Scores'!F$3:F13)</f>
-        <v>58</v>
+        <f>SUM('Round Scores'!F$3:F12)</f>
+        <v>54</v>
       </c>
       <c r="G12" s="1">
-        <f>SUM('Round Scores'!G$3:G13)</f>
+        <f>SUM('Round Scores'!G$3:G12)</f>
+        <v>51</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SUM('Round Scores'!H$3:H12)</f>
+        <v>55</v>
+      </c>
+      <c r="I12" s="1">
+        <f>SUM('Round Scores'!I$3:I12)</f>
         <v>53</v>
       </c>
-      <c r="H12" s="1">
-        <f>SUM('Round Scores'!H$3:H13)</f>
-        <v>59</v>
-      </c>
-      <c r="I12" s="1">
-        <f>SUM('Round Scores'!I$3:I13)</f>
-        <v>57</v>
-      </c>
       <c r="J12" s="1">
-        <f>SUM('Round Scores'!J$3:J13)</f>
-        <v>57</v>
+        <f>SUM('Round Scores'!J$3:J12)</f>
+        <v>53</v>
       </c>
       <c r="K12" s="1">
-        <f>SUM('Round Scores'!K$3:K13)</f>
+        <f>SUM('Round Scores'!K$3:K12)</f>
+        <v>49</v>
+      </c>
+      <c r="L12" s="11">
+        <f>SUM('Round Scores'!L$3:L12)</f>
         <v>52</v>
-      </c>
-      <c r="L12" s="11">
-        <f>SUM('Round Scores'!L$3:L13)</f>
-        <v>57</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="0"/>
-        <v>57.81818181818182</v>
+        <v>54.090909090909093</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <f>SUM('Round Scores'!B$3:B14)</f>
-        <v>62</v>
+        <f>SUM('Round Scores'!B$3:B13)</f>
+        <v>59</v>
       </c>
       <c r="C13" s="1">
-        <f>SUM('Round Scores'!C$3:C14)</f>
-        <v>65</v>
+        <f>SUM('Round Scores'!C$3:C13)</f>
+        <v>64</v>
       </c>
       <c r="D13" s="1">
-        <f>SUM('Round Scores'!D$3:D14)</f>
-        <v>64</v>
+        <f>SUM('Round Scores'!D$3:D13)</f>
+        <v>61</v>
       </c>
       <c r="E13" s="1">
-        <f>SUM('Round Scores'!E$3:E14)</f>
-        <v>62</v>
+        <f>SUM('Round Scores'!E$3:E13)</f>
+        <v>59</v>
       </c>
       <c r="F13" s="1">
-        <f>SUM('Round Scores'!F$3:F14)</f>
-        <v>60</v>
+        <f>SUM('Round Scores'!F$3:F13)</f>
+        <v>58</v>
       </c>
       <c r="G13" s="1">
-        <f>SUM('Round Scores'!G$3:G14)</f>
-        <v>56</v>
+        <f>SUM('Round Scores'!G$3:G13)</f>
+        <v>53</v>
       </c>
       <c r="H13" s="1">
-        <f>SUM('Round Scores'!H$3:H14)</f>
-        <v>63</v>
+        <f>SUM('Round Scores'!H$3:H13)</f>
+        <v>59</v>
       </c>
       <c r="I13" s="1">
-        <f>SUM('Round Scores'!I$3:I14)</f>
-        <v>60</v>
+        <f>SUM('Round Scores'!I$3:I13)</f>
+        <v>57</v>
       </c>
       <c r="J13" s="1">
-        <f>SUM('Round Scores'!J$3:J14)</f>
-        <v>59</v>
+        <f>SUM('Round Scores'!J$3:J13)</f>
+        <v>57</v>
       </c>
       <c r="K13" s="1">
-        <f>SUM('Round Scores'!K$3:K14)</f>
+        <f>SUM('Round Scores'!K$3:K13)</f>
+        <v>52</v>
+      </c>
+      <c r="L13" s="11">
+        <f>SUM('Round Scores'!L$3:L13)</f>
         <v>57</v>
-      </c>
-      <c r="L13" s="11">
-        <f>SUM('Round Scores'!L$3:L14)</f>
-        <v>58</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="0"/>
-        <v>60.545454545454547</v>
+        <v>57.81818181818182</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <f>SUM('Round Scores'!B$3:B15)</f>
+        <f>SUM('Round Scores'!B$3:B14)</f>
+        <v>62</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SUM('Round Scores'!C$3:C14)</f>
+        <v>65</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SUM('Round Scores'!D$3:D14)</f>
         <v>64</v>
       </c>
-      <c r="C14" s="1">
-        <f>SUM('Round Scores'!C$3:C15)</f>
-        <v>68</v>
-      </c>
-      <c r="D14" s="1">
-        <f>SUM('Round Scores'!D$3:D15)</f>
-        <v>66</v>
-      </c>
       <c r="E14" s="1">
-        <f>SUM('Round Scores'!E$3:E15)</f>
-        <v>65</v>
+        <f>SUM('Round Scores'!E$3:E14)</f>
+        <v>62</v>
       </c>
       <c r="F14" s="1">
-        <f>SUM('Round Scores'!F$3:F15)</f>
-        <v>62</v>
+        <f>SUM('Round Scores'!F$3:F14)</f>
+        <v>60</v>
       </c>
       <c r="G14" s="1">
-        <f>SUM('Round Scores'!G$3:G15)</f>
+        <f>SUM('Round Scores'!G$3:G14)</f>
+        <v>56</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SUM('Round Scores'!H$3:H14)</f>
+        <v>63</v>
+      </c>
+      <c r="I14" s="1">
+        <f>SUM('Round Scores'!I$3:I14)</f>
+        <v>60</v>
+      </c>
+      <c r="J14" s="1">
+        <f>SUM('Round Scores'!J$3:J14)</f>
         <v>59</v>
       </c>
-      <c r="H14" s="1">
-        <f>SUM('Round Scores'!H$3:H15)</f>
-        <v>66</v>
-      </c>
-      <c r="I14" s="1">
-        <f>SUM('Round Scores'!I$3:I15)</f>
-        <v>62</v>
-      </c>
-      <c r="J14" s="1">
-        <f>SUM('Round Scores'!J$3:J15)</f>
-        <v>62</v>
-      </c>
       <c r="K14" s="1">
-        <f>SUM('Round Scores'!K$3:K15)</f>
-        <v>60</v>
+        <f>SUM('Round Scores'!K$3:K14)</f>
+        <v>57</v>
       </c>
       <c r="L14" s="11">
-        <f>SUM('Round Scores'!L$3:L15)</f>
-        <v>60</v>
+        <f>SUM('Round Scores'!L$3:L14)</f>
+        <v>58</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="0"/>
-        <v>63.090909090909093</v>
+        <v>60.545454545454547</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <f>SUM('Round Scores'!B$3:B16)</f>
-        <v>70</v>
+        <f>SUM('Round Scores'!B$3:B15)</f>
+        <v>64</v>
       </c>
       <c r="C15" s="1">
-        <f>SUM('Round Scores'!C$3:C16)</f>
-        <v>75</v>
+        <f>SUM('Round Scores'!C$3:C15)</f>
+        <v>68</v>
       </c>
       <c r="D15" s="1">
-        <f>SUM('Round Scores'!D$3:D16)</f>
-        <v>72</v>
+        <f>SUM('Round Scores'!D$3:D15)</f>
+        <v>66</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM('Round Scores'!E$3:E16)</f>
-        <v>70</v>
+        <f>SUM('Round Scores'!E$3:E15)</f>
+        <v>65</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM('Round Scores'!F$3:F16)</f>
-        <v>69</v>
+        <f>SUM('Round Scores'!F$3:F15)</f>
+        <v>62</v>
       </c>
       <c r="G15" s="1">
-        <f>SUM('Round Scores'!G$3:G16)</f>
-        <v>67</v>
+        <f>SUM('Round Scores'!G$3:G15)</f>
+        <v>59</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM('Round Scores'!H$3:H16)</f>
-        <v>72</v>
+        <f>SUM('Round Scores'!H$3:H15)</f>
+        <v>66</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM('Round Scores'!I$3:I16)</f>
-        <v>68</v>
+        <f>SUM('Round Scores'!I$3:I15)</f>
+        <v>62</v>
       </c>
       <c r="J15" s="1">
-        <f>SUM('Round Scores'!J$3:J16)</f>
-        <v>68</v>
+        <f>SUM('Round Scores'!J$3:J15)</f>
+        <v>62</v>
       </c>
       <c r="K15" s="1">
-        <f>SUM('Round Scores'!K$3:K16)</f>
-        <v>67</v>
+        <f>SUM('Round Scores'!K$3:K15)</f>
+        <v>60</v>
       </c>
       <c r="L15" s="11">
-        <f>SUM('Round Scores'!L$3:L16)</f>
-        <v>66</v>
+        <f>SUM('Round Scores'!L$3:L15)</f>
+        <v>60</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="0"/>
-        <v>69.454545454545453</v>
+        <v>63.090909090909093</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <f>SUM('Round Scores'!B$3:B17)</f>
-        <v>73</v>
+        <f>SUM('Round Scores'!B$3:B16)</f>
+        <v>70</v>
       </c>
       <c r="C16" s="1">
-        <f>SUM('Round Scores'!C$3:C17)</f>
-        <v>79</v>
+        <f>SUM('Round Scores'!C$3:C16)</f>
+        <v>75</v>
       </c>
       <c r="D16" s="1">
-        <f>SUM('Round Scores'!D$3:D17)</f>
-        <v>75</v>
+        <f>SUM('Round Scores'!D$3:D16)</f>
+        <v>72</v>
       </c>
       <c r="E16" s="1">
-        <f>SUM('Round Scores'!E$3:E17)</f>
-        <v>74</v>
+        <f>SUM('Round Scores'!E$3:E16)</f>
+        <v>70</v>
       </c>
       <c r="F16" s="1">
-        <f>SUM('Round Scores'!F$3:F17)</f>
+        <f>SUM('Round Scores'!F$3:F16)</f>
+        <v>69</v>
+      </c>
+      <c r="G16" s="1">
+        <f>SUM('Round Scores'!G$3:G16)</f>
+        <v>67</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SUM('Round Scores'!H$3:H16)</f>
         <v>72</v>
       </c>
-      <c r="G16" s="1">
-        <f>SUM('Round Scores'!G$3:G17)</f>
-        <v>73</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SUM('Round Scores'!H$3:H17)</f>
-        <v>75</v>
-      </c>
       <c r="I16" s="1">
-        <f>SUM('Round Scores'!I$3:I17)</f>
-        <v>71</v>
+        <f>SUM('Round Scores'!I$3:I16)</f>
+        <v>68</v>
       </c>
       <c r="J16" s="1">
-        <f>SUM('Round Scores'!J$3:J17)</f>
-        <v>72</v>
+        <f>SUM('Round Scores'!J$3:J16)</f>
+        <v>68</v>
       </c>
       <c r="K16" s="1">
-        <f>SUM('Round Scores'!K$3:K17)</f>
-        <v>71</v>
+        <f>SUM('Round Scores'!K$3:K16)</f>
+        <v>67</v>
       </c>
       <c r="L16" s="11">
-        <f>SUM('Round Scores'!L$3:L17)</f>
-        <v>69</v>
+        <f>SUM('Round Scores'!L$3:L16)</f>
+        <v>66</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="0"/>
-        <v>73.090909090909093</v>
+        <v>69.454545454545453</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <f>SUM('Round Scores'!B$3:B18)</f>
+        <f>SUM('Round Scores'!B$3:B17)</f>
+        <v>73</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUM('Round Scores'!C$3:C17)</f>
         <v>79</v>
       </c>
-      <c r="C17" s="1">
-        <f>SUM('Round Scores'!C$3:C18)</f>
-        <v>85</v>
-      </c>
       <c r="D17" s="1">
-        <f>SUM('Round Scores'!D$3:D18)</f>
-        <v>80</v>
+        <f>SUM('Round Scores'!D$3:D17)</f>
+        <v>75</v>
       </c>
       <c r="E17" s="1">
-        <f>SUM('Round Scores'!E$3:E18)</f>
-        <v>81</v>
+        <f>SUM('Round Scores'!E$3:E17)</f>
+        <v>74</v>
       </c>
       <c r="F17" s="1">
-        <f>SUM('Round Scores'!F$3:F18)</f>
-        <v>78</v>
+        <f>SUM('Round Scores'!F$3:F17)</f>
+        <v>72</v>
       </c>
       <c r="G17" s="1">
-        <f>SUM('Round Scores'!G$3:G18)</f>
-        <v>79</v>
+        <f>SUM('Round Scores'!G$3:G17)</f>
+        <v>73</v>
       </c>
       <c r="H17" s="1">
-        <f>SUM('Round Scores'!H$3:H18)</f>
-        <v>81</v>
+        <f>SUM('Round Scores'!H$3:H17)</f>
+        <v>75</v>
       </c>
       <c r="I17" s="1">
-        <f>SUM('Round Scores'!I$3:I18)</f>
-        <v>77</v>
+        <f>SUM('Round Scores'!I$3:I17)</f>
+        <v>71</v>
       </c>
       <c r="J17" s="1">
-        <f>SUM('Round Scores'!J$3:J18)</f>
-        <v>79</v>
+        <f>SUM('Round Scores'!J$3:J17)</f>
+        <v>72</v>
       </c>
       <c r="K17" s="1">
-        <f>SUM('Round Scores'!K$3:K18)</f>
-        <v>78</v>
+        <f>SUM('Round Scores'!K$3:K17)</f>
+        <v>71</v>
       </c>
       <c r="L17" s="11">
-        <f>SUM('Round Scores'!L$3:L18)</f>
-        <v>76</v>
+        <f>SUM('Round Scores'!L$3:L17)</f>
+        <v>69</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="0"/>
-        <v>79.36363636363636</v>
+        <v>73.090909090909093</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
-        <f>SUM('Round Scores'!B$3:B19)</f>
-        <v>84</v>
+        <f>SUM('Round Scores'!B$3:B18)</f>
+        <v>79</v>
       </c>
       <c r="C18" s="1">
-        <f>SUM('Round Scores'!C$3:C19)</f>
-        <v>90</v>
+        <f>SUM('Round Scores'!C$3:C18)</f>
+        <v>85</v>
       </c>
       <c r="D18" s="1">
-        <f>SUM('Round Scores'!D$3:D19)</f>
-        <v>85</v>
+        <f>SUM('Round Scores'!D$3:D18)</f>
+        <v>80</v>
       </c>
       <c r="E18" s="1">
-        <f>SUM('Round Scores'!E$3:E19)</f>
-        <v>88</v>
+        <f>SUM('Round Scores'!E$3:E18)</f>
+        <v>81</v>
       </c>
       <c r="F18" s="1">
-        <f>SUM('Round Scores'!F$3:F19)</f>
-        <v>85</v>
+        <f>SUM('Round Scores'!F$3:F18)</f>
+        <v>78</v>
       </c>
       <c r="G18" s="1">
-        <f>SUM('Round Scores'!G$3:G19)</f>
-        <v>84</v>
+        <f>SUM('Round Scores'!G$3:G18)</f>
+        <v>79</v>
       </c>
       <c r="H18" s="1">
-        <f>SUM('Round Scores'!H$3:H19)</f>
-        <v>86</v>
+        <f>SUM('Round Scores'!H$3:H18)</f>
+        <v>81</v>
       </c>
       <c r="I18" s="1">
-        <f>SUM('Round Scores'!I$3:I19)</f>
-        <v>80</v>
+        <f>SUM('Round Scores'!I$3:I18)</f>
+        <v>77</v>
       </c>
       <c r="J18" s="1">
-        <f>SUM('Round Scores'!J$3:J19)</f>
-        <v>84</v>
+        <f>SUM('Round Scores'!J$3:J18)</f>
+        <v>79</v>
       </c>
       <c r="K18" s="1">
-        <f>SUM('Round Scores'!K$3:K19)</f>
-        <v>84</v>
+        <f>SUM('Round Scores'!K$3:K18)</f>
+        <v>78</v>
       </c>
       <c r="L18" s="11">
-        <f>SUM('Round Scores'!L$3:L19)</f>
-        <v>85</v>
+        <f>SUM('Round Scores'!L$3:L18)</f>
+        <v>76</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>79.36363636363636</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
-        <f>SUM('Round Scores'!B$3:B20)</f>
-        <v>92</v>
+        <f>SUM('Round Scores'!B$3:B19)</f>
+        <v>84</v>
       </c>
       <c r="C19" s="1">
-        <f>SUM('Round Scores'!C$3:C20)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!C$3:C19)</f>
+        <v>90</v>
       </c>
       <c r="D19" s="1">
-        <f>SUM('Round Scores'!D$3:D20)</f>
-        <v>89</v>
+        <f>SUM('Round Scores'!D$3:D19)</f>
+        <v>85</v>
       </c>
       <c r="E19" s="1">
-        <f>SUM('Round Scores'!E$3:E20)</f>
-        <v>94</v>
+        <f>SUM('Round Scores'!E$3:E19)</f>
+        <v>88</v>
       </c>
       <c r="F19" s="1">
-        <f>SUM('Round Scores'!F$3:F20)</f>
-        <v>90</v>
+        <f>SUM('Round Scores'!F$3:F19)</f>
+        <v>85</v>
       </c>
       <c r="G19" s="1">
-        <f>SUM('Round Scores'!G$3:G20)</f>
-        <v>89</v>
+        <f>SUM('Round Scores'!G$3:G19)</f>
+        <v>84</v>
       </c>
       <c r="H19" s="1">
-        <f>SUM('Round Scores'!H$3:H20)</f>
-        <v>89</v>
+        <f>SUM('Round Scores'!H$3:H19)</f>
+        <v>86</v>
       </c>
       <c r="I19" s="1">
-        <f>SUM('Round Scores'!I$3:I20)</f>
-        <v>87</v>
+        <f>SUM('Round Scores'!I$3:I19)</f>
+        <v>80</v>
       </c>
       <c r="J19" s="1">
-        <f>SUM('Round Scores'!J$3:J20)</f>
-        <v>89</v>
+        <f>SUM('Round Scores'!J$3:J19)</f>
+        <v>84</v>
       </c>
       <c r="K19" s="1">
-        <f>SUM('Round Scores'!K$3:K20)</f>
-        <v>89</v>
+        <f>SUM('Round Scores'!K$3:K19)</f>
+        <v>84</v>
       </c>
       <c r="L19" s="11">
-        <f>SUM('Round Scores'!L$3:L20)</f>
-        <v>90</v>
+        <f>SUM('Round Scores'!L$3:L19)</f>
+        <v>85</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="0"/>
-        <v>90.36363636363636</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
-        <f>SUM('Round Scores'!B$3:B21)</f>
-        <v>98</v>
+        <f>SUM('Round Scores'!B$3:B20)</f>
+        <v>92</v>
       </c>
       <c r="C20" s="1">
-        <f>SUM('Round Scores'!C$3:C21)</f>
-        <v>102</v>
+        <f>SUM('Round Scores'!C$3:C20)</f>
+        <v>96</v>
       </c>
       <c r="D20" s="1">
-        <f>SUM('Round Scores'!D$3:D21)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!D$3:D20)</f>
+        <v>89</v>
       </c>
       <c r="E20" s="1">
-        <f>SUM('Round Scores'!E$3:E21)</f>
-        <v>100</v>
+        <f>SUM('Round Scores'!E$3:E20)</f>
+        <v>94</v>
       </c>
       <c r="F20" s="1">
-        <f>SUM('Round Scores'!F$3:F21)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!F$3:F20)</f>
+        <v>90</v>
       </c>
       <c r="G20" s="1">
-        <f>SUM('Round Scores'!G$3:G21)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!G$3:G20)</f>
+        <v>89</v>
       </c>
       <c r="H20" s="1">
-        <f>SUM('Round Scores'!H$3:H21)</f>
-        <v>95</v>
+        <f>SUM('Round Scores'!H$3:H20)</f>
+        <v>89</v>
       </c>
       <c r="I20" s="1">
-        <f>SUM('Round Scores'!I$3:I21)</f>
-        <v>93</v>
+        <f>SUM('Round Scores'!I$3:I20)</f>
+        <v>87</v>
       </c>
       <c r="J20" s="1">
-        <f>SUM('Round Scores'!J$3:J21)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!J$3:J20)</f>
+        <v>89</v>
       </c>
       <c r="K20" s="1">
-        <f>SUM('Round Scores'!K$3:K21)</f>
-        <v>96</v>
+        <f>SUM('Round Scores'!K$3:K20)</f>
+        <v>89</v>
       </c>
       <c r="L20" s="11">
-        <f>SUM('Round Scores'!L$3:L21)</f>
-        <v>97</v>
+        <f>SUM('Round Scores'!L$3:L20)</f>
+        <v>90</v>
       </c>
       <c r="M20" s="5">
         <f t="shared" si="0"/>
-        <v>96.818181818181813</v>
+        <v>90.36363636363636</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
-        <f>SUM('Round Scores'!B$3:B22)</f>
-        <v>106</v>
+        <f>SUM('Round Scores'!B$3:B21)</f>
+        <v>98</v>
       </c>
       <c r="C21" s="1">
-        <f>SUM('Round Scores'!C$3:C22)</f>
-        <v>108</v>
+        <f>SUM('Round Scores'!C$3:C21)</f>
+        <v>102</v>
       </c>
       <c r="D21" s="1">
-        <f>SUM('Round Scores'!D$3:D22)</f>
-        <v>104</v>
+        <f>SUM('Round Scores'!D$3:D21)</f>
+        <v>96</v>
       </c>
       <c r="E21" s="1">
-        <f>SUM('Round Scores'!E$3:E22)</f>
-        <v>107</v>
+        <f>SUM('Round Scores'!E$3:E21)</f>
+        <v>100</v>
       </c>
       <c r="F21" s="1">
-        <f>SUM('Round Scores'!F$3:F22)</f>
-        <v>104</v>
+        <f>SUM('Round Scores'!F$3:F21)</f>
+        <v>96</v>
       </c>
       <c r="G21" s="1">
-        <f>SUM('Round Scores'!G$3:G22)</f>
-        <v>104</v>
+        <f>SUM('Round Scores'!G$3:G21)</f>
+        <v>96</v>
       </c>
       <c r="H21" s="1">
-        <f>SUM('Round Scores'!H$3:H22)</f>
-        <v>101</v>
+        <f>SUM('Round Scores'!H$3:H21)</f>
+        <v>95</v>
       </c>
       <c r="I21" s="1">
-        <f>SUM('Round Scores'!I$3:I22)</f>
-        <v>100</v>
+        <f>SUM('Round Scores'!I$3:I21)</f>
+        <v>93</v>
       </c>
       <c r="J21" s="1">
-        <f>SUM('Round Scores'!J$3:J22)</f>
-        <v>104</v>
+        <f>SUM('Round Scores'!J$3:J21)</f>
+        <v>96</v>
       </c>
       <c r="K21" s="1">
-        <f>SUM('Round Scores'!K$3:K22)</f>
-        <v>101</v>
+        <f>SUM('Round Scores'!K$3:K21)</f>
+        <v>96</v>
       </c>
       <c r="L21" s="11">
-        <f>SUM('Round Scores'!L$3:L22)</f>
-        <v>100</v>
+        <f>SUM('Round Scores'!L$3:L21)</f>
+        <v>97</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="0"/>
-        <v>103.54545454545455</v>
+        <v>96.818181818181813</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <f>SUM('Round Scores'!B$3:B23)</f>
-        <v>115</v>
+        <f>SUM('Round Scores'!B$3:B22)</f>
+        <v>106</v>
       </c>
       <c r="C22" s="1">
-        <f>SUM('Round Scores'!C$3:C23)</f>
-        <v>115</v>
+        <f>SUM('Round Scores'!C$3:C22)</f>
+        <v>108</v>
       </c>
       <c r="D22" s="1">
-        <f>SUM('Round Scores'!D$3:D23)</f>
-        <v>112</v>
+        <f>SUM('Round Scores'!D$3:D22)</f>
+        <v>104</v>
       </c>
       <c r="E22" s="1">
-        <f>SUM('Round Scores'!E$3:E23)</f>
-        <v>113</v>
+        <f>SUM('Round Scores'!E$3:E22)</f>
+        <v>107</v>
       </c>
       <c r="F22" s="1">
-        <f>SUM('Round Scores'!F$3:F23)</f>
-        <v>113</v>
+        <f>SUM('Round Scores'!F$3:F22)</f>
+        <v>104</v>
       </c>
       <c r="G22" s="1">
-        <f>SUM('Round Scores'!G$3:G23)</f>
-        <v>112</v>
+        <f>SUM('Round Scores'!G$3:G22)</f>
+        <v>104</v>
       </c>
       <c r="H22" s="1">
-        <f>SUM('Round Scores'!H$3:H23)</f>
-        <v>109</v>
+        <f>SUM('Round Scores'!H$3:H22)</f>
+        <v>101</v>
       </c>
       <c r="I22" s="1">
-        <f>SUM('Round Scores'!I$3:I23)</f>
-        <v>108</v>
+        <f>SUM('Round Scores'!I$3:I22)</f>
+        <v>100</v>
       </c>
       <c r="J22" s="1">
-        <f>SUM('Round Scores'!J$3:J23)</f>
-        <v>111</v>
+        <f>SUM('Round Scores'!J$3:J22)</f>
+        <v>104</v>
       </c>
       <c r="K22" s="1">
-        <f>SUM('Round Scores'!K$3:K23)</f>
-        <v>107</v>
+        <f>SUM('Round Scores'!K$3:K22)</f>
+        <v>101</v>
       </c>
       <c r="L22" s="11">
-        <f>SUM('Round Scores'!L$3:L23)</f>
-        <v>106</v>
+        <f>SUM('Round Scores'!L$3:L22)</f>
+        <v>100</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>103.54545454545455</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
-        <f>SUM('Round Scores'!B$3:B24)</f>
-        <v>122</v>
+        <f>SUM('Round Scores'!B$3:B23)</f>
+        <v>115</v>
       </c>
       <c r="C23" s="1">
-        <f>SUM('Round Scores'!C$3:C24)</f>
-        <v>121</v>
+        <f>SUM('Round Scores'!C$3:C23)</f>
+        <v>115</v>
       </c>
       <c r="D23" s="1">
-        <f>SUM('Round Scores'!D$3:D24)</f>
-        <v>119</v>
+        <f>SUM('Round Scores'!D$3:D23)</f>
+        <v>112</v>
       </c>
       <c r="E23" s="1">
-        <f>SUM('Round Scores'!E$3:E24)</f>
-        <v>120</v>
+        <f>SUM('Round Scores'!E$3:E23)</f>
+        <v>113</v>
       </c>
       <c r="F23" s="1">
-        <f>SUM('Round Scores'!F$3:F24)</f>
-        <v>119</v>
+        <f>SUM('Round Scores'!F$3:F23)</f>
+        <v>113</v>
       </c>
       <c r="G23" s="1">
-        <f>SUM('Round Scores'!G$3:G24)</f>
-        <v>118</v>
+        <f>SUM('Round Scores'!G$3:G23)</f>
+        <v>112</v>
       </c>
       <c r="H23" s="1">
-        <f>SUM('Round Scores'!H$3:H24)</f>
-        <v>116</v>
+        <f>SUM('Round Scores'!H$3:H23)</f>
+        <v>109</v>
       </c>
       <c r="I23" s="1">
-        <f>SUM('Round Scores'!I$3:I24)</f>
-        <v>115</v>
+        <f>SUM('Round Scores'!I$3:I23)</f>
+        <v>108</v>
       </c>
       <c r="J23" s="1">
-        <f>SUM('Round Scores'!J$3:J24)</f>
-        <v>117</v>
+        <f>SUM('Round Scores'!J$3:J23)</f>
+        <v>111</v>
       </c>
       <c r="K23" s="1">
-        <f>SUM('Round Scores'!K$3:K24)</f>
-        <v>115</v>
+        <f>SUM('Round Scores'!K$3:K23)</f>
+        <v>107</v>
       </c>
       <c r="L23" s="11">
-        <f>SUM('Round Scores'!L$3:L24)</f>
-        <v>111</v>
+        <f>SUM('Round Scores'!L$3:L23)</f>
+        <v>106</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="0"/>
-        <v>117.54545454545455</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <f>SUM('Round Scores'!B$3:B24)</f>
+        <v>122</v>
+      </c>
+      <c r="C24" s="1">
+        <f>SUM('Round Scores'!C$3:C24)</f>
+        <v>121</v>
+      </c>
+      <c r="D24" s="1">
+        <f>SUM('Round Scores'!D$3:D24)</f>
+        <v>119</v>
+      </c>
+      <c r="E24" s="1">
+        <f>SUM('Round Scores'!E$3:E24)</f>
+        <v>120</v>
+      </c>
+      <c r="F24" s="1">
+        <f>SUM('Round Scores'!F$3:F24)</f>
+        <v>119</v>
+      </c>
+      <c r="G24" s="1">
+        <f>SUM('Round Scores'!G$3:G24)</f>
+        <v>118</v>
+      </c>
+      <c r="H24" s="1">
+        <f>SUM('Round Scores'!H$3:H24)</f>
+        <v>116</v>
+      </c>
+      <c r="I24" s="1">
+        <f>SUM('Round Scores'!I$3:I24)</f>
+        <v>115</v>
+      </c>
+      <c r="J24" s="1">
+        <f>SUM('Round Scores'!J$3:J24)</f>
+        <v>117</v>
+      </c>
+      <c r="K24" s="1">
+        <f>SUM('Round Scores'!K$3:K24)</f>
+        <v>115</v>
+      </c>
+      <c r="L24" s="11">
+        <f>SUM('Round Scores'!L$3:L24)</f>
+        <v>111</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="0"/>
+        <v>117.54545454545455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <f>SUM('Round Scores'!B$3:B25)</f>
         <v>127</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <f>SUM('Round Scores'!C$3:C25)</f>
         <v>126</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <f>SUM('Round Scores'!D$3:D25)</f>
         <v>125</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <f>SUM('Round Scores'!E$3:E25)</f>
         <v>125</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <f>SUM('Round Scores'!F$3:F25)</f>
         <v>124</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <f>SUM('Round Scores'!G$3:G25)</f>
         <v>123</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="1">
         <f>SUM('Round Scores'!H$3:H25)</f>
         <v>121</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I25" s="1">
         <f>SUM('Round Scores'!I$3:I25)</f>
         <v>121</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J25" s="1">
         <f>SUM('Round Scores'!J$3:J25)</f>
         <v>120</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K25" s="1">
         <f>SUM('Round Scores'!K$3:K25)</f>
         <v>120</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L25" s="11">
         <f>SUM('Round Scores'!L$3:L25)</f>
         <v>117</v>
       </c>
-      <c r="M24" s="5">
-        <f>AVERAGE(I24:L24)</f>
+      <c r="M25" s="5">
+        <f>AVERAGE(I25:L25)</f>
         <v>119.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:L2">
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:L3">
     <cfRule type="aboveAverage" dxfId="45" priority="45" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="44" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:L3">
+  <conditionalFormatting sqref="B4:L4">
     <cfRule type="aboveAverage" dxfId="43" priority="43" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="42" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:L4">
+  <conditionalFormatting sqref="B5:L5">
     <cfRule type="aboveAverage" dxfId="41" priority="41" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="40" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:L5">
+  <conditionalFormatting sqref="B6:L6">
     <cfRule type="aboveAverage" dxfId="39" priority="39" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="38" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:L6">
+  <conditionalFormatting sqref="B7:L7">
     <cfRule type="aboveAverage" dxfId="37" priority="37" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="36" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:L7">
+  <conditionalFormatting sqref="B8:L8">
     <cfRule type="aboveAverage" dxfId="35" priority="35" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="34" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:L8">
+  <conditionalFormatting sqref="B9:L9">
     <cfRule type="aboveAverage" dxfId="33" priority="33" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="32" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:L9">
+  <conditionalFormatting sqref="B10:L10">
     <cfRule type="aboveAverage" dxfId="31" priority="31" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="30" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:L10">
+  <conditionalFormatting sqref="B11:L11">
     <cfRule type="aboveAverage" dxfId="29" priority="29" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="28" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:L11">
+  <conditionalFormatting sqref="B12:L12">
     <cfRule type="aboveAverage" dxfId="27" priority="27" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="26" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:L12">
+  <conditionalFormatting sqref="B13:L13">
     <cfRule type="aboveAverage" dxfId="25" priority="25" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="24" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:L13">
+  <conditionalFormatting sqref="B14:L14">
     <cfRule type="aboveAverage" dxfId="23" priority="23" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="22" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:L14">
+  <conditionalFormatting sqref="B15:L15">
     <cfRule type="aboveAverage" dxfId="21" priority="21" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="20" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:L15">
+  <conditionalFormatting sqref="B16:L16">
     <cfRule type="aboveAverage" dxfId="19" priority="19" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="18" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:L16">
+  <conditionalFormatting sqref="B17:L17">
     <cfRule type="aboveAverage" dxfId="17" priority="17" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="16" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:L17">
+  <conditionalFormatting sqref="B18:L18">
     <cfRule type="aboveAverage" dxfId="15" priority="15" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="14" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:L18">
+  <conditionalFormatting sqref="B19:L19">
     <cfRule type="aboveAverage" dxfId="13" priority="13" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:L19">
+  <conditionalFormatting sqref="B20:L20">
     <cfRule type="aboveAverage" dxfId="11" priority="11" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:L20">
+  <conditionalFormatting sqref="B21:L21">
     <cfRule type="aboveAverage" dxfId="9" priority="9" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:L21">
+  <conditionalFormatting sqref="B22:L22">
     <cfRule type="aboveAverage" dxfId="7" priority="7" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:L22">
+  <conditionalFormatting sqref="B23:L23">
     <cfRule type="aboveAverage" dxfId="5" priority="5" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:L23">
+  <conditionalFormatting sqref="B24:L24">
     <cfRule type="aboveAverage" dxfId="3" priority="3" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:L24">
+  <conditionalFormatting sqref="B25:L25">
     <cfRule type="aboveAverage" dxfId="1" priority="1" aboveAverage="0"/>
     <cfRule type="aboveAverage" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/Footy Tipping 2017_friends.xlsx
+++ b/Footy Tipping 2017_friends.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Histogram" sheetId="14" r:id="rId2"/>
     <sheet name="Cumulative Scores (1st &amp; Last)" sheetId="2" r:id="rId3"/>
     <sheet name="Cumulative Scores (Average)" sheetId="15" r:id="rId4"/>
-    <sheet name="Line Chart by Round" sheetId="16" r:id="rId5"/>
-    <sheet name="Line Chart Cumulative" sheetId="3" r:id="rId6"/>
+    <sheet name="Chart 1" sheetId="16" r:id="rId5"/>
+    <sheet name="Chart 2" sheetId="3" r:id="rId6"/>
     <sheet name="Data" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="46">
   <si>
     <t>Round 1</t>
   </si>
@@ -160,13 +160,17 @@
   <si>
     <t>Green: above average | Red: below average</t>
   </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -636,7 +640,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -679,8 +683,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,8 +732,13 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -768,6 +778,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1877,11 +1888,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147049472"/>
-        <c:axId val="147137664"/>
+        <c:axId val="145280384"/>
+        <c:axId val="145704448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147049472"/>
+        <c:axId val="145280384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,7 +1909,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU" sz="1200"/>
-                  <a:t>Bin</a:t>
+                  <a:t>Individual Round Scores</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1910,7 +1921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147137664"/>
+        <c:crossAx val="145704448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1918,7 +1929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147137664"/>
+        <c:axId val="145704448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,7 +1958,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147049472"/>
+        <c:crossAx val="145280384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1989,7 +2000,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t>Round by Round Footy Tipping Scores</a:t>
+              <a:t>Round by Round Average Tipping Score</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -2012,11 +2023,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Round Scores'!$B$2</c:f>
+              <c:f>'Round Scores'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bob Arnold</c:v>
+                  <c:v>Average </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2031,1953 +2042,85 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Round Scores'!$A$3:$A$25</c:f>
-              <c:strCache>
+          <c:val>
+            <c:numRef>
+              <c:f>'Round Scores'!$M$3:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>7.7272727272727275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>4.5454545454545459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>6.4545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>6.8181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>5.4545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>3.5454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>5.2727272727272725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>3.9090909090909092</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>6.3636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>3.7272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>2.7272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>2.5454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>6.3636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>3.6363636363636362</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>6.2727272727272725</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>5.6363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>5.3636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>6.4545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>6.7272727272727275</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>7.4545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>6.5454545454545459</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Round Scores'!$B$3:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>5.0909090909090908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Round Scores'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DAN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Round Scores'!$A$3:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>Round 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Round 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Round 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Round 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Round 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Round 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Round 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Round 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Round 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Round 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Round 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Round 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Round 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Round 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Round 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Round 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Round 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Round 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Round 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Round 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Round 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Round Scores'!$C$3:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Round Scores'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Master Chief</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Round Scores'!$A$3:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>Round 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Round 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Round 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Round 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Round 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Round 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Round 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Round 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Round 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Round 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Round 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Round 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Round 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Round 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Round 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Round 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Round 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Round 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Round 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Round 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Round 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Round Scores'!$D$3:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Round Scores'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mcdonald-TIPungwuti</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Round Scores'!$A$3:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>Round 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Round 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Round 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Round 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Round 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Round 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Round 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Round 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Round 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Round 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Round 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Round 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Round 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Round 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Round 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Round 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Round 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Round 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Round 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Round 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Round 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Round Scores'!$E$3:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Round Scores'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tim Kennedy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Round Scores'!$A$3:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>Round 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Round 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Round 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Round 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Round 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Round 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Round 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Round 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Round 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Round 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Round 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Round 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Round 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Round 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Round 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Round 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Round 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Round 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Round 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Round 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Round 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Round Scores'!$F$3:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Round Scores'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#notmyhawks</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="1101E7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Round Scores'!$A$3:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>Round 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Round 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Round 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Round 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Round 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Round 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Round 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Round 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Round 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Round 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Round 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Round 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Round 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Round 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Round 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Round 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Round 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Round 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Round 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Round 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Round 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Round Scores'!$G$3:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Round Scores'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hetti</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Round Scores'!$A$3:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>Round 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Round 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Round 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Round 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Round 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Round 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Round 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Round 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Round 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Round 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Round 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Round 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Round 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Round 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Round 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Round 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Round 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Round 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Round 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Round 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Round 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Round Scores'!$H$3:$H$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Round Scores'!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hcp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Round Scores'!$A$3:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>Round 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Round 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Round 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Round 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Round 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Round 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Round 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Round 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Round 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Round 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Round 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Round 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Round 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Round 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Round 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Round 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Round 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Round 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Round 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Round 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Round 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Round Scores'!$I$3:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Round Scores'!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Deesaremypicks</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="DB0DAF"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Round Scores'!$A$3:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>Round 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Round 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Round 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Round 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Round 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Round 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Round 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Round 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Round 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Round 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Round 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Round 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Round 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Round 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Round 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Round 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Round 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Round 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Round 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Round 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Round 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Round Scores'!$J$3:$J$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Round Scores'!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>gracenovak</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Round Scores'!$A$3:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>Round 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Round 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Round 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Round 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Round 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Round 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Round 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Round 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Round 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Round 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Round 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Round 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Round 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Round 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Round 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Round 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Round 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Round 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Round 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Round 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Round 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Round Scores'!$K$3:$K$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Round Scores'!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jordane</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Round Scores'!$A$3:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>Round 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Round 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Round 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Round 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Round 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Round 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Round 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Round 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Round 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Round 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Round 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Round 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Round 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Round 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Round 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Round 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Round 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Round 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Round 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Round 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Round 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Round 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Round Scores'!$L$3:$L$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3989,11 +2132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197887872"/>
-        <c:axId val="197889408"/>
+        <c:axId val="145803520"/>
+        <c:axId val="145805696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197887872"/>
+        <c:axId val="145803520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,6 +2149,25 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1200"/>
+                  <a:t>Round</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4021,7 +2183,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000">
+              <a:defRPr sz="1200">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="75000"/>
@@ -4033,7 +2195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197889408"/>
+        <c:crossAx val="145805696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4041,7 +2203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197889408"/>
+        <c:axId val="145805696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4059,7 +2221,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1200"/>
+                  <a:t>Average Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4078,26 +2259,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197887872"/>
+        <c:crossAx val="145803520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="1"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4142,6 +2308,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
+              <a:t>Individual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
               <a:t>Cumulative</a:t>
             </a:r>
             <a:r>
@@ -4189,81 +2363,82 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4363,81 +2538,82 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4544,81 +2720,82 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4718,81 +2895,82 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4892,81 +3070,82 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5073,81 +3252,82 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5254,81 +3434,82 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5435,81 +3616,82 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5616,81 +3798,82 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5799,81 +3982,82 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5980,81 +4164,82 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cumulative Scores (1st &amp; Last)'!$A$3:$A$25</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Cumulative Scores (1st &amp; Last)'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>Round 1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Round 2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Round 3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Round 4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Round 5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Round 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Round 7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Round 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Round 9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Round 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Round 11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Round 12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Round 13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Round 14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Round 15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Round 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Round 17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Round 18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Round 19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Round 20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Round 21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Round 22</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Round 23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6146,11 +4331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202182656"/>
-        <c:axId val="202184192"/>
+        <c:axId val="199779840"/>
+        <c:axId val="199781376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202182656"/>
+        <c:axId val="199779840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6163,6 +4348,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Round</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6178,7 +4383,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000">
+              <a:defRPr sz="1200">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="75000"/>
@@ -6190,7 +4395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202184192"/>
+        <c:crossAx val="199781376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6198,7 +4403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202184192"/>
+        <c:axId val="199781376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6235,7 +4440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202182656"/>
+        <c:crossAx val="199779840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6278,13 +4483,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6341,6 +4546,76 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="1390649"/>
+          <a:ext cx="1647825" cy="647701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1"/>
+            <a:t>Bye Rounds </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="1"/>
+            <a:t>(6 Games)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9200,96 +7475,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="21">
+        <f>B2/SUM($B$2:$B$10)</f>
+        <v>7.9051383399209481E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:C10" si="0">B3/SUM($B$2:$B$10)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1225296442687747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="13">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1541501976284585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="13">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.17786561264822134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="21">
+        <f t="shared" si="0"/>
+        <v>0.22924901185770752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="13">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.15019762845849802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="13">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="21">
+        <f t="shared" si="0"/>
+        <v>9.4861660079051377E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="13">
         <v>5</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="0"/>
+        <v>1.9762845849802372E-2</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:A10">
     <sortCondition ref="A2"/>
   </sortState>
+  <conditionalFormatting sqref="C2:C10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9297,7 +7627,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -9313,7 +7643,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
@@ -9328,7 +7658,7 @@
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
@@ -9366,7 +7696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -9418,8 +7748,11 @@
         <f t="shared" ref="M3:M24" si="0">AVERAGE(B3:L3)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -9471,8 +7804,11 @@
         <f t="shared" si="0"/>
         <v>11.727272727272727</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -9524,8 +7860,11 @@
         <f t="shared" si="0"/>
         <v>16.272727272727273</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -9577,8 +7916,11 @@
         <f t="shared" si="0"/>
         <v>22.727272727272727</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -9630,8 +7972,11 @@
         <f t="shared" si="0"/>
         <v>29.545454545454547</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -9683,8 +8028,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -9736,8 +8084,11 @@
         <f t="shared" si="0"/>
         <v>38.545454545454547</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -9789,8 +8140,11 @@
         <f t="shared" si="0"/>
         <v>43.81818181818182</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -9842,8 +8196,11 @@
         <f t="shared" si="0"/>
         <v>47.727272727272727</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -9895,8 +8252,11 @@
         <f t="shared" si="0"/>
         <v>54.090909090909093</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -9948,8 +8308,11 @@
         <f t="shared" si="0"/>
         <v>57.81818181818182</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -10001,8 +8364,11 @@
         <f t="shared" si="0"/>
         <v>60.545454545454547</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -10054,8 +8420,11 @@
         <f t="shared" si="0"/>
         <v>63.090909090909093</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -10107,8 +8476,11 @@
         <f t="shared" si="0"/>
         <v>69.454545454545453</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -10160,8 +8532,11 @@
         <f t="shared" si="0"/>
         <v>73.090909090909093</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -10213,8 +8588,11 @@
         <f t="shared" si="0"/>
         <v>79.36363636363636</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -10266,8 +8644,11 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -10319,8 +8700,11 @@
         <f t="shared" si="0"/>
         <v>90.36363636363636</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -10372,8 +8756,11 @@
         <f t="shared" si="0"/>
         <v>96.818181818181813</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -10425,8 +8812,11 @@
         <f t="shared" si="0"/>
         <v>103.54545454545455</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -10478,8 +8868,11 @@
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -10531,8 +8924,11 @@
         <f t="shared" si="0"/>
         <v>117.54545454545455</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -10583,6 +8979,9 @@
       <c r="M25" s="5">
         <f>AVERAGE(I25:L25)</f>
         <v>119.5</v>
+      </c>
+      <c r="N25" s="22">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Footy Tipping 2017_friends.xlsx
+++ b/Footy Tipping 2017_friends.xlsx
@@ -9,22 +9,24 @@
   <sheets>
     <sheet name="Round Scores" sheetId="1" r:id="rId1"/>
     <sheet name="Histogram" sheetId="14" r:id="rId2"/>
-    <sheet name="Cumulative Scores (1st &amp; Last)" sheetId="2" r:id="rId3"/>
-    <sheet name="Cumulative Scores (Average)" sheetId="15" r:id="rId4"/>
-    <sheet name="Chart 1" sheetId="16" r:id="rId5"/>
-    <sheet name="Chart 2" sheetId="3" r:id="rId6"/>
-    <sheet name="Data" sheetId="4" r:id="rId7"/>
+    <sheet name="Round Score Frequency Table" sheetId="18" r:id="rId3"/>
+    <sheet name="Cumulative Scores (1st &amp; Last)" sheetId="2" r:id="rId4"/>
+    <sheet name="Cumulative Scores (Average)" sheetId="15" r:id="rId5"/>
+    <sheet name="Chart 1" sheetId="16" r:id="rId6"/>
+    <sheet name="Chart 2" sheetId="3" r:id="rId7"/>
+    <sheet name="Data" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Data!$A$1:$Y$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Round Scores'!$A$2:$Z$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Data!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Round Score Frequency Table'!$A$3:$Z$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Round Scores'!$A$2:$AB$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
   <si>
     <t>Round 1</t>
   </si>
@@ -163,6 +165,24 @@
   <si>
     <t>%</t>
   </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Freuqency of Individual Scores by Round</t>
+  </si>
+  <si>
+    <t>Re-Sort (Smallest to Largest)</t>
+  </si>
 </sst>
 </file>
 
@@ -170,9 +190,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +336,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +545,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -685,7 +733,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,17 +774,45 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -783,7 +859,57 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="99">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1888,11 +2014,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145280384"/>
-        <c:axId val="145704448"/>
+        <c:axId val="148005248"/>
+        <c:axId val="148007168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145280384"/>
+        <c:axId val="148005248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +2047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145704448"/>
+        <c:crossAx val="148007168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1929,7 +2055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145704448"/>
+        <c:axId val="148007168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +2084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145280384"/>
+        <c:crossAx val="148005248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2000,7 +2126,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t>Round by Round Average Tipping Score</a:t>
+              <a:t>Round by Round Average Tipping Score &amp; Individual Max/Min Score</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -2035,12 +2161,21 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -2116,6 +2251,214 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5.0909090909090908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Round Scores'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="38100"/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Round Scores'!$N$3:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Round Scores'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="38100"/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Round Scores'!$O$3:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2132,11 +2475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145803520"/>
-        <c:axId val="145805696"/>
+        <c:axId val="202794112"/>
+        <c:axId val="202796416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145803520"/>
+        <c:axId val="202794112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,7 +2538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145805696"/>
+        <c:crossAx val="202796416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2203,9 +2546,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145805696"/>
+        <c:axId val="202796416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2221,25 +2565,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU" sz="1200"/>
-                  <a:t>Average Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2259,11 +2584,26 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145803520"/>
+        <c:crossAx val="202794112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4331,11 +4671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199779840"/>
-        <c:axId val="199781376"/>
+        <c:axId val="203010432"/>
+        <c:axId val="203012352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199779840"/>
+        <c:axId val="203010432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4395,7 +4735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199781376"/>
+        <c:crossAx val="203012352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4403,7 +4743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199781376"/>
+        <c:axId val="203012352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,7 +4780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199779840"/>
+        <c:crossAx val="203010432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4550,16 +4890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4568,8 +4908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6715125" y="1390649"/>
-          <a:ext cx="1647825" cy="647701"/>
+          <a:off x="6543675" y="1343025"/>
+          <a:ext cx="1695450" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4945,7 +5285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -4957,42 +5297,46 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
-    <col min="2" max="14" width="13.7109375" customWidth="1"/>
-    <col min="16" max="26" width="13.7109375" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="15" width="13.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="18" max="28" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="P1" s="19" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="R1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-    </row>
-    <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+    </row>
+    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
@@ -5026,47 +5370,53 @@
       <c r="L2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -5107,57 +5457,65 @@
         <f t="shared" ref="M3:M25" si="0">AVERAGE(B3:L3)</f>
         <v>4</v>
       </c>
-      <c r="N3" s="6">
-        <f t="shared" ref="N3:N26" si="1">_xlfn.STDEV.P(B3:L3)</f>
+      <c r="N3" s="23">
+        <f>MAX(B3:L3)</f>
+        <v>5</v>
+      </c>
+      <c r="O3" s="23">
+        <f>MIN(C3:M3)</f>
+        <v>2</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P26" si="1">_xlfn.STDEV.P(B3:L3)</f>
         <v>0.95346258924559235</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="6">
-        <f t="shared" ref="P3:P26" si="2">B3-$M3</f>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:R26" si="2">B3-$M3</f>
         <v>-1</v>
       </c>
-      <c r="Q3" s="6">
-        <f t="shared" ref="Q3:Q26" si="3">C3-$M3</f>
+      <c r="S3" s="6">
+        <f t="shared" ref="S3:S26" si="3">C3-$M3</f>
         <v>1</v>
       </c>
-      <c r="R3" s="6">
-        <f t="shared" ref="R3:R26" si="4">D3-$M3</f>
+      <c r="T3" s="6">
+        <f t="shared" ref="T3:T26" si="4">D3-$M3</f>
         <v>0</v>
       </c>
-      <c r="S3" s="6">
-        <f t="shared" ref="S3:S26" si="5">E3-$M3</f>
+      <c r="U3" s="6">
+        <f t="shared" ref="U3:U26" si="5">E3-$M3</f>
         <v>1</v>
       </c>
-      <c r="T3" s="6">
-        <f t="shared" ref="T3:T26" si="6">F3-$M3</f>
+      <c r="V3" s="6">
+        <f t="shared" ref="V3:V26" si="6">F3-$M3</f>
         <v>1</v>
       </c>
-      <c r="U3" s="6">
-        <f t="shared" ref="U3:U26" si="7">G3-$M3</f>
+      <c r="W3" s="6">
+        <f t="shared" ref="W3:W26" si="7">G3-$M3</f>
         <v>-2</v>
       </c>
-      <c r="V3" s="6">
-        <f t="shared" ref="V3:V26" si="8">H3-$M3</f>
+      <c r="X3" s="6">
+        <f t="shared" ref="X3:X26" si="8">H3-$M3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="6">
-        <f t="shared" ref="W3:W26" si="9">I3-$M3</f>
+      <c r="Y3" s="6">
+        <f t="shared" ref="Y3:Y26" si="9">I3-$M3</f>
         <v>1</v>
       </c>
-      <c r="X3" s="6">
-        <f t="shared" ref="X3:X26" si="10">J3-$M3</f>
+      <c r="Z3" s="6">
+        <f t="shared" ref="Z3:Z26" si="10">J3-$M3</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="6">
-        <f t="shared" ref="Y3:Y26" si="11">K3-$M3</f>
+      <c r="AA3" s="6">
+        <f t="shared" ref="AA3:AA26" si="11">K3-$M3</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="6">
-        <f t="shared" ref="Z3:Z26" si="12">L3-$M3</f>
+      <c r="AB3" s="6">
+        <f t="shared" ref="AB3:AB26" si="12">L3-$M3</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -5198,57 +5556,65 @@
         <f t="shared" si="0"/>
         <v>7.7272727272727275</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="23">
+        <f t="shared" ref="N4:N26" si="13">MAX(B4:L4)</f>
+        <v>9</v>
+      </c>
+      <c r="O4" s="23">
+        <f t="shared" ref="O4:O25" si="14">MIN(C4:M4)</f>
+        <v>6</v>
+      </c>
+      <c r="P4" s="5">
         <f t="shared" si="1"/>
         <v>0.86243936186410342</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="6">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="6">
         <f t="shared" si="2"/>
         <v>0.27272727272727249</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="S4" s="6">
         <f t="shared" si="3"/>
         <v>1.2727272727272725</v>
       </c>
-      <c r="R4" s="6">
+      <c r="T4" s="6">
         <f t="shared" si="4"/>
         <v>0.27272727272727249</v>
       </c>
-      <c r="S4" s="6">
+      <c r="U4" s="6">
         <f t="shared" si="5"/>
         <v>1.2727272727272725</v>
       </c>
-      <c r="T4" s="6">
+      <c r="V4" s="6">
         <f t="shared" si="6"/>
         <v>0.27272727272727249</v>
       </c>
-      <c r="U4" s="6">
+      <c r="W4" s="6">
         <f t="shared" si="7"/>
         <v>-1.7272727272727275</v>
       </c>
-      <c r="V4" s="6">
+      <c r="X4" s="6">
         <f t="shared" si="8"/>
         <v>-0.72727272727272751</v>
       </c>
-      <c r="W4" s="6">
+      <c r="Y4" s="6">
         <f t="shared" si="9"/>
         <v>-0.72727272727272751</v>
       </c>
-      <c r="X4" s="6">
+      <c r="Z4" s="6">
         <f t="shared" si="10"/>
         <v>0.27272727272727249</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="AA4" s="6">
         <f t="shared" si="11"/>
         <v>0.27272727272727249</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AB4" s="6">
         <f t="shared" si="12"/>
         <v>-0.72727272727272751</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -5289,57 +5655,65 @@
         <f t="shared" si="0"/>
         <v>4.5454545454545459</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="23">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="P5" s="5">
         <f t="shared" si="1"/>
         <v>0.7820295697311479</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="6">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="6">
         <f t="shared" si="2"/>
         <v>-0.54545454545454586</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="S5" s="6">
         <f t="shared" si="3"/>
         <v>1.4545454545454541</v>
       </c>
-      <c r="R5" s="6">
+      <c r="T5" s="6">
         <f t="shared" si="4"/>
         <v>0.45454545454545414</v>
       </c>
-      <c r="S5" s="6">
+      <c r="U5" s="6">
         <f t="shared" si="5"/>
         <v>-0.54545454545454586</v>
       </c>
-      <c r="T5" s="6">
+      <c r="V5" s="6">
         <f t="shared" si="6"/>
         <v>-0.54545454545454586</v>
       </c>
-      <c r="U5" s="6">
+      <c r="W5" s="6">
         <f t="shared" si="7"/>
         <v>-0.54545454545454586</v>
       </c>
-      <c r="V5" s="6">
+      <c r="X5" s="6">
         <f t="shared" si="8"/>
         <v>0.45454545454545414</v>
       </c>
-      <c r="W5" s="6">
+      <c r="Y5" s="6">
         <f t="shared" si="9"/>
         <v>-0.54545454545454586</v>
       </c>
-      <c r="X5" s="6">
+      <c r="Z5" s="6">
         <f t="shared" si="10"/>
         <v>-0.54545454545454586</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="AA5" s="6">
         <f t="shared" si="11"/>
         <v>-0.54545454545454586</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AB5" s="6">
         <f t="shared" si="12"/>
         <v>1.4545454545454541</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -5380,57 +5754,65 @@
         <f t="shared" si="0"/>
         <v>6.4545454545454541</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="23">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="O6" s="23">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="P6" s="5">
         <f t="shared" si="1"/>
         <v>0.655554777357089</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="6">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="6">
         <f t="shared" si="2"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="S6" s="6">
         <f t="shared" si="3"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="R6" s="6">
+      <c r="T6" s="6">
         <f t="shared" si="4"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="S6" s="6">
+      <c r="U6" s="6">
         <f t="shared" si="5"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="T6" s="6">
+      <c r="V6" s="6">
         <f t="shared" si="6"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="U6" s="6">
+      <c r="W6" s="6">
         <f t="shared" si="7"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="V6" s="6">
+      <c r="X6" s="6">
         <f t="shared" si="8"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="W6" s="6">
+      <c r="Y6" s="6">
         <f t="shared" si="9"/>
         <v>-1.4545454545454541</v>
       </c>
-      <c r="X6" s="6">
+      <c r="Z6" s="6">
         <f t="shared" si="10"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="AA6" s="6">
         <f t="shared" si="11"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AB6" s="6">
         <f t="shared" si="12"/>
         <v>-0.45454545454545414</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -5471,57 +5853,65 @@
         <f t="shared" si="0"/>
         <v>6.8181818181818183</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="23">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O7" s="23">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="P7" s="5">
         <f t="shared" si="1"/>
         <v>1.0285189544531601</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="6">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="6">
         <f t="shared" si="2"/>
         <v>0.18181818181818166</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="S7" s="6">
         <f t="shared" si="3"/>
         <v>1.1818181818181817</v>
       </c>
-      <c r="R7" s="6">
+      <c r="T7" s="6">
         <f t="shared" si="4"/>
         <v>1.1818181818181817</v>
       </c>
-      <c r="S7" s="6">
+      <c r="U7" s="6">
         <f t="shared" si="5"/>
         <v>0.18181818181818166</v>
       </c>
-      <c r="T7" s="6">
+      <c r="V7" s="6">
         <f t="shared" si="6"/>
         <v>1.1818181818181817</v>
       </c>
-      <c r="U7" s="6">
+      <c r="W7" s="6">
         <f t="shared" si="7"/>
         <v>1.1818181818181817</v>
       </c>
-      <c r="V7" s="6">
+      <c r="X7" s="6">
         <f t="shared" si="8"/>
         <v>-0.81818181818181834</v>
       </c>
-      <c r="W7" s="6">
+      <c r="Y7" s="6">
         <f t="shared" si="9"/>
         <v>-0.81818181818181834</v>
       </c>
-      <c r="X7" s="6">
+      <c r="Z7" s="6">
         <f t="shared" si="10"/>
         <v>-0.81818181818181834</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="AA7" s="6">
         <f t="shared" si="11"/>
         <v>-0.81818181818181834</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="AB7" s="6">
         <f t="shared" si="12"/>
         <v>-1.8181818181818183</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -5562,57 +5952,65 @@
         <f t="shared" si="0"/>
         <v>5.4545454545454541</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="23">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O8" s="23">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="P8" s="5">
         <f t="shared" si="1"/>
         <v>1.0756508696544755</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="6">
+      <c r="Q8" s="17"/>
+      <c r="R8" s="6">
         <f t="shared" si="2"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="S8" s="6">
         <f t="shared" si="3"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="R8" s="6">
+      <c r="T8" s="6">
         <f t="shared" si="4"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="S8" s="6">
+      <c r="U8" s="6">
         <f t="shared" si="5"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="T8" s="6">
+      <c r="V8" s="6">
         <f t="shared" si="6"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="U8" s="6">
+      <c r="W8" s="6">
         <f t="shared" si="7"/>
         <v>-1.4545454545454541</v>
       </c>
-      <c r="V8" s="6">
+      <c r="X8" s="6">
         <f t="shared" si="8"/>
         <v>2.5454545454545459</v>
       </c>
-      <c r="W8" s="6">
+      <c r="Y8" s="6">
         <f t="shared" si="9"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="X8" s="6">
+      <c r="Z8" s="6">
         <f t="shared" si="10"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="AA8" s="6">
         <f t="shared" si="11"/>
         <v>-1.4545454545454541</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="AB8" s="6">
         <f t="shared" si="12"/>
         <v>-0.45454545454545414</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -5653,57 +6051,65 @@
         <f t="shared" si="0"/>
         <v>3.5454545454545454</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="23">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="O9" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="P9" s="5">
         <f t="shared" si="1"/>
         <v>0.49792959773196921</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="6">
+      <c r="Q9" s="17"/>
+      <c r="R9" s="6">
         <f t="shared" si="2"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="S9" s="6">
         <f t="shared" si="3"/>
         <v>-0.54545454545454541</v>
       </c>
-      <c r="R9" s="6">
+      <c r="T9" s="6">
         <f t="shared" si="4"/>
         <v>-0.54545454545454541</v>
       </c>
-      <c r="S9" s="6">
+      <c r="U9" s="6">
         <f t="shared" si="5"/>
         <v>-0.54545454545454541</v>
       </c>
-      <c r="T9" s="6">
+      <c r="V9" s="6">
         <f t="shared" si="6"/>
         <v>-0.54545454545454541</v>
       </c>
-      <c r="U9" s="6">
+      <c r="W9" s="6">
         <f t="shared" si="7"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="V9" s="6">
+      <c r="X9" s="6">
         <f t="shared" si="8"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="W9" s="6">
+      <c r="Y9" s="6">
         <f t="shared" si="9"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="X9" s="6">
+      <c r="Z9" s="6">
         <f t="shared" si="10"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="AA9" s="6">
         <f t="shared" si="11"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="AB9" s="6">
         <f t="shared" si="12"/>
         <v>-0.54545454545454541</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -5744,57 +6150,65 @@
         <f t="shared" si="0"/>
         <v>5.2727272727272725</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="23">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="O10" s="23">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="P10" s="5">
         <f t="shared" si="1"/>
         <v>0.61657545301138805</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="6">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="6">
         <f t="shared" si="2"/>
         <v>-0.27272727272727249</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="S10" s="6">
         <f t="shared" si="3"/>
         <v>-0.27272727272727249</v>
       </c>
-      <c r="R10" s="6">
+      <c r="T10" s="6">
         <f t="shared" si="4"/>
         <v>-0.27272727272727249</v>
       </c>
-      <c r="S10" s="6">
+      <c r="U10" s="6">
         <f t="shared" si="5"/>
         <v>0.72727272727272751</v>
       </c>
-      <c r="T10" s="6">
+      <c r="V10" s="6">
         <f t="shared" si="6"/>
         <v>-0.27272727272727249</v>
       </c>
-      <c r="U10" s="6">
+      <c r="W10" s="6">
         <f t="shared" si="7"/>
         <v>0.72727272727272751</v>
       </c>
-      <c r="V10" s="6">
+      <c r="X10" s="6">
         <f t="shared" si="8"/>
         <v>-1.2727272727272725</v>
       </c>
-      <c r="W10" s="6">
+      <c r="Y10" s="6">
         <f t="shared" si="9"/>
         <v>0.72727272727272751</v>
       </c>
-      <c r="X10" s="6">
+      <c r="Z10" s="6">
         <f t="shared" si="10"/>
         <v>-0.27272727272727249</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="AA10" s="6">
         <f t="shared" si="11"/>
         <v>0.72727272727272751</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AB10" s="6">
         <f t="shared" si="12"/>
         <v>-0.27272727272727249</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -5835,57 +6249,65 @@
         <f t="shared" si="0"/>
         <v>3.9090909090909092</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="23">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="O11" s="23">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P11" s="5">
         <f t="shared" si="1"/>
         <v>0.99585919546393842</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="6">
+      <c r="Q11" s="17"/>
+      <c r="R11" s="6">
         <f t="shared" si="2"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="S11" s="6">
         <f t="shared" si="3"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="R11" s="6">
+      <c r="T11" s="6">
         <f t="shared" si="4"/>
         <v>2.0909090909090908</v>
       </c>
-      <c r="S11" s="6">
+      <c r="U11" s="6">
         <f t="shared" si="5"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="T11" s="6">
+      <c r="V11" s="6">
         <f t="shared" si="6"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="U11" s="6">
+      <c r="W11" s="6">
         <f t="shared" si="7"/>
         <v>-0.90909090909090917</v>
       </c>
-      <c r="V11" s="6">
+      <c r="X11" s="6">
         <f t="shared" si="8"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="W11" s="6">
+      <c r="Y11" s="6">
         <f t="shared" si="9"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="X11" s="6">
+      <c r="Z11" s="6">
         <f t="shared" si="10"/>
         <v>-0.90909090909090917</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="AA11" s="6">
         <f t="shared" si="11"/>
         <v>-1.9090909090909092</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="AB11" s="6">
         <f t="shared" si="12"/>
         <v>9.0909090909090828E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -5926,57 +6348,65 @@
         <f t="shared" si="0"/>
         <v>6.3636363636363633</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="23">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O12" s="23">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="P12" s="5">
         <f t="shared" si="1"/>
         <v>1.1499191491521379</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="6">
+      <c r="Q12" s="17"/>
+      <c r="R12" s="6">
         <f t="shared" si="2"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="S12" s="6">
         <f t="shared" si="3"/>
         <v>0.63636363636363669</v>
       </c>
-      <c r="R12" s="6">
+      <c r="T12" s="6">
         <f t="shared" si="4"/>
         <v>0.63636363636363669</v>
       </c>
-      <c r="S12" s="6">
+      <c r="U12" s="6">
         <f t="shared" si="5"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="T12" s="6">
+      <c r="V12" s="6">
         <f t="shared" si="6"/>
         <v>-1.3636363636363633</v>
       </c>
-      <c r="U12" s="6">
+      <c r="W12" s="6">
         <f t="shared" si="7"/>
         <v>1.6363636363636367</v>
       </c>
-      <c r="V12" s="6">
+      <c r="X12" s="6">
         <f t="shared" si="8"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="W12" s="6">
+      <c r="Y12" s="6">
         <f t="shared" si="9"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="X12" s="6">
+      <c r="Z12" s="6">
         <f t="shared" si="10"/>
         <v>0.63636363636363669</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="AA12" s="6">
         <f t="shared" si="11"/>
         <v>-2.3636363636363633</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AB12" s="6">
         <f t="shared" si="12"/>
         <v>1.6363636363636367</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -6017,57 +6447,65 @@
         <f t="shared" si="0"/>
         <v>3.7272727272727271</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="23">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="O13" s="23">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P13" s="5">
         <f t="shared" si="1"/>
         <v>0.96209138584166931</v>
       </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="6">
+      <c r="Q13" s="17"/>
+      <c r="R13" s="6">
         <f t="shared" si="2"/>
         <v>1.2727272727272729</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="S13" s="6">
         <f t="shared" si="3"/>
         <v>0.27272727272727293</v>
       </c>
-      <c r="R13" s="6">
+      <c r="T13" s="6">
         <f t="shared" si="4"/>
         <v>0.27272727272727293</v>
       </c>
-      <c r="S13" s="6">
+      <c r="U13" s="6">
         <f t="shared" si="5"/>
         <v>-1.7272727272727271</v>
       </c>
-      <c r="T13" s="6">
+      <c r="V13" s="6">
         <f t="shared" si="6"/>
         <v>0.27272727272727293</v>
       </c>
-      <c r="U13" s="6">
+      <c r="W13" s="6">
         <f t="shared" si="7"/>
         <v>-1.7272727272727271</v>
       </c>
-      <c r="V13" s="6">
+      <c r="X13" s="6">
         <f t="shared" si="8"/>
         <v>0.27272727272727293</v>
       </c>
-      <c r="W13" s="6">
+      <c r="Y13" s="6">
         <f t="shared" si="9"/>
         <v>0.27272727272727293</v>
       </c>
-      <c r="X13" s="6">
+      <c r="Z13" s="6">
         <f t="shared" si="10"/>
         <v>0.27272727272727293</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="AA13" s="6">
         <f t="shared" si="11"/>
         <v>-0.72727272727272707</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="AB13" s="6">
         <f t="shared" si="12"/>
         <v>1.2727272727272729</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -6108,57 +6546,65 @@
         <f t="shared" si="0"/>
         <v>2.7272727272727271</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="23">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="O14" s="23">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
         <f t="shared" si="1"/>
         <v>1.1354541815269814</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="6">
+      <c r="Q14" s="17"/>
+      <c r="R14" s="6">
         <f t="shared" si="2"/>
         <v>0.27272727272727293</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="S14" s="6">
         <f t="shared" si="3"/>
         <v>-1.7272727272727271</v>
       </c>
-      <c r="R14" s="6">
+      <c r="T14" s="6">
         <f t="shared" si="4"/>
         <v>0.27272727272727293</v>
       </c>
-      <c r="S14" s="6">
+      <c r="U14" s="6">
         <f t="shared" si="5"/>
         <v>0.27272727272727293</v>
       </c>
-      <c r="T14" s="6">
+      <c r="V14" s="6">
         <f t="shared" si="6"/>
         <v>-0.72727272727272707</v>
       </c>
-      <c r="U14" s="6">
+      <c r="W14" s="6">
         <f t="shared" si="7"/>
         <v>0.27272727272727293</v>
       </c>
-      <c r="V14" s="6">
+      <c r="X14" s="6">
         <f t="shared" si="8"/>
         <v>1.2727272727272729</v>
       </c>
-      <c r="W14" s="6">
+      <c r="Y14" s="6">
         <f t="shared" si="9"/>
         <v>0.27272727272727293</v>
       </c>
-      <c r="X14" s="6">
+      <c r="Z14" s="6">
         <f t="shared" si="10"/>
         <v>-0.72727272727272707</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="AA14" s="6">
         <f t="shared" si="11"/>
         <v>2.2727272727272729</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="AB14" s="6">
         <f t="shared" si="12"/>
         <v>-1.7272727272727271</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -6199,57 +6645,65 @@
         <f t="shared" si="0"/>
         <v>2.5454545454545454</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="23">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="23">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P15" s="5">
         <f t="shared" si="1"/>
         <v>0.49792959773196921</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="6">
+      <c r="Q15" s="17"/>
+      <c r="R15" s="6">
         <f t="shared" si="2"/>
         <v>-0.54545454545454541</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="S15" s="6">
         <f t="shared" si="3"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="R15" s="6">
+      <c r="T15" s="6">
         <f t="shared" si="4"/>
         <v>-0.54545454545454541</v>
       </c>
-      <c r="S15" s="6">
+      <c r="U15" s="6">
         <f t="shared" si="5"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="T15" s="6">
+      <c r="V15" s="6">
         <f t="shared" si="6"/>
         <v>-0.54545454545454541</v>
       </c>
-      <c r="U15" s="6">
+      <c r="W15" s="6">
         <f t="shared" si="7"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="V15" s="6">
+      <c r="X15" s="6">
         <f t="shared" si="8"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="W15" s="6">
+      <c r="Y15" s="6">
         <f t="shared" si="9"/>
         <v>-0.54545454545454541</v>
       </c>
-      <c r="X15" s="6">
+      <c r="Z15" s="6">
         <f t="shared" si="10"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="AA15" s="6">
         <f t="shared" si="11"/>
         <v>0.45454545454545459</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="AB15" s="6">
         <f t="shared" si="12"/>
         <v>-0.54545454545454541</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -6290,57 +6744,65 @@
         <f t="shared" si="0"/>
         <v>6.3636363636363633</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="23">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="P16" s="5">
         <f t="shared" si="1"/>
         <v>0.77138921583987008</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="6">
+      <c r="Q16" s="17"/>
+      <c r="R16" s="6">
         <f t="shared" si="2"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="S16" s="6">
         <f t="shared" si="3"/>
         <v>0.63636363636363669</v>
       </c>
-      <c r="R16" s="6">
+      <c r="T16" s="6">
         <f t="shared" si="4"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="S16" s="6">
+      <c r="U16" s="6">
         <f t="shared" si="5"/>
         <v>-1.3636363636363633</v>
       </c>
-      <c r="T16" s="6">
+      <c r="V16" s="6">
         <f t="shared" si="6"/>
         <v>0.63636363636363669</v>
       </c>
-      <c r="U16" s="6">
+      <c r="W16" s="6">
         <f t="shared" si="7"/>
         <v>1.6363636363636367</v>
       </c>
-      <c r="V16" s="6">
+      <c r="X16" s="6">
         <f t="shared" si="8"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="W16" s="6">
+      <c r="Y16" s="6">
         <f t="shared" si="9"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="X16" s="6">
+      <c r="Z16" s="6">
         <f t="shared" si="10"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="AA16" s="6">
         <f t="shared" si="11"/>
         <v>0.63636363636363669</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="AB16" s="6">
         <f t="shared" si="12"/>
         <v>-0.36363636363636331</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -6381,57 +6843,65 @@
         <f t="shared" si="0"/>
         <v>3.6363636363636362</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="23">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="O17" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="P17" s="5">
         <f t="shared" si="1"/>
         <v>0.88139633771205983</v>
       </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="6">
+      <c r="Q17" s="17"/>
+      <c r="R17" s="6">
         <f t="shared" si="2"/>
         <v>-0.63636363636363624</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="S17" s="6">
         <f t="shared" si="3"/>
         <v>0.36363636363636376</v>
       </c>
-      <c r="R17" s="6">
+      <c r="T17" s="6">
         <f t="shared" si="4"/>
         <v>-0.63636363636363624</v>
       </c>
-      <c r="S17" s="6">
+      <c r="U17" s="6">
         <f t="shared" si="5"/>
         <v>0.36363636363636376</v>
       </c>
-      <c r="T17" s="6">
+      <c r="V17" s="6">
         <f t="shared" si="6"/>
         <v>-0.63636363636363624</v>
       </c>
-      <c r="U17" s="6">
+      <c r="W17" s="6">
         <f t="shared" si="7"/>
         <v>2.3636363636363638</v>
       </c>
-      <c r="V17" s="6">
+      <c r="X17" s="6">
         <f t="shared" si="8"/>
         <v>-0.63636363636363624</v>
       </c>
-      <c r="W17" s="6">
+      <c r="Y17" s="6">
         <f t="shared" si="9"/>
         <v>-0.63636363636363624</v>
       </c>
-      <c r="X17" s="6">
+      <c r="Z17" s="6">
         <f t="shared" si="10"/>
         <v>0.36363636363636376</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="AA17" s="6">
         <f t="shared" si="11"/>
         <v>0.36363636363636376</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="AB17" s="6">
         <f t="shared" si="12"/>
         <v>-0.63636363636363624</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -6472,57 +6942,65 @@
         <f t="shared" si="0"/>
         <v>6.2727272727272725</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="23">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="P18" s="5">
         <f t="shared" si="1"/>
         <v>0.61657545301138805</v>
       </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="6">
+      <c r="Q18" s="17"/>
+      <c r="R18" s="6">
         <f t="shared" si="2"/>
         <v>-0.27272727272727249</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="S18" s="6">
         <f t="shared" si="3"/>
         <v>-0.27272727272727249</v>
       </c>
-      <c r="R18" s="6">
+      <c r="T18" s="6">
         <f t="shared" si="4"/>
         <v>-1.2727272727272725</v>
       </c>
-      <c r="S18" s="6">
+      <c r="U18" s="6">
         <f t="shared" si="5"/>
         <v>0.72727272727272751</v>
       </c>
-      <c r="T18" s="6">
+      <c r="V18" s="6">
         <f t="shared" si="6"/>
         <v>-0.27272727272727249</v>
       </c>
-      <c r="U18" s="6">
+      <c r="W18" s="6">
         <f t="shared" si="7"/>
         <v>-0.27272727272727249</v>
       </c>
-      <c r="V18" s="6">
+      <c r="X18" s="6">
         <f t="shared" si="8"/>
         <v>-0.27272727272727249</v>
       </c>
-      <c r="W18" s="6">
+      <c r="Y18" s="6">
         <f t="shared" si="9"/>
         <v>-0.27272727272727249</v>
       </c>
-      <c r="X18" s="6">
+      <c r="Z18" s="6">
         <f t="shared" si="10"/>
         <v>0.72727272727272751</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="AA18" s="6">
         <f t="shared" si="11"/>
         <v>0.72727272727272751</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="AB18" s="6">
         <f t="shared" si="12"/>
         <v>0.72727272727272751</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -6563,57 +7041,65 @@
         <f t="shared" si="0"/>
         <v>5.6363636363636367</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="23">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="O19" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="P19" s="5">
         <f t="shared" si="1"/>
         <v>1.4937887931959075</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="6">
+      <c r="Q19" s="17"/>
+      <c r="R19" s="6">
         <f t="shared" si="2"/>
         <v>-0.63636363636363669</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="S19" s="6">
         <f t="shared" si="3"/>
         <v>-0.63636363636363669</v>
       </c>
-      <c r="R19" s="6">
+      <c r="T19" s="6">
         <f t="shared" si="4"/>
         <v>-0.63636363636363669</v>
       </c>
-      <c r="S19" s="6">
+      <c r="U19" s="6">
         <f t="shared" si="5"/>
         <v>1.3636363636363633</v>
       </c>
-      <c r="T19" s="6">
+      <c r="V19" s="6">
         <f t="shared" si="6"/>
         <v>1.3636363636363633</v>
       </c>
-      <c r="U19" s="6">
+      <c r="W19" s="6">
         <f t="shared" si="7"/>
         <v>-0.63636363636363669</v>
       </c>
-      <c r="V19" s="6">
+      <c r="X19" s="6">
         <f t="shared" si="8"/>
         <v>-0.63636363636363669</v>
       </c>
-      <c r="W19" s="6">
+      <c r="Y19" s="6">
         <f t="shared" si="9"/>
         <v>-2.6363636363636367</v>
       </c>
-      <c r="X19" s="6">
+      <c r="Z19" s="6">
         <f t="shared" si="10"/>
         <v>-0.63636363636363669</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="AA19" s="6">
         <f t="shared" si="11"/>
         <v>0.36363636363636331</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="AB19" s="6">
         <f t="shared" si="12"/>
         <v>3.3636363636363633</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -6654,57 +7140,65 @@
         <f t="shared" si="0"/>
         <v>5.3636363636363633</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="23">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O20" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="P20" s="5">
         <f t="shared" si="1"/>
         <v>1.2984415324623364</v>
       </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="6">
+      <c r="Q20" s="17"/>
+      <c r="R20" s="6">
         <f t="shared" si="2"/>
         <v>2.6363636363636367</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="S20" s="6">
         <f t="shared" si="3"/>
         <v>0.63636363636363669</v>
       </c>
-      <c r="R20" s="6">
+      <c r="T20" s="6">
         <f t="shared" si="4"/>
         <v>-1.3636363636363633</v>
       </c>
-      <c r="S20" s="6">
+      <c r="U20" s="6">
         <f t="shared" si="5"/>
         <v>0.63636363636363669</v>
       </c>
-      <c r="T20" s="6">
+      <c r="V20" s="6">
         <f t="shared" si="6"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="U20" s="6">
+      <c r="W20" s="6">
         <f t="shared" si="7"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="V20" s="6">
+      <c r="X20" s="6">
         <f t="shared" si="8"/>
         <v>-2.3636363636363633</v>
       </c>
-      <c r="W20" s="6">
+      <c r="Y20" s="6">
         <f t="shared" si="9"/>
         <v>1.6363636363636367</v>
       </c>
-      <c r="X20" s="6">
+      <c r="Z20" s="6">
         <f t="shared" si="10"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="AA20" s="6">
         <f t="shared" si="11"/>
         <v>-0.36363636363636331</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="AB20" s="6">
         <f t="shared" si="12"/>
         <v>-0.36363636363636331</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -6745,57 +7239,65 @@
         <f t="shared" si="0"/>
         <v>6.4545454545454541</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="23">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="O21" s="23">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="P21" s="5">
         <f t="shared" si="1"/>
         <v>0.49792959773196915</v>
       </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="6">
+      <c r="Q21" s="17"/>
+      <c r="R21" s="6">
         <f t="shared" si="2"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="S21" s="6">
         <f t="shared" si="3"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="R21" s="6">
+      <c r="T21" s="6">
         <f t="shared" si="4"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="S21" s="6">
+      <c r="U21" s="6">
         <f t="shared" si="5"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="T21" s="6">
+      <c r="V21" s="6">
         <f t="shared" si="6"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="U21" s="6">
+      <c r="W21" s="6">
         <f t="shared" si="7"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="V21" s="6">
+      <c r="X21" s="6">
         <f t="shared" si="8"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="W21" s="6">
+      <c r="Y21" s="6">
         <f t="shared" si="9"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="X21" s="6">
+      <c r="Z21" s="6">
         <f t="shared" si="10"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="AA21" s="6">
         <f t="shared" si="11"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="AB21" s="6">
         <f t="shared" si="12"/>
         <v>0.54545454545454586</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -6836,57 +7338,65 @@
         <f t="shared" si="0"/>
         <v>6.7272727272727275</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="23">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O22" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="P22" s="5">
         <f t="shared" si="1"/>
         <v>1.5427784316797402</v>
       </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="6">
+      <c r="Q22" s="17"/>
+      <c r="R22" s="6">
         <f t="shared" si="2"/>
         <v>1.2727272727272725</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="S22" s="6">
         <f t="shared" si="3"/>
         <v>-0.72727272727272751</v>
       </c>
-      <c r="R22" s="6">
+      <c r="T22" s="6">
         <f t="shared" si="4"/>
         <v>1.2727272727272725</v>
       </c>
-      <c r="S22" s="6">
+      <c r="U22" s="6">
         <f t="shared" si="5"/>
         <v>0.27272727272727249</v>
       </c>
-      <c r="T22" s="6">
+      <c r="V22" s="6">
         <f t="shared" si="6"/>
         <v>1.2727272727272725</v>
       </c>
-      <c r="U22" s="6">
+      <c r="W22" s="6">
         <f t="shared" si="7"/>
         <v>1.2727272727272725</v>
       </c>
-      <c r="V22" s="6">
+      <c r="X22" s="6">
         <f t="shared" si="8"/>
         <v>-0.72727272727272751</v>
       </c>
-      <c r="W22" s="6">
+      <c r="Y22" s="6">
         <f t="shared" si="9"/>
         <v>0.27272727272727249</v>
       </c>
-      <c r="X22" s="6">
+      <c r="Z22" s="6">
         <f t="shared" si="10"/>
         <v>1.2727272727272725</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="AA22" s="6">
         <f t="shared" si="11"/>
         <v>-1.7272727272727275</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="AB22" s="6">
         <f t="shared" si="12"/>
         <v>-3.7272727272727275</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -6927,57 +7437,65 @@
         <f t="shared" si="0"/>
         <v>7.4545454545454541</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="23">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="O23" s="23">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="P23" s="5">
         <f t="shared" si="1"/>
         <v>1.0756508696544755</v>
       </c>
-      <c r="O23" s="17"/>
-      <c r="P23" s="6">
+      <c r="Q23" s="17"/>
+      <c r="R23" s="6">
         <f t="shared" si="2"/>
         <v>1.5454545454545459</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="S23" s="6">
         <f t="shared" si="3"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="R23" s="6">
+      <c r="T23" s="6">
         <f t="shared" si="4"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="S23" s="6">
+      <c r="U23" s="6">
         <f t="shared" si="5"/>
         <v>-1.4545454545454541</v>
       </c>
-      <c r="T23" s="6">
+      <c r="V23" s="6">
         <f t="shared" si="6"/>
         <v>1.5454545454545459</v>
       </c>
-      <c r="U23" s="6">
+      <c r="W23" s="6">
         <f t="shared" si="7"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="V23" s="6">
+      <c r="X23" s="6">
         <f t="shared" si="8"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="W23" s="6">
+      <c r="Y23" s="6">
         <f t="shared" si="9"/>
         <v>0.54545454545454586</v>
       </c>
-      <c r="X23" s="6">
+      <c r="Z23" s="6">
         <f t="shared" si="10"/>
         <v>-0.45454545454545414</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="AA23" s="6">
         <f t="shared" si="11"/>
         <v>-1.4545454545454541</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="AB23" s="6">
         <f t="shared" si="12"/>
         <v>-1.4545454545454541</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -7018,57 +7536,65 @@
         <f t="shared" si="0"/>
         <v>6.5454545454545459</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="23">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O24" s="23">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="P24" s="5">
         <f t="shared" si="1"/>
         <v>0.7820295697311479</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="6">
+      <c r="Q24" s="17"/>
+      <c r="R24" s="6">
         <f t="shared" si="2"/>
         <v>0.45454545454545414</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="S24" s="6">
         <f t="shared" si="3"/>
         <v>-0.54545454545454586</v>
       </c>
-      <c r="R24" s="6">
+      <c r="T24" s="6">
         <f t="shared" si="4"/>
         <v>0.45454545454545414</v>
       </c>
-      <c r="S24" s="6">
+      <c r="U24" s="6">
         <f t="shared" si="5"/>
         <v>0.45454545454545414</v>
       </c>
-      <c r="T24" s="6">
+      <c r="V24" s="6">
         <f t="shared" si="6"/>
         <v>-0.54545454545454586</v>
       </c>
-      <c r="U24" s="6">
+      <c r="W24" s="6">
         <f t="shared" si="7"/>
         <v>-0.54545454545454586</v>
       </c>
-      <c r="V24" s="6">
+      <c r="X24" s="6">
         <f t="shared" si="8"/>
         <v>0.45454545454545414</v>
       </c>
-      <c r="W24" s="6">
+      <c r="Y24" s="6">
         <f t="shared" si="9"/>
         <v>0.45454545454545414</v>
       </c>
-      <c r="X24" s="6">
+      <c r="Z24" s="6">
         <f t="shared" si="10"/>
         <v>-0.54545454545454586</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="AA24" s="6">
         <f t="shared" si="11"/>
         <v>1.4545454545454541</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="AB24" s="6">
         <f t="shared" si="12"/>
         <v>-1.5454545454545459</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -7109,159 +7635,175 @@
         <f t="shared" si="0"/>
         <v>5.0909090909090908</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="23">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="O25" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="P25" s="5">
         <f t="shared" si="1"/>
         <v>0.79252708064375887</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="6">
+      <c r="Q25" s="17"/>
+      <c r="R25" s="6">
         <f t="shared" si="2"/>
         <v>-9.0909090909090828E-2</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="S25" s="6">
         <f t="shared" si="3"/>
         <v>-9.0909090909090828E-2</v>
       </c>
-      <c r="R25" s="6">
+      <c r="T25" s="6">
         <f t="shared" si="4"/>
         <v>0.90909090909090917</v>
       </c>
-      <c r="S25" s="6">
+      <c r="U25" s="6">
         <f t="shared" si="5"/>
         <v>-9.0909090909090828E-2</v>
       </c>
-      <c r="T25" s="6">
+      <c r="V25" s="6">
         <f t="shared" si="6"/>
         <v>-9.0909090909090828E-2</v>
       </c>
-      <c r="U25" s="6">
+      <c r="W25" s="6">
         <f t="shared" si="7"/>
         <v>-9.0909090909090828E-2</v>
       </c>
-      <c r="V25" s="6">
+      <c r="X25" s="6">
         <f t="shared" si="8"/>
         <v>-9.0909090909090828E-2</v>
       </c>
-      <c r="W25" s="6">
+      <c r="Y25" s="6">
         <f t="shared" si="9"/>
         <v>0.90909090909090917</v>
       </c>
-      <c r="X25" s="6">
+      <c r="Z25" s="6">
         <f t="shared" si="10"/>
         <v>-2.0909090909090908</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="AA25" s="6">
         <f t="shared" si="11"/>
         <v>-9.0909090909090828E-2</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AB25" s="6">
         <f t="shared" si="12"/>
         <v>0.90909090909090917</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="6">
-        <f t="shared" ref="B26:L26" si="13">AVERAGE(B3:B25)</f>
+        <f t="shared" ref="B26:L26" si="15">AVERAGE(B3:B25)</f>
         <v>5.5217391304347823</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.4782608695652177</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.4347826086956523</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.4347826086956523</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.3913043478260869</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.3478260869565215</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.2608695652173916</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.2608695652173916</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.2173913043478262</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.2173913043478262</v>
       </c>
       <c r="L26" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0869565217391308</v>
       </c>
       <c r="M26" s="5">
         <f>AVERAGE(B3:L25)</f>
         <v>5.3320158102766797</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="23">
+        <f t="shared" si="13"/>
+        <v>5.5217391304347823</v>
+      </c>
+      <c r="O26" s="23">
+        <f>MIN(C26:M26)</f>
+        <v>5.0869565217391308</v>
+      </c>
+      <c r="P26" s="5">
         <f t="shared" si="1"/>
         <v>0.1274665256647991</v>
       </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="6">
+      <c r="Q26" s="17"/>
+      <c r="R26" s="6">
         <f t="shared" si="2"/>
         <v>0.18972332015810256</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="S26" s="6">
         <f t="shared" si="3"/>
         <v>0.14624505928853804</v>
       </c>
-      <c r="R26" s="6">
+      <c r="T26" s="6">
         <f t="shared" si="4"/>
         <v>0.10276679841897263</v>
       </c>
-      <c r="S26" s="6">
+      <c r="U26" s="6">
         <f t="shared" si="5"/>
         <v>0.10276679841897263</v>
       </c>
-      <c r="T26" s="6">
+      <c r="V26" s="6">
         <f t="shared" si="6"/>
         <v>5.9288537549407216E-2</v>
       </c>
-      <c r="U26" s="6">
+      <c r="W26" s="6">
         <f t="shared" si="7"/>
         <v>1.5810276679841806E-2</v>
       </c>
-      <c r="V26" s="6">
+      <c r="X26" s="6">
         <f t="shared" si="8"/>
         <v>-7.1146245059288127E-2</v>
       </c>
-      <c r="W26" s="6">
+      <c r="Y26" s="6">
         <f t="shared" si="9"/>
         <v>-7.1146245059288127E-2</v>
       </c>
-      <c r="X26" s="6">
+      <c r="Z26" s="6">
         <f t="shared" si="10"/>
         <v>-0.11462450592885354</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="AA26" s="6">
         <f t="shared" si="11"/>
         <v>-0.11462450592885354</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AB26" s="6">
         <f t="shared" si="12"/>
         <v>-0.24505928853754888</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -7269,7 +7811,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2"/>
@@ -7278,7 +7820,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -7287,7 +7829,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -7297,7 +7839,7 @@
       <c r="H30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -7307,7 +7849,7 @@
       <c r="H31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -7368,6 +7910,7 @@
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -7377,6 +7920,7 @@
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -7419,13 +7963,21 @@
       <c r="M50" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z2"/>
+  <autoFilter ref="A2:AB2"/>
   <mergeCells count="2">
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="R1:AB1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:M25">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="R3:AB26">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:O26">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7434,38 +7986,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:M26">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:L25">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:Z26">
-    <cfRule type="cellIs" dxfId="93" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="4" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7494,7 +8014,7 @@
       <c r="C1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
@@ -7503,7 +8023,7 @@
       <c r="B2" s="13">
         <v>2</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <f>B2/SUM($B$2:$B$10)</f>
         <v>7.9051383399209481E-3</v>
       </c>
@@ -7515,7 +8035,7 @@
       <c r="B3" s="13">
         <v>11</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <f t="shared" ref="C3:C10" si="0">B3/SUM($B$2:$B$10)</f>
         <v>4.3478260869565216E-2</v>
       </c>
@@ -7527,7 +8047,7 @@
       <c r="B4" s="13">
         <v>31</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <f t="shared" si="0"/>
         <v>0.1225296442687747</v>
       </c>
@@ -7539,7 +8059,7 @@
       <c r="B5" s="13">
         <v>39</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>0.1541501976284585</v>
       </c>
@@ -7551,7 +8071,7 @@
       <c r="B6" s="13">
         <v>45</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>0.17786561264822134</v>
       </c>
@@ -7563,7 +8083,7 @@
       <c r="B7" s="13">
         <v>58</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
         <v>0.22924901185770752</v>
       </c>
@@ -7575,7 +8095,7 @@
       <c r="B8" s="13">
         <v>38</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
         <v>0.15019762845849802</v>
       </c>
@@ -7587,7 +8107,7 @@
       <c r="B9" s="13">
         <v>24</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>9.4861660079051377E-2</v>
       </c>
@@ -7599,7 +8119,7 @@
       <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
         <v>1.9762845849802372E-2</v>
       </c>
@@ -7627,13 +8147,885 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="26" max="26" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+    </row>
+    <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>6</v>
+      </c>
+      <c r="H3" s="7">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7">
+        <v>10</v>
+      </c>
+      <c r="L3" s="7">
+        <v>11</v>
+      </c>
+      <c r="M3" s="7">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7">
+        <v>13</v>
+      </c>
+      <c r="O3" s="7">
+        <v>14</v>
+      </c>
+      <c r="P3" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>16</v>
+      </c>
+      <c r="R3" s="7">
+        <v>17</v>
+      </c>
+      <c r="S3" s="7">
+        <v>18</v>
+      </c>
+      <c r="T3" s="7">
+        <v>19</v>
+      </c>
+      <c r="U3" s="7">
+        <v>20</v>
+      </c>
+      <c r="V3" s="7">
+        <v>21</v>
+      </c>
+      <c r="W3" s="7">
+        <v>22</v>
+      </c>
+      <c r="X3" s="7">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
+        <v>2</v>
+      </c>
+      <c r="N4" s="25">
+        <v>0</v>
+      </c>
+      <c r="O4" s="25">
+        <v>0</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>0</v>
+      </c>
+      <c r="R4" s="25">
+        <v>0</v>
+      </c>
+      <c r="S4" s="25">
+        <v>0</v>
+      </c>
+      <c r="T4" s="25">
+        <v>0</v>
+      </c>
+      <c r="U4" s="25">
+        <v>0</v>
+      </c>
+      <c r="V4" s="25">
+        <v>0</v>
+      </c>
+      <c r="W4" s="25">
+        <v>0</v>
+      </c>
+      <c r="X4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>2</v>
+      </c>
+      <c r="M5" s="25">
+        <v>2</v>
+      </c>
+      <c r="N5" s="25">
+        <v>5</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25">
+        <v>0</v>
+      </c>
+      <c r="S5" s="25">
+        <v>0</v>
+      </c>
+      <c r="T5" s="25">
+        <v>0</v>
+      </c>
+      <c r="U5" s="25">
+        <v>0</v>
+      </c>
+      <c r="V5" s="25">
+        <v>0</v>
+      </c>
+      <c r="W5" s="25">
+        <v>0</v>
+      </c>
+      <c r="X5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>5</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>2</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>1</v>
+      </c>
+      <c r="M6" s="25">
+        <v>5</v>
+      </c>
+      <c r="N6" s="25">
+        <v>6</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25">
+        <v>1</v>
+      </c>
+      <c r="S6" s="25">
+        <v>1</v>
+      </c>
+      <c r="T6" s="25">
+        <v>0</v>
+      </c>
+      <c r="U6" s="25">
+        <v>1</v>
+      </c>
+      <c r="V6" s="25">
+        <v>0</v>
+      </c>
+      <c r="W6" s="25">
+        <v>0</v>
+      </c>
+      <c r="X6" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25">
+        <v>4</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>7</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>2</v>
+      </c>
+      <c r="H7" s="25">
+        <v>6</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25">
+        <v>6</v>
+      </c>
+      <c r="K7" s="25">
+        <v>1</v>
+      </c>
+      <c r="L7" s="25">
+        <v>6</v>
+      </c>
+      <c r="M7" s="25">
+        <v>1</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>0</v>
+      </c>
+      <c r="R7" s="25">
+        <v>0</v>
+      </c>
+      <c r="S7" s="25">
+        <v>1</v>
+      </c>
+      <c r="T7" s="25">
+        <v>0</v>
+      </c>
+      <c r="U7" s="25">
+        <v>0</v>
+      </c>
+      <c r="V7" s="25">
+        <v>0</v>
+      </c>
+      <c r="W7" s="25">
+        <v>0</v>
+      </c>
+      <c r="X7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25">
+        <v>4</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <v>2</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <v>4</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
+        <v>6</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1</v>
+      </c>
+      <c r="K8" s="25">
+        <v>1</v>
+      </c>
+      <c r="L8" s="25">
+        <v>2</v>
+      </c>
+      <c r="M8" s="25">
+        <v>1</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25">
+        <v>1</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>1</v>
+      </c>
+      <c r="R8" s="25">
+        <v>6</v>
+      </c>
+      <c r="S8" s="25">
+        <v>5</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0</v>
+      </c>
+      <c r="U8" s="25">
+        <v>1</v>
+      </c>
+      <c r="V8" s="25">
+        <v>0</v>
+      </c>
+      <c r="W8" s="25">
+        <v>1</v>
+      </c>
+      <c r="X8" s="25">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25">
+        <v>2</v>
+      </c>
+      <c r="E9" s="25">
+        <v>4</v>
+      </c>
+      <c r="F9" s="25">
+        <v>4</v>
+      </c>
+      <c r="G9" s="25">
+        <v>4</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>4</v>
+      </c>
+      <c r="J9" s="25">
+        <v>1</v>
+      </c>
+      <c r="K9" s="25">
+        <v>4</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0</v>
+      </c>
+      <c r="O9" s="25">
+        <v>6</v>
+      </c>
+      <c r="P9" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>6</v>
+      </c>
+      <c r="R9" s="25">
+        <v>1</v>
+      </c>
+      <c r="S9" s="25">
+        <v>2</v>
+      </c>
+      <c r="T9" s="25">
+        <v>6</v>
+      </c>
+      <c r="U9" s="25">
+        <v>2</v>
+      </c>
+      <c r="V9" s="25">
+        <v>3</v>
+      </c>
+      <c r="W9" s="25">
+        <v>4</v>
+      </c>
+      <c r="X9" s="25">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25">
+        <v>3</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>6</v>
+      </c>
+      <c r="F10" s="25">
+        <v>2</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0</v>
+      </c>
+      <c r="K10" s="25">
+        <v>3</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0</v>
+      </c>
+      <c r="O10" s="25">
+        <v>3</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>4</v>
+      </c>
+      <c r="R10" s="25">
+        <v>2</v>
+      </c>
+      <c r="S10" s="25">
+        <v>1</v>
+      </c>
+      <c r="T10" s="25">
+        <v>5</v>
+      </c>
+      <c r="U10" s="25">
+        <v>2</v>
+      </c>
+      <c r="V10" s="25">
+        <v>2</v>
+      </c>
+      <c r="W10" s="25">
+        <v>5</v>
+      </c>
+      <c r="X10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25">
+        <v>5</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>4</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="25">
+        <v>2</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
+        <v>1</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="25">
+        <v>1</v>
+      </c>
+      <c r="T11" s="25">
+        <v>0</v>
+      </c>
+      <c r="U11" s="25">
+        <v>5</v>
+      </c>
+      <c r="V11" s="25">
+        <v>4</v>
+      </c>
+      <c r="W11" s="25">
+        <v>1</v>
+      </c>
+      <c r="X11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>9</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>1</v>
+      </c>
+      <c r="S12" s="25">
+        <v>0</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0</v>
+      </c>
+      <c r="U12" s="25">
+        <v>0</v>
+      </c>
+      <c r="V12" s="25">
+        <v>2</v>
+      </c>
+      <c r="W12" s="25">
+        <v>0</v>
+      </c>
+      <c r="X12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="32">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:Z3"/>
+  <sortState ref="A2:A10">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="B1:X1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:X12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7644,19 +9036,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -7748,7 +9140,7 @@
         <f t="shared" ref="M3:M24" si="0">AVERAGE(B3:L3)</f>
         <v>4</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="20">
         <v>1</v>
       </c>
     </row>
@@ -7804,7 +9196,7 @@
         <f t="shared" si="0"/>
         <v>11.727272727272727</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="20">
         <v>2</v>
       </c>
     </row>
@@ -7860,7 +9252,7 @@
         <f t="shared" si="0"/>
         <v>16.272727272727273</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <v>3</v>
       </c>
     </row>
@@ -7916,7 +9308,7 @@
         <f t="shared" si="0"/>
         <v>22.727272727272727</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <v>4</v>
       </c>
     </row>
@@ -7972,7 +9364,7 @@
         <f t="shared" si="0"/>
         <v>29.545454545454547</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="20">
         <v>5</v>
       </c>
     </row>
@@ -8028,7 +9420,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <v>6</v>
       </c>
     </row>
@@ -8084,7 +9476,7 @@
         <f t="shared" si="0"/>
         <v>38.545454545454547</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="20">
         <v>7</v>
       </c>
     </row>
@@ -8140,7 +9532,7 @@
         <f t="shared" si="0"/>
         <v>43.81818181818182</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="20">
         <v>8</v>
       </c>
     </row>
@@ -8196,7 +9588,7 @@
         <f t="shared" si="0"/>
         <v>47.727272727272727</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <v>9</v>
       </c>
     </row>
@@ -8252,7 +9644,7 @@
         <f t="shared" si="0"/>
         <v>54.090909090909093</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <v>10</v>
       </c>
     </row>
@@ -8308,7 +9700,7 @@
         <f t="shared" si="0"/>
         <v>57.81818181818182</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="20">
         <v>11</v>
       </c>
     </row>
@@ -8364,7 +9756,7 @@
         <f t="shared" si="0"/>
         <v>60.545454545454547</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="20">
         <v>12</v>
       </c>
     </row>
@@ -8420,7 +9812,7 @@
         <f t="shared" si="0"/>
         <v>63.090909090909093</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="20">
         <v>13</v>
       </c>
     </row>
@@ -8476,7 +9868,7 @@
         <f t="shared" si="0"/>
         <v>69.454545454545453</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="20">
         <v>14</v>
       </c>
     </row>
@@ -8532,7 +9924,7 @@
         <f t="shared" si="0"/>
         <v>73.090909090909093</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="20">
         <v>15</v>
       </c>
     </row>
@@ -8588,7 +9980,7 @@
         <f t="shared" si="0"/>
         <v>79.36363636363636</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="20">
         <v>16</v>
       </c>
     </row>
@@ -8644,7 +10036,7 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="20">
         <v>17</v>
       </c>
     </row>
@@ -8700,7 +10092,7 @@
         <f t="shared" si="0"/>
         <v>90.36363636363636</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="20">
         <v>18</v>
       </c>
     </row>
@@ -8756,7 +10148,7 @@
         <f t="shared" si="0"/>
         <v>96.818181818181813</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="20">
         <v>19</v>
       </c>
     </row>
@@ -8812,7 +10204,7 @@
         <f t="shared" si="0"/>
         <v>103.54545454545455</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="20">
         <v>20</v>
       </c>
     </row>
@@ -8868,7 +10260,7 @@
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="20">
         <v>21</v>
       </c>
     </row>
@@ -8924,7 +10316,7 @@
         <f t="shared" si="0"/>
         <v>117.54545454545455</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="20">
         <v>22</v>
       </c>
     </row>
@@ -8980,7 +10372,7 @@
         <f>AVERAGE(I25:L25)</f>
         <v>119.5</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="20">
         <v>23</v>
       </c>
     </row>
@@ -8989,103 +10381,103 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:L3">
-    <cfRule type="top10" dxfId="91" priority="45" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="90" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="92" priority="45" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="91" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:L4">
-    <cfRule type="top10" dxfId="89" priority="43" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="88" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="90" priority="43" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="89" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:L5">
-    <cfRule type="top10" dxfId="87" priority="41" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="86" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="88" priority="41" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="87" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:L6">
-    <cfRule type="top10" dxfId="85" priority="39" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="84" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="86" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="85" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:L7">
-    <cfRule type="top10" dxfId="83" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="82" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="84" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="83" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:L8">
-    <cfRule type="top10" dxfId="81" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="80" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:L9">
-    <cfRule type="top10" dxfId="79" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="78" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="79" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:L10">
-    <cfRule type="top10" dxfId="77" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="76" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="77" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:L11">
-    <cfRule type="top10" dxfId="75" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="74" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="76" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="75" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L12">
-    <cfRule type="top10" dxfId="73" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="72" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="74" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="73" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13">
-    <cfRule type="top10" dxfId="71" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="70" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="71" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:L14">
-    <cfRule type="top10" dxfId="69" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="68" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:L15">
-    <cfRule type="top10" dxfId="67" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="66" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="67" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:L16">
-    <cfRule type="top10" dxfId="65" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="64" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:L17">
-    <cfRule type="top10" dxfId="63" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="62" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L18">
-    <cfRule type="top10" dxfId="61" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="60" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="61" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L19">
-    <cfRule type="top10" dxfId="59" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="58" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:L20">
-    <cfRule type="top10" dxfId="57" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="56" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L21">
-    <cfRule type="top10" dxfId="55" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="54" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:L22">
-    <cfRule type="top10" dxfId="53" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="52" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:L23">
-    <cfRule type="top10" dxfId="51" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="50" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:L24">
-    <cfRule type="top10" dxfId="49" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="48" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:L25">
-    <cfRule type="top10" dxfId="47" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="46" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -9105,19 +10497,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -10381,102 +11773,102 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:L3">
-    <cfRule type="aboveAverage" dxfId="45" priority="45" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="44" priority="46"/>
+    <cfRule type="aboveAverage" dxfId="46" priority="45" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="45" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:L4">
-    <cfRule type="aboveAverage" dxfId="43" priority="43" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="42" priority="44"/>
+    <cfRule type="aboveAverage" dxfId="44" priority="43" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="43" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:L5">
-    <cfRule type="aboveAverage" dxfId="41" priority="41" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="40" priority="42"/>
+    <cfRule type="aboveAverage" dxfId="42" priority="41" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="41" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:L6">
-    <cfRule type="aboveAverage" dxfId="39" priority="39" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="38" priority="40"/>
+    <cfRule type="aboveAverage" dxfId="40" priority="39" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="39" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:L7">
-    <cfRule type="aboveAverage" dxfId="37" priority="37" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="36" priority="38"/>
+    <cfRule type="aboveAverage" dxfId="38" priority="37" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="37" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:L8">
-    <cfRule type="aboveAverage" dxfId="35" priority="35" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="34" priority="36"/>
+    <cfRule type="aboveAverage" dxfId="36" priority="35" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="35" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:L9">
-    <cfRule type="aboveAverage" dxfId="33" priority="33" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="32" priority="34"/>
+    <cfRule type="aboveAverage" dxfId="34" priority="33" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="33" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:L10">
-    <cfRule type="aboveAverage" dxfId="31" priority="31" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="30" priority="32"/>
+    <cfRule type="aboveAverage" dxfId="32" priority="31" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="31" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:L11">
-    <cfRule type="aboveAverage" dxfId="29" priority="29" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="28" priority="30"/>
+    <cfRule type="aboveAverage" dxfId="30" priority="29" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="29" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L12">
-    <cfRule type="aboveAverage" dxfId="27" priority="27" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="26" priority="28"/>
+    <cfRule type="aboveAverage" dxfId="28" priority="27" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="27" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13">
-    <cfRule type="aboveAverage" dxfId="25" priority="25" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="24" priority="26"/>
+    <cfRule type="aboveAverage" dxfId="26" priority="25" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:L14">
-    <cfRule type="aboveAverage" dxfId="23" priority="23" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="22" priority="24"/>
+    <cfRule type="aboveAverage" dxfId="24" priority="23" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:L15">
-    <cfRule type="aboveAverage" dxfId="21" priority="21" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="20" priority="22"/>
+    <cfRule type="aboveAverage" dxfId="22" priority="21" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:L16">
-    <cfRule type="aboveAverage" dxfId="19" priority="19" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="18" priority="20"/>
+    <cfRule type="aboveAverage" dxfId="20" priority="19" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:L17">
-    <cfRule type="aboveAverage" dxfId="17" priority="17" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="16" priority="18"/>
+    <cfRule type="aboveAverage" dxfId="18" priority="17" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L18">
-    <cfRule type="aboveAverage" dxfId="15" priority="15" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="14" priority="16"/>
+    <cfRule type="aboveAverage" dxfId="16" priority="15" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L19">
-    <cfRule type="aboveAverage" dxfId="13" priority="13" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="12" priority="14"/>
+    <cfRule type="aboveAverage" dxfId="14" priority="13" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:L20">
-    <cfRule type="aboveAverage" dxfId="11" priority="11" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="10" priority="12"/>
+    <cfRule type="aboveAverage" dxfId="12" priority="11" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L21">
-    <cfRule type="aboveAverage" dxfId="9" priority="9" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="8" priority="10"/>
+    <cfRule type="aboveAverage" dxfId="10" priority="9" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:L22">
-    <cfRule type="aboveAverage" dxfId="7" priority="7" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="6" priority="8"/>
+    <cfRule type="aboveAverage" dxfId="8" priority="7" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:L23">
-    <cfRule type="aboveAverage" dxfId="5" priority="5" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="4" priority="6"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="5" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:L24">
-    <cfRule type="aboveAverage" dxfId="3" priority="3" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="2" priority="4"/>
+    <cfRule type="aboveAverage" dxfId="4" priority="3" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:L25">
-    <cfRule type="aboveAverage" dxfId="1" priority="1" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="0" priority="2"/>
+    <cfRule type="aboveAverage" dxfId="2" priority="1" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10492,7 +11884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10505,7 +11897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>

--- a/Footy Tipping 2017_friends.xlsx
+++ b/Footy Tipping 2017_friends.xlsx
@@ -14,19 +14,37 @@
     <sheet name="Cumulative Scores (Average)" sheetId="15" r:id="rId5"/>
     <sheet name="Chart 1" sheetId="16" r:id="rId6"/>
     <sheet name="Chart 2" sheetId="3" r:id="rId7"/>
-    <sheet name="Data" sheetId="4" r:id="rId8"/>
+    <sheet name="Chart 3" sheetId="20" r:id="rId8"/>
+    <sheet name="Data" sheetId="4" r:id="rId9"/>
+    <sheet name="Data PIVOT" sheetId="19" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Data!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Data!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Data PIVOT'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Round Score Frequency Table'!$A$3:$Z$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Round Scores'!$A$2:$AB$2</definedName>
+    <definedName name="Slicer_Tipper">#N/A</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId11"/>
+  </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId12"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="58">
   <si>
     <t>Round 1</t>
   </si>
@@ -182,6 +200,24 @@
   </si>
   <si>
     <t>Re-Sort (Smallest to Largest)</t>
+  </si>
+  <si>
+    <t>Tipper</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Round Score</t>
+  </si>
+  <si>
+    <t>Average Score</t>
+  </si>
+  <si>
+    <t>Choose Tipper</t>
   </si>
 </sst>
 </file>
@@ -733,7 +769,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,12 +815,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,9 +825,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,6 +838,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -859,17 +909,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="99">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="95">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1792,41 +1832,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2014,11 +2024,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148005248"/>
-        <c:axId val="148007168"/>
+        <c:axId val="144186752"/>
+        <c:axId val="144221696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148005248"/>
+        <c:axId val="144186752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148007168"/>
+        <c:crossAx val="144221696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2055,7 +2065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148007168"/>
+        <c:axId val="144221696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +2094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148005248"/>
+        <c:crossAx val="144186752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2475,11 +2485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202794112"/>
-        <c:axId val="202796416"/>
+        <c:axId val="206598528"/>
+        <c:axId val="206600832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202794112"/>
+        <c:axId val="206598528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202796416"/>
+        <c:crossAx val="206600832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2546,7 +2556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202796416"/>
+        <c:axId val="206600832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -2584,7 +2594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202794112"/>
+        <c:crossAx val="206598528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4671,11 +4681,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203010432"/>
-        <c:axId val="203012352"/>
+        <c:axId val="209067392"/>
+        <c:axId val="209085952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203010432"/>
+        <c:axId val="209067392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4735,7 +4745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203012352"/>
+        <c:crossAx val="209085952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4743,7 +4753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203012352"/>
+        <c:axId val="209085952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4780,7 +4790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203010432"/>
+        <c:crossAx val="209067392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4811,6 +4821,539 @@
       </a:solidFill>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Individual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Tipping Scores vs Average</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart 3'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score: Bob Arnold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="38100"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Chart 3'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart 3'!$D$5:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart 3'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="38100"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Chart 3'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart 3'!$E$5:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7272727272727275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6363636363636362</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7272727272727275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0909090909090908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="199329280"/>
+        <c:axId val="209098240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="199329280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209098240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="209098240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199329280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4996,6 +5539,1620 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Tipper"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Tipper"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3019425" y="190500"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers can be used in at least Excel 2010.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Turner, Alex" refreshedDate="43148.560153935185" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="253">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C254" sheet="Data PIVOT"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Tipper" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Bob Arnold"/>
+        <s v="DAN"/>
+        <s v="Master Chief"/>
+        <s v="mcdonald-TIPungwuti"/>
+        <s v="Tim Kennedy"/>
+        <s v="#notmyhawks"/>
+        <s v="Hetti"/>
+        <s v="Hcp"/>
+        <s v="Deesaremypicks"/>
+        <s v="gracenovak"/>
+        <s v="Jordane"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Round" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="23" count="23">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="2"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="253">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="12"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="13"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="14"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="15"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="16"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="17"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="18"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="19"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="20"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="21"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="22"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="11"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="13"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="14"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="15"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="16"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="17"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="18"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="19"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="20"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="21"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="22"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="9"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="12"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="13"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="15"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="17"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="18"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="19"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="20"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="21"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="22"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="9"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="11"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="14"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="15"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="17"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="18"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="19"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="20"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="21"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="22"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="9"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="11"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="12"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="13"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="14"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="15"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="16"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="17"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="18"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="19"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="20"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="21"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="22"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="7"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="11"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="13"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="14"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="15"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="17"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="18"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="19"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="20"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="21"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="22"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="10"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="11"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="12"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="14"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="15"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="16"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="17"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="18"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="19"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="20"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="21"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="22"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="7"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="9"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="12"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="13"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="14"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="15"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="16"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="17"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="18"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="19"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="20"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="21"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="22"/>
+    <n v="6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="24">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="25">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Round Score" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Tipper" sourceName="Tipper">
+  <pivotTables>
+    <pivotTable tabId="20" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2">
+      <items count="11">
+        <i x="5"/>
+        <i x="0" s="1"/>
+        <i x="1"/>
+        <i x="8"/>
+        <i x="9"/>
+        <i x="7"/>
+        <i x="6"/>
+        <i x="10"/>
+        <i x="2"/>
+        <i x="3"/>
+        <i x="4"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Tipper" cache="Slicer_Tipper" caption="Tipper" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5305,36 +7462,36 @@
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="R1" s="22" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="R1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -5370,16 +7527,16 @@
       <c r="L2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="22" t="s">
         <v>38</v>
       </c>
       <c r="R2" s="8" t="s">
@@ -5457,11 +7614,11 @@
         <f t="shared" ref="M3:M25" si="0">AVERAGE(B3:L3)</f>
         <v>4</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="21">
         <f>MAX(B3:L3)</f>
         <v>5</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="21">
         <f>MIN(C3:M3)</f>
         <v>2</v>
       </c>
@@ -5556,11 +7713,11 @@
         <f t="shared" si="0"/>
         <v>7.7272727272727275</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="21">
         <f t="shared" ref="N4:N26" si="13">MAX(B4:L4)</f>
         <v>9</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="21">
         <f t="shared" ref="O4:O25" si="14">MIN(C4:M4)</f>
         <v>6</v>
       </c>
@@ -5655,11 +7812,11 @@
         <f t="shared" si="0"/>
         <v>4.5454545454545459</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="21">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="21">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
@@ -5754,11 +7911,11 @@
         <f t="shared" si="0"/>
         <v>6.4545454545454541</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="21">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="21">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
@@ -5853,11 +8010,11 @@
         <f t="shared" si="0"/>
         <v>6.8181818181818183</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="21">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="21">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
@@ -5952,11 +8109,11 @@
         <f t="shared" si="0"/>
         <v>5.4545454545454541</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="21">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="21">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
@@ -6051,11 +8208,11 @@
         <f t="shared" si="0"/>
         <v>3.5454545454545454</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="21">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="21">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
@@ -6150,11 +8307,11 @@
         <f t="shared" si="0"/>
         <v>5.2727272727272725</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="21">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="21">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
@@ -6249,11 +8406,11 @@
         <f t="shared" si="0"/>
         <v>3.9090909090909092</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="21">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="21">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
@@ -6348,11 +8505,11 @@
         <f t="shared" si="0"/>
         <v>6.3636363636363633</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="21">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="21">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
@@ -6447,11 +8604,11 @@
         <f t="shared" si="0"/>
         <v>3.7272727272727271</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="21">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="21">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
@@ -6546,11 +8703,11 @@
         <f t="shared" si="0"/>
         <v>2.7272727272727271</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="21">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="21">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -6645,11 +8802,11 @@
         <f t="shared" si="0"/>
         <v>2.5454545454545454</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="21">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="21">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
@@ -6744,11 +8901,11 @@
         <f t="shared" si="0"/>
         <v>6.3636363636363633</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="21">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="21">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
@@ -6843,11 +9000,11 @@
         <f t="shared" si="0"/>
         <v>3.6363636363636362</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="21">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="21">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
@@ -6942,11 +9099,11 @@
         <f t="shared" si="0"/>
         <v>6.2727272727272725</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="21">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="21">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
@@ -7041,11 +9198,11 @@
         <f t="shared" si="0"/>
         <v>5.6363636363636367</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="21">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="21">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
@@ -7140,11 +9297,11 @@
         <f t="shared" si="0"/>
         <v>5.3636363636363633</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="21">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="21">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
@@ -7239,11 +9396,11 @@
         <f t="shared" si="0"/>
         <v>6.4545454545454541</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="21">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="21">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
@@ -7338,11 +9495,11 @@
         <f t="shared" si="0"/>
         <v>6.7272727272727275</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="21">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="21">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
@@ -7437,11 +9594,11 @@
         <f t="shared" si="0"/>
         <v>7.4545454545454541</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="21">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="21">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
@@ -7536,11 +9693,11 @@
         <f t="shared" si="0"/>
         <v>6.5454545454545459</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="21">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="21">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
@@ -7635,11 +9792,11 @@
         <f t="shared" si="0"/>
         <v>5.0909090909090908</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="21">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="21">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
@@ -7745,11 +9902,11 @@
         <f>AVERAGE(B3:L25)</f>
         <v>5.3320158102766797</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="21">
         <f t="shared" si="13"/>
         <v>5.5217391304347823</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="21">
         <f>MIN(C26:M26)</f>
         <v>5.0869565217391308</v>
       </c>
@@ -7990,6 +10147,2819 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:C254"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="2">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="2">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="2">
+        <v>18</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="2">
+        <v>20</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2">
+        <v>21</v>
+      </c>
+      <c r="C45" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="2">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="2">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="2">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="2">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="2">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="2">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="2">
+        <v>11</v>
+      </c>
+      <c r="C58" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="2">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="2">
+        <v>13</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="2">
+        <v>14</v>
+      </c>
+      <c r="C61" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="2">
+        <v>15</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="2">
+        <v>16</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="2">
+        <v>17</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="2">
+        <v>18</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="2">
+        <v>19</v>
+      </c>
+      <c r="C66" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="2">
+        <v>20</v>
+      </c>
+      <c r="C67" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="2">
+        <v>21</v>
+      </c>
+      <c r="C68" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="2">
+        <v>22</v>
+      </c>
+      <c r="C69" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="2">
+        <v>23</v>
+      </c>
+      <c r="C70" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2</v>
+      </c>
+      <c r="C72" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="2">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="2">
+        <v>5</v>
+      </c>
+      <c r="C75" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="2">
+        <v>6</v>
+      </c>
+      <c r="C76" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="2">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="2">
+        <v>8</v>
+      </c>
+      <c r="C78" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="2">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="2">
+        <v>10</v>
+      </c>
+      <c r="C80" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="2">
+        <v>11</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="2">
+        <v>12</v>
+      </c>
+      <c r="C82" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="2">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="2">
+        <v>14</v>
+      </c>
+      <c r="C84" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="2">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="2">
+        <v>16</v>
+      </c>
+      <c r="C86" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="2">
+        <v>17</v>
+      </c>
+      <c r="C87" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="2">
+        <v>18</v>
+      </c>
+      <c r="C88" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="2">
+        <v>19</v>
+      </c>
+      <c r="C89" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="2">
+        <v>20</v>
+      </c>
+      <c r="C90" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="2">
+        <v>21</v>
+      </c>
+      <c r="C91" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="2">
+        <v>22</v>
+      </c>
+      <c r="C92" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" s="2">
+        <v>23</v>
+      </c>
+      <c r="C93" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2</v>
+      </c>
+      <c r="C95" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" s="2">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" s="2">
+        <v>5</v>
+      </c>
+      <c r="C98" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="2">
+        <v>6</v>
+      </c>
+      <c r="C99" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="2">
+        <v>7</v>
+      </c>
+      <c r="C100" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="2">
+        <v>8</v>
+      </c>
+      <c r="C101" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" s="2">
+        <v>9</v>
+      </c>
+      <c r="C102" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="2">
+        <v>10</v>
+      </c>
+      <c r="C103" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="2">
+        <v>11</v>
+      </c>
+      <c r="C104" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="2">
+        <v>12</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="2">
+        <v>13</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="2">
+        <v>14</v>
+      </c>
+      <c r="C107" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" s="2">
+        <v>15</v>
+      </c>
+      <c r="C108" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" s="2">
+        <v>16</v>
+      </c>
+      <c r="C109" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" s="2">
+        <v>17</v>
+      </c>
+      <c r="C110" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" s="2">
+        <v>18</v>
+      </c>
+      <c r="C111" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="2">
+        <v>19</v>
+      </c>
+      <c r="C112" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="2">
+        <v>20</v>
+      </c>
+      <c r="C113" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" s="2">
+        <v>21</v>
+      </c>
+      <c r="C114" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" s="2">
+        <v>22</v>
+      </c>
+      <c r="C115" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="2">
+        <v>23</v>
+      </c>
+      <c r="C116" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2</v>
+      </c>
+      <c r="C118" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" s="2">
+        <v>3</v>
+      </c>
+      <c r="C119" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" s="2">
+        <v>4</v>
+      </c>
+      <c r="C120" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" s="2">
+        <v>5</v>
+      </c>
+      <c r="C121" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" s="2">
+        <v>6</v>
+      </c>
+      <c r="C122" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" s="2">
+        <v>7</v>
+      </c>
+      <c r="C123" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" s="2">
+        <v>8</v>
+      </c>
+      <c r="C124" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="2">
+        <v>9</v>
+      </c>
+      <c r="C125" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" s="2">
+        <v>10</v>
+      </c>
+      <c r="C126" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="2">
+        <v>11</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="2">
+        <v>12</v>
+      </c>
+      <c r="C128" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" s="2">
+        <v>13</v>
+      </c>
+      <c r="C129" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="2">
+        <v>14</v>
+      </c>
+      <c r="C130" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B131" s="2">
+        <v>15</v>
+      </c>
+      <c r="C131" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B132" s="2">
+        <v>16</v>
+      </c>
+      <c r="C132" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="2">
+        <v>17</v>
+      </c>
+      <c r="C133" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B134" s="2">
+        <v>18</v>
+      </c>
+      <c r="C134" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" s="2">
+        <v>19</v>
+      </c>
+      <c r="C135" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B136" s="2">
+        <v>20</v>
+      </c>
+      <c r="C136" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" s="2">
+        <v>21</v>
+      </c>
+      <c r="C137" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138" s="2">
+        <v>22</v>
+      </c>
+      <c r="C138" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" s="2">
+        <v>23</v>
+      </c>
+      <c r="C139" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" s="2">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2</v>
+      </c>
+      <c r="C141" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B142" s="2">
+        <v>3</v>
+      </c>
+      <c r="C142" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B143" s="2">
+        <v>4</v>
+      </c>
+      <c r="C143" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B144" s="2">
+        <v>5</v>
+      </c>
+      <c r="C144" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B145" s="2">
+        <v>6</v>
+      </c>
+      <c r="C145" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B146" s="2">
+        <v>7</v>
+      </c>
+      <c r="C146" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" s="2">
+        <v>8</v>
+      </c>
+      <c r="C147" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148" s="2">
+        <v>9</v>
+      </c>
+      <c r="C148" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" s="2">
+        <v>10</v>
+      </c>
+      <c r="C149" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="2">
+        <v>11</v>
+      </c>
+      <c r="C150" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151" s="2">
+        <v>12</v>
+      </c>
+      <c r="C151" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="2">
+        <v>13</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B153" s="2">
+        <v>14</v>
+      </c>
+      <c r="C153" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" s="2">
+        <v>15</v>
+      </c>
+      <c r="C154" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="2">
+        <v>16</v>
+      </c>
+      <c r="C155" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B156" s="2">
+        <v>17</v>
+      </c>
+      <c r="C156" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157" s="2">
+        <v>18</v>
+      </c>
+      <c r="C157" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B158" s="2">
+        <v>19</v>
+      </c>
+      <c r="C158" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B159" s="2">
+        <v>20</v>
+      </c>
+      <c r="C159" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B160" s="2">
+        <v>21</v>
+      </c>
+      <c r="C160" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" s="2">
+        <v>22</v>
+      </c>
+      <c r="C161" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162" s="2">
+        <v>23</v>
+      </c>
+      <c r="C162" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B163" s="2">
+        <v>1</v>
+      </c>
+      <c r="C163" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2</v>
+      </c>
+      <c r="C164" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" s="2">
+        <v>3</v>
+      </c>
+      <c r="C165" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B166" s="2">
+        <v>4</v>
+      </c>
+      <c r="C166" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" s="2">
+        <v>5</v>
+      </c>
+      <c r="C167" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B168" s="2">
+        <v>6</v>
+      </c>
+      <c r="C168" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169" s="2">
+        <v>7</v>
+      </c>
+      <c r="C169" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B170" s="2">
+        <v>8</v>
+      </c>
+      <c r="C170" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B171" s="2">
+        <v>9</v>
+      </c>
+      <c r="C171" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B172" s="2">
+        <v>10</v>
+      </c>
+      <c r="C172" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B173" s="2">
+        <v>11</v>
+      </c>
+      <c r="C173" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B174" s="2">
+        <v>12</v>
+      </c>
+      <c r="C174" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B175" s="2">
+        <v>13</v>
+      </c>
+      <c r="C175" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B176" s="2">
+        <v>14</v>
+      </c>
+      <c r="C176" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B177" s="2">
+        <v>15</v>
+      </c>
+      <c r="C177" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" s="2">
+        <v>16</v>
+      </c>
+      <c r="C178" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="2">
+        <v>17</v>
+      </c>
+      <c r="C179" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" s="2">
+        <v>18</v>
+      </c>
+      <c r="C180" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" s="2">
+        <v>19</v>
+      </c>
+      <c r="C181" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B182" s="2">
+        <v>20</v>
+      </c>
+      <c r="C182" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" s="2">
+        <v>21</v>
+      </c>
+      <c r="C183" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B184" s="2">
+        <v>22</v>
+      </c>
+      <c r="C184" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" s="2">
+        <v>23</v>
+      </c>
+      <c r="C185" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B186" s="2">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2</v>
+      </c>
+      <c r="C187" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B188" s="2">
+        <v>3</v>
+      </c>
+      <c r="C188" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B189" s="2">
+        <v>4</v>
+      </c>
+      <c r="C189" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B190" s="2">
+        <v>5</v>
+      </c>
+      <c r="C190" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191" s="2">
+        <v>6</v>
+      </c>
+      <c r="C191" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B192" s="2">
+        <v>7</v>
+      </c>
+      <c r="C192" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B193" s="2">
+        <v>8</v>
+      </c>
+      <c r="C193" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B194" s="2">
+        <v>9</v>
+      </c>
+      <c r="C194" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B195" s="2">
+        <v>10</v>
+      </c>
+      <c r="C195" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B196" s="2">
+        <v>11</v>
+      </c>
+      <c r="C196" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" s="2">
+        <v>12</v>
+      </c>
+      <c r="C197" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B198" s="2">
+        <v>13</v>
+      </c>
+      <c r="C198" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B199" s="2">
+        <v>14</v>
+      </c>
+      <c r="C199" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B200" s="2">
+        <v>15</v>
+      </c>
+      <c r="C200" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B201" s="2">
+        <v>16</v>
+      </c>
+      <c r="C201" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B202" s="2">
+        <v>17</v>
+      </c>
+      <c r="C202" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B203" s="2">
+        <v>18</v>
+      </c>
+      <c r="C203" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B204" s="2">
+        <v>19</v>
+      </c>
+      <c r="C204" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B205" s="2">
+        <v>20</v>
+      </c>
+      <c r="C205" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B206" s="2">
+        <v>21</v>
+      </c>
+      <c r="C206" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B207" s="2">
+        <v>22</v>
+      </c>
+      <c r="C207" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B208" s="2">
+        <v>23</v>
+      </c>
+      <c r="C208" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B209" s="2">
+        <v>1</v>
+      </c>
+      <c r="C209" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B210" s="2">
+        <v>2</v>
+      </c>
+      <c r="C210" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B211" s="2">
+        <v>3</v>
+      </c>
+      <c r="C211" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B212" s="2">
+        <v>4</v>
+      </c>
+      <c r="C212" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B213" s="2">
+        <v>5</v>
+      </c>
+      <c r="C213" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B214" s="2">
+        <v>6</v>
+      </c>
+      <c r="C214" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" s="2">
+        <v>7</v>
+      </c>
+      <c r="C215" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B216" s="2">
+        <v>8</v>
+      </c>
+      <c r="C216" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B217" s="2">
+        <v>9</v>
+      </c>
+      <c r="C217" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B218" s="2">
+        <v>10</v>
+      </c>
+      <c r="C218" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B219" s="2">
+        <v>11</v>
+      </c>
+      <c r="C219" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B220" s="2">
+        <v>12</v>
+      </c>
+      <c r="C220" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B221" s="2">
+        <v>13</v>
+      </c>
+      <c r="C221" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B222" s="2">
+        <v>14</v>
+      </c>
+      <c r="C222" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B223" s="2">
+        <v>15</v>
+      </c>
+      <c r="C223" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B224" s="2">
+        <v>16</v>
+      </c>
+      <c r="C224" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B225" s="2">
+        <v>17</v>
+      </c>
+      <c r="C225" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B226" s="2">
+        <v>18</v>
+      </c>
+      <c r="C226" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B227" s="2">
+        <v>19</v>
+      </c>
+      <c r="C227" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B228" s="2">
+        <v>20</v>
+      </c>
+      <c r="C228" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B229" s="2">
+        <v>21</v>
+      </c>
+      <c r="C229" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B230" s="2">
+        <v>22</v>
+      </c>
+      <c r="C230" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B231" s="2">
+        <v>23</v>
+      </c>
+      <c r="C231" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B232" s="2">
+        <v>1</v>
+      </c>
+      <c r="C232" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B233" s="2">
+        <v>2</v>
+      </c>
+      <c r="C233" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B234" s="2">
+        <v>3</v>
+      </c>
+      <c r="C234" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B235" s="2">
+        <v>4</v>
+      </c>
+      <c r="C235" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B236" s="2">
+        <v>5</v>
+      </c>
+      <c r="C236" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B237" s="2">
+        <v>6</v>
+      </c>
+      <c r="C237" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B238" s="2">
+        <v>7</v>
+      </c>
+      <c r="C238" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B239" s="2">
+        <v>8</v>
+      </c>
+      <c r="C239" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B240" s="2">
+        <v>9</v>
+      </c>
+      <c r="C240" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B241" s="2">
+        <v>10</v>
+      </c>
+      <c r="C241" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B242" s="2">
+        <v>11</v>
+      </c>
+      <c r="C242" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B243" s="2">
+        <v>12</v>
+      </c>
+      <c r="C243" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B244" s="2">
+        <v>13</v>
+      </c>
+      <c r="C244" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B245" s="2">
+        <v>14</v>
+      </c>
+      <c r="C245" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B246" s="2">
+        <v>15</v>
+      </c>
+      <c r="C246" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B247" s="2">
+        <v>16</v>
+      </c>
+      <c r="C247" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B248" s="2">
+        <v>17</v>
+      </c>
+      <c r="C248" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B249" s="2">
+        <v>18</v>
+      </c>
+      <c r="C249" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B250" s="2">
+        <v>19</v>
+      </c>
+      <c r="C250" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B251" s="2">
+        <v>20</v>
+      </c>
+      <c r="C251" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B252" s="2">
+        <v>21</v>
+      </c>
+      <c r="C252" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B253" s="2">
+        <v>22</v>
+      </c>
+      <c r="C253" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B254" s="2">
+        <v>23</v>
+      </c>
+      <c r="C254" s="2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8164,65 +13134,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <v>1</v>
       </c>
       <c r="C3" s="7">
@@ -8291,700 +13261,700 @@
       <c r="X3" s="7">
         <v>23</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="Z3" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>0</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="23">
         <v>0</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>0</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <v>0</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="23">
         <v>0</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="23">
         <v>0</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="23">
         <v>0</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="23">
         <v>0</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="23">
         <v>0</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="23">
         <v>0</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="23">
         <v>0</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="23">
         <v>2</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="23">
         <v>0</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="23">
         <v>0</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="23">
         <v>0</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="23">
         <v>0</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="23">
         <v>0</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="23">
         <v>0</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="23">
         <v>0</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="23">
         <v>0</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="23">
         <v>0</v>
       </c>
-      <c r="W4" s="25">
+      <c r="W4" s="23">
         <v>0</v>
       </c>
-      <c r="X4" s="25">
+      <c r="X4" s="23">
         <v>0</v>
       </c>
-      <c r="Z4" s="32">
+      <c r="Z4" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="23">
         <v>0</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <v>0</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="23">
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <v>0</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <v>0</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <v>0</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <v>1</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="23">
         <v>0</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
         <v>2</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="23">
         <v>2</v>
       </c>
-      <c r="N5" s="25">
-        <v>5</v>
-      </c>
-      <c r="O5" s="25">
+      <c r="N5" s="23">
+        <v>5</v>
+      </c>
+      <c r="O5" s="23">
         <v>0</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="23">
         <v>0</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="23">
         <v>0</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="23">
         <v>0</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="23">
         <v>0</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="23">
         <v>0</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="23">
         <v>0</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="23">
         <v>0</v>
       </c>
-      <c r="W5" s="25">
+      <c r="W5" s="23">
         <v>0</v>
       </c>
-      <c r="X5" s="25">
+      <c r="X5" s="23">
         <v>0</v>
       </c>
-      <c r="Z5" s="32">
+      <c r="Z5" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>2</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>0</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>0</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <v>0</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="23">
         <v>0</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="23">
         <v>0</v>
       </c>
-      <c r="H6" s="25">
-        <v>5</v>
-      </c>
-      <c r="I6" s="25">
+      <c r="H6" s="23">
+        <v>5</v>
+      </c>
+      <c r="I6" s="23">
         <v>0</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="23">
         <v>2</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="23">
         <v>0</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="23">
         <v>1</v>
       </c>
-      <c r="M6" s="25">
-        <v>5</v>
-      </c>
-      <c r="N6" s="25">
-        <v>6</v>
-      </c>
-      <c r="O6" s="25">
+      <c r="M6" s="23">
+        <v>5</v>
+      </c>
+      <c r="N6" s="23">
+        <v>6</v>
+      </c>
+      <c r="O6" s="23">
         <v>0</v>
       </c>
-      <c r="P6" s="25">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="25">
+      <c r="P6" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="23">
         <v>0</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="23">
         <v>1</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="23">
         <v>1</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="23">
         <v>0</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6" s="23">
         <v>1</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6" s="23">
         <v>0</v>
       </c>
-      <c r="W6" s="25">
+      <c r="W6" s="23">
         <v>0</v>
       </c>
-      <c r="X6" s="25">
+      <c r="X6" s="23">
         <v>1</v>
       </c>
-      <c r="Z6" s="32">
+      <c r="Z6" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <v>4</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="23">
         <v>0</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>7</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>0</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <v>0</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="23">
         <v>2</v>
       </c>
-      <c r="H7" s="25">
-        <v>6</v>
-      </c>
-      <c r="I7" s="25">
+      <c r="H7" s="23">
+        <v>6</v>
+      </c>
+      <c r="I7" s="23">
         <v>1</v>
       </c>
-      <c r="J7" s="25">
-        <v>6</v>
-      </c>
-      <c r="K7" s="25">
+      <c r="J7" s="23">
+        <v>6</v>
+      </c>
+      <c r="K7" s="23">
         <v>1</v>
       </c>
-      <c r="L7" s="25">
-        <v>6</v>
-      </c>
-      <c r="M7" s="25">
+      <c r="L7" s="23">
+        <v>6</v>
+      </c>
+      <c r="M7" s="23">
         <v>1</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="23">
         <v>0</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="23">
         <v>0</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="23">
         <v>4</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="23">
         <v>0</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="23">
         <v>0</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="23">
         <v>1</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7" s="23">
         <v>0</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="23">
         <v>0</v>
       </c>
-      <c r="V7" s="25">
+      <c r="V7" s="23">
         <v>0</v>
       </c>
-      <c r="W7" s="25">
+      <c r="W7" s="23">
         <v>0</v>
       </c>
-      <c r="X7" s="25">
+      <c r="X7" s="23">
         <v>0</v>
       </c>
-      <c r="Z7" s="32">
+      <c r="Z7" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>5</v>
-      </c>
-      <c r="B8" s="25">
+      <c r="A8" s="25">
+        <v>5</v>
+      </c>
+      <c r="B8" s="23">
         <v>4</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="23">
         <v>0</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>2</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <v>1</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="23">
         <v>1</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="23">
         <v>4</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="23">
         <v>0</v>
       </c>
-      <c r="I8" s="25">
-        <v>6</v>
-      </c>
-      <c r="J8" s="25">
+      <c r="I8" s="23">
+        <v>6</v>
+      </c>
+      <c r="J8" s="23">
         <v>1</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="23">
         <v>1</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="23">
         <v>2</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="23">
         <v>1</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="23">
         <v>0</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="23">
         <v>1</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="23">
         <v>0</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="23">
         <v>1</v>
       </c>
-      <c r="R8" s="25">
-        <v>6</v>
-      </c>
-      <c r="S8" s="25">
-        <v>5</v>
-      </c>
-      <c r="T8" s="25">
+      <c r="R8" s="23">
+        <v>6</v>
+      </c>
+      <c r="S8" s="23">
+        <v>5</v>
+      </c>
+      <c r="T8" s="23">
         <v>0</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8" s="23">
         <v>1</v>
       </c>
-      <c r="V8" s="25">
+      <c r="V8" s="23">
         <v>0</v>
       </c>
-      <c r="W8" s="25">
+      <c r="W8" s="23">
         <v>1</v>
       </c>
-      <c r="X8" s="25">
+      <c r="X8" s="23">
         <v>7</v>
       </c>
-      <c r="Z8" s="32">
+      <c r="Z8" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>6</v>
-      </c>
-      <c r="B9" s="25">
+      <c r="A9" s="25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="23">
         <v>0</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="23">
         <v>1</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>2</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <v>4</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="23">
         <v>4</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="23">
         <v>4</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="23">
         <v>0</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="23">
         <v>4</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="23">
         <v>1</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="23">
         <v>4</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="23">
         <v>0</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="23">
         <v>0</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="23">
         <v>0</v>
       </c>
-      <c r="O9" s="25">
-        <v>6</v>
-      </c>
-      <c r="P9" s="25">
+      <c r="O9" s="23">
+        <v>6</v>
+      </c>
+      <c r="P9" s="23">
         <v>1</v>
       </c>
-      <c r="Q9" s="25">
-        <v>6</v>
-      </c>
-      <c r="R9" s="25">
+      <c r="Q9" s="23">
+        <v>6</v>
+      </c>
+      <c r="R9" s="23">
         <v>1</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S9" s="23">
         <v>2</v>
       </c>
-      <c r="T9" s="25">
-        <v>6</v>
-      </c>
-      <c r="U9" s="25">
+      <c r="T9" s="23">
+        <v>6</v>
+      </c>
+      <c r="U9" s="23">
         <v>2</v>
       </c>
-      <c r="V9" s="25">
+      <c r="V9" s="23">
         <v>3</v>
       </c>
-      <c r="W9" s="25">
+      <c r="W9" s="23">
         <v>4</v>
       </c>
-      <c r="X9" s="25">
+      <c r="X9" s="23">
         <v>3</v>
       </c>
-      <c r="Z9" s="32">
+      <c r="Z9" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="25">
         <v>7</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <v>0</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="23">
         <v>3</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="23">
         <v>0</v>
       </c>
-      <c r="E10" s="25">
-        <v>6</v>
-      </c>
-      <c r="F10" s="25">
+      <c r="E10" s="23">
+        <v>6</v>
+      </c>
+      <c r="F10" s="23">
         <v>2</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="23">
         <v>0</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <v>0</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="23">
         <v>0</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>0</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="23">
         <v>3</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="23">
         <v>0</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="23">
         <v>0</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="23">
         <v>0</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="23">
         <v>3</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="23">
         <v>0</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="23">
         <v>4</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R10" s="23">
         <v>2</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10" s="23">
         <v>1</v>
       </c>
-      <c r="T10" s="25">
-        <v>5</v>
-      </c>
-      <c r="U10" s="25">
+      <c r="T10" s="23">
+        <v>5</v>
+      </c>
+      <c r="U10" s="23">
         <v>2</v>
       </c>
-      <c r="V10" s="25">
+      <c r="V10" s="23">
         <v>2</v>
       </c>
-      <c r="W10" s="25">
-        <v>5</v>
-      </c>
-      <c r="X10" s="25">
+      <c r="W10" s="23">
+        <v>5</v>
+      </c>
+      <c r="X10" s="23">
         <v>0</v>
       </c>
-      <c r="Z10" s="32">
+      <c r="Z10" s="29">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>0</v>
       </c>
-      <c r="C11" s="25">
-        <v>5</v>
-      </c>
-      <c r="D11" s="25">
+      <c r="C11" s="23">
+        <v>5</v>
+      </c>
+      <c r="D11" s="23">
         <v>0</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <v>0</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="23">
         <v>4</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="23">
         <v>1</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>0</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>0</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="23">
         <v>0</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="23">
         <v>2</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="23">
         <v>0</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="23">
         <v>0</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="23">
         <v>0</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="23">
         <v>1</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="23">
         <v>0</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="23">
         <v>0</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="23">
         <v>0</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11" s="23">
         <v>1</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T11" s="23">
         <v>0</v>
       </c>
-      <c r="U11" s="25">
-        <v>5</v>
-      </c>
-      <c r="V11" s="25">
+      <c r="U11" s="23">
+        <v>5</v>
+      </c>
+      <c r="V11" s="23">
         <v>4</v>
       </c>
-      <c r="W11" s="25">
+      <c r="W11" s="23">
         <v>1</v>
       </c>
-      <c r="X11" s="25">
+      <c r="X11" s="23">
         <v>0</v>
       </c>
-      <c r="Z11" s="32">
+      <c r="Z11" s="29">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="25">
         <v>9</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <v>0</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="23">
         <v>2</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="23">
         <v>0</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <v>0</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="23">
         <v>0</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="23">
         <v>0</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="23">
         <v>0</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="23">
         <v>0</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="23">
         <v>0</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="23">
         <v>0</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <v>0</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="23">
         <v>0</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="23">
         <v>0</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="23">
         <v>0</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="23">
         <v>0</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="23">
         <v>0</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="23">
         <v>1</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S12" s="23">
         <v>0</v>
       </c>
-      <c r="T12" s="25">
+      <c r="T12" s="23">
         <v>0</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="23">
         <v>0</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12" s="23">
         <v>2</v>
       </c>
-      <c r="W12" s="25">
+      <c r="W12" s="23">
         <v>0</v>
       </c>
-      <c r="X12" s="25">
+      <c r="X12" s="23">
         <v>0</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z12" s="29">
         <v>9</v>
       </c>
     </row>
@@ -8998,6 +13968,9 @@
     <mergeCell ref="B1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:X12">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9007,9 +13980,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9025,7 +13995,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:L1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9036,19 +14006,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -10381,96 +15351,96 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:L3">
-    <cfRule type="top10" dxfId="92" priority="45" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="91" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="91" priority="45" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="90" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:L4">
-    <cfRule type="top10" dxfId="90" priority="43" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="89" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="89" priority="43" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="88" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:L5">
-    <cfRule type="top10" dxfId="88" priority="41" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="87" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="87" priority="41" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="86" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:L6">
-    <cfRule type="top10" dxfId="86" priority="39" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="85" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="85" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="84" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:L7">
-    <cfRule type="top10" dxfId="84" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="83" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="83" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:L8">
-    <cfRule type="top10" dxfId="82" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="81" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:L9">
-    <cfRule type="top10" dxfId="80" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="79" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="79" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:L10">
-    <cfRule type="top10" dxfId="78" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="77" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="77" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="76" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:L11">
-    <cfRule type="top10" dxfId="76" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="75" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="75" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="74" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L12">
-    <cfRule type="top10" dxfId="74" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="73" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="73" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13">
-    <cfRule type="top10" dxfId="72" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="71" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="71" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:L14">
-    <cfRule type="top10" dxfId="70" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="69" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:L15">
-    <cfRule type="top10" dxfId="68" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="67" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="67" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:L16">
-    <cfRule type="top10" dxfId="66" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="65" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:L17">
-    <cfRule type="top10" dxfId="64" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="63" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L18">
-    <cfRule type="top10" dxfId="62" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="61" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="61" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L19">
-    <cfRule type="top10" dxfId="60" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="59" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:L20">
-    <cfRule type="top10" dxfId="58" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="57" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L21">
-    <cfRule type="top10" dxfId="56" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="55" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:L22">
-    <cfRule type="top10" dxfId="54" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="53" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:L23">
-    <cfRule type="top10" dxfId="52" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="51" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:L24">
-    <cfRule type="top10" dxfId="50" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="49" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:L25">
-    <cfRule type="top10" dxfId="48" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="47" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10497,19 +15467,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -11773,96 +16743,96 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:L3">
-    <cfRule type="aboveAverage" dxfId="46" priority="45" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="45" priority="46"/>
+    <cfRule type="aboveAverage" dxfId="45" priority="45" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="44" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:L4">
-    <cfRule type="aboveAverage" dxfId="44" priority="43" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="43" priority="44"/>
+    <cfRule type="aboveAverage" dxfId="43" priority="43" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="42" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:L5">
-    <cfRule type="aboveAverage" dxfId="42" priority="41" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="41" priority="42"/>
+    <cfRule type="aboveAverage" dxfId="41" priority="41" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="40" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:L6">
-    <cfRule type="aboveAverage" dxfId="40" priority="39" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="39" priority="40"/>
+    <cfRule type="aboveAverage" dxfId="39" priority="39" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="38" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:L7">
-    <cfRule type="aboveAverage" dxfId="38" priority="37" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="37" priority="38"/>
+    <cfRule type="aboveAverage" dxfId="37" priority="37" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="36" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:L8">
-    <cfRule type="aboveAverage" dxfId="36" priority="35" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="35" priority="36"/>
+    <cfRule type="aboveAverage" dxfId="35" priority="35" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="34" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:L9">
-    <cfRule type="aboveAverage" dxfId="34" priority="33" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="33" priority="34"/>
+    <cfRule type="aboveAverage" dxfId="33" priority="33" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="32" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:L10">
-    <cfRule type="aboveAverage" dxfId="32" priority="31" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="31" priority="32"/>
+    <cfRule type="aboveAverage" dxfId="31" priority="31" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="30" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:L11">
-    <cfRule type="aboveAverage" dxfId="30" priority="29" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="29" priority="30"/>
+    <cfRule type="aboveAverage" dxfId="29" priority="29" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="28" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L12">
-    <cfRule type="aboveAverage" dxfId="28" priority="27" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="27" priority="28"/>
+    <cfRule type="aboveAverage" dxfId="27" priority="27" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="26" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13">
-    <cfRule type="aboveAverage" dxfId="26" priority="25" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="25" priority="26"/>
+    <cfRule type="aboveAverage" dxfId="25" priority="25" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="24" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:L14">
-    <cfRule type="aboveAverage" dxfId="24" priority="23" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="23" priority="24"/>
+    <cfRule type="aboveAverage" dxfId="23" priority="23" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="22" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:L15">
-    <cfRule type="aboveAverage" dxfId="22" priority="21" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="21" priority="22"/>
+    <cfRule type="aboveAverage" dxfId="21" priority="21" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="20" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:L16">
-    <cfRule type="aboveAverage" dxfId="20" priority="19" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="19" priority="20"/>
+    <cfRule type="aboveAverage" dxfId="19" priority="19" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="18" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:L17">
-    <cfRule type="aboveAverage" dxfId="18" priority="17" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="17" priority="18"/>
+    <cfRule type="aboveAverage" dxfId="17" priority="17" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L18">
-    <cfRule type="aboveAverage" dxfId="16" priority="15" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="15" priority="16"/>
+    <cfRule type="aboveAverage" dxfId="15" priority="15" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L19">
-    <cfRule type="aboveAverage" dxfId="14" priority="13" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="13" priority="14"/>
+    <cfRule type="aboveAverage" dxfId="13" priority="13" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:L20">
-    <cfRule type="aboveAverage" dxfId="12" priority="11" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="11" priority="12"/>
+    <cfRule type="aboveAverage" dxfId="11" priority="11" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L21">
-    <cfRule type="aboveAverage" dxfId="10" priority="9" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="9" priority="10"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="9" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:L22">
-    <cfRule type="aboveAverage" dxfId="8" priority="7" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="7" priority="8"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="7" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:L23">
-    <cfRule type="aboveAverage" dxfId="6" priority="5" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="5" priority="6"/>
+    <cfRule type="aboveAverage" dxfId="5" priority="5" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:L24">
-    <cfRule type="aboveAverage" dxfId="4" priority="3" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="3" priority="4"/>
+    <cfRule type="aboveAverage" dxfId="3" priority="3" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:L25">
-    <cfRule type="aboveAverage" dxfId="2" priority="1" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="1" priority="2"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="1" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11899,6 +16869,520 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="32">
+        <v>127</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="str">
+        <f>"Score: "&amp;$A$4</f>
+        <v>Score: Bob Arnold</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>1</v>
+      </c>
+      <c r="B5" s="32">
+        <v>3</v>
+      </c>
+      <c r="C5" s="35">
+        <f t="shared" ref="C5:C27" si="0">A5</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="35">
+        <f t="shared" ref="D5:D27" si="1">B5</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>2</v>
+      </c>
+      <c r="B6" s="32">
+        <v>8</v>
+      </c>
+      <c r="C6" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="36">
+        <v>7.7272727272727275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>3</v>
+      </c>
+      <c r="B7" s="32">
+        <v>4</v>
+      </c>
+      <c r="C7" s="35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="36">
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>4</v>
+      </c>
+      <c r="B8" s="32">
+        <v>7</v>
+      </c>
+      <c r="C8" s="35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="36">
+        <v>6.4545454545454541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>5</v>
+      </c>
+      <c r="B9" s="32">
+        <v>7</v>
+      </c>
+      <c r="C9" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="36">
+        <v>6.8181818181818183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>6</v>
+      </c>
+      <c r="B10" s="32">
+        <v>6</v>
+      </c>
+      <c r="C10" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="36">
+        <v>5.4545454545454541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>7</v>
+      </c>
+      <c r="B11" s="32">
+        <v>4</v>
+      </c>
+      <c r="C11" s="35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="36">
+        <v>3.5454545454545454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>8</v>
+      </c>
+      <c r="B12" s="32">
+        <v>5</v>
+      </c>
+      <c r="C12" s="35">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="36">
+        <v>5.2727272727272725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>9</v>
+      </c>
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="36">
+        <v>3.9090909090909092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>10</v>
+      </c>
+      <c r="B14" s="32">
+        <v>6</v>
+      </c>
+      <c r="C14" s="35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="36">
+        <v>6.3636363636363633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>11</v>
+      </c>
+      <c r="B15" s="32">
+        <v>5</v>
+      </c>
+      <c r="C15" s="35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="36">
+        <v>3.7272727272727271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>12</v>
+      </c>
+      <c r="B16" s="32">
+        <v>3</v>
+      </c>
+      <c r="C16" s="35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="36">
+        <v>2.7272727272727271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>13</v>
+      </c>
+      <c r="B17" s="32">
+        <v>2</v>
+      </c>
+      <c r="C17" s="35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="36">
+        <v>2.5454545454545454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>14</v>
+      </c>
+      <c r="B18" s="32">
+        <v>6</v>
+      </c>
+      <c r="C18" s="35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="36">
+        <v>6.3636363636363633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>15</v>
+      </c>
+      <c r="B19" s="32">
+        <v>3</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="36">
+        <v>3.6363636363636362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>16</v>
+      </c>
+      <c r="B20" s="32">
+        <v>6</v>
+      </c>
+      <c r="C20" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E20" s="36">
+        <v>6.2727272727272725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>17</v>
+      </c>
+      <c r="B21" s="32">
+        <v>5</v>
+      </c>
+      <c r="C21" s="35">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E21" s="36">
+        <v>5.6363636363636367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <v>18</v>
+      </c>
+      <c r="B22" s="32">
+        <v>8</v>
+      </c>
+      <c r="C22" s="35">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E22" s="36">
+        <v>5.3636363636363633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>19</v>
+      </c>
+      <c r="B23" s="32">
+        <v>6</v>
+      </c>
+      <c r="C23" s="35">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D23" s="35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="36">
+        <v>6.4545454545454541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <v>20</v>
+      </c>
+      <c r="B24" s="32">
+        <v>8</v>
+      </c>
+      <c r="C24" s="35">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E24" s="36">
+        <v>6.7272727272727275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>21</v>
+      </c>
+      <c r="B25" s="32">
+        <v>9</v>
+      </c>
+      <c r="C25" s="35">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E25" s="36">
+        <v>7.4545454545454541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>22</v>
+      </c>
+      <c r="B26" s="32">
+        <v>7</v>
+      </c>
+      <c r="C26" s="35">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E26" s="36">
+        <v>6.5454545454545459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>23</v>
+      </c>
+      <c r="B27" s="32">
+        <v>5</v>
+      </c>
+      <c r="C27" s="35">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E27" s="36">
+        <v>5.0909090909090908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="32">
+        <v>127</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -12844,11 +18328,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y1">
-    <sortState ref="A2:Y12">
-      <sortCondition descending="1" ref="Y1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>